--- a/experiment_results/129335P2.xlsx
+++ b/experiment_results/129335P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1487"/>
+  <dimension ref="A1:I1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Performing Arts', 'Cultural Tours']</t>
+          <t>Category: ['Performing Arts', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Food Festivals']</t>
+          <t>Category: ['Food Festivals', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14871,7 +14871,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353P15</t>
+          <t>PRODUCTCODE: 366458P5</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to cabarets, windmills, and sweeping views of Paris. Explore the people and places that marked the Belle Epoque period, when the City of Light sparkled more than ever.</t>
+          <t>Summarized description: Explore the picturesque alleys of Montmartre. Stroll along the rue des Abbesses, witness to an ancient history. Admire the breathtaking panoramic view of Paris.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Montmartre District and Sacre Coeur Guided Walking Tour - Semi-Private 8ppl Max</t>
+          <t>Title: Montmarte and Sacré-Coeur with the best guides in Paris</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 88</t>
+          <t>TotalReviews: 115</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 47475P17</t>
+          <t>PRODUCTCODE: 6353P15</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to famous painters like Van Gogh and Henri de Toulouse-Lautrec. The two-hour private walking tour includes a stop at the Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Montmartre is home to cabarets, windmills, and sweeping views of Paris. Explore the people and places that marked the Belle Epoque period, when the City of Light sparkled more than ever.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre Private Walking Tour - Best Art, Culture, Food</t>
+          <t>Title: Montmartre District and Sacre Coeur Guided Walking Tour - Semi-Private 8ppl Max</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 67</t>
+          <t>TotalReviews: 88</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13405P3</t>
+          <t>PRODUCTCODE: 445889P2</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Montmartre's history and secrets with insight from a private guide. You'll see attractions like the Moulin Rouge and hear about bohemian life during the Belle Epoque.</t>
+          <t>Summarized description: Walk in the footsteps of filmmakers and find yourself amidst iconic scenes from French and international pop culture. Dive into the alleys, unearth history and culture and capture the Parisian essence.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacré Coeur Private Historical 2-Hour Walking Tour in Paris</t>
+          <t>Title: Montmartre Secrets and Sacré-Coeur Small Group Walking Tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 394285P4</t>
+          <t>PRODUCTCODE: 13405P3</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was once the home of a Roman temple and then a small village teeming with windmills. It became the birthplace of Impressionism, overrun with cabarets and can-can dancers. The neighbourhood is full of great bars and restaurants, artists’ studios, and even a vineyard.</t>
+          <t>Summarized description: Learn about Montmartre's history and secrets with insight from a private guide. You'll see attractions like the Moulin Rouge and hear about bohemian life during the Belle Epoque.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Montmartre Guided Walking Tour: Famous Artists and Cabarets</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Private Historical 2-Hour Walking Tour in Paris</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 17</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 348920P2</t>
+          <t>PRODUCTCODE: 5746SS</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is like wandering through a Parisian movie set. Your expert tour guide will bring you to the sights and sounds of legendary bohemians.</t>
+          <t>Summarized description: Go on an art walking tour in the morning through the bohemian neighborhood of Montmartre. Enjoy skip-the-line access to the Musée d’Orsay to see masterpieces by Van Gogh and Monet. At night, admire illuminated landmarks such as the Eiffel Tower and Notre Dame Cathedral.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: The Montmartre Walking Tour Experience</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Super Saver with Paris by Night Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150467P2</t>
+          <t>PRODUCTCODE: 110804P195</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: This 2-hour private walking tour focuses on Montmartre neighborhood. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes this area so nice.</t>
+          <t>Summarized description: Montmartre is one of the only vineyards left in Paris. See where artists Picasso and Modigliani got their start. Do it all in an hour or linger at stops along the way.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Walking Tour</t>
+          <t>Title: Montmartre Self-Guided Audio Tour: More Than Meets the Eye</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226709P1</t>
+          <t>PRODUCTCODE: 348920P2</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: The itinerary covers Moulin Rouge to Sacre Coeur cathedral. We explore the eccentric lifestyles of current and former Montmartre residents. We discover why local residents are so proud of their peculiar vineyard.</t>
+          <t>Summarized description: Montmartre is like wandering through a Parisian movie set. Your expert tour guide will bring you to the sights and sounds of legendary bohemians.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Walking Tour </t>
+          <t>Title: The Montmartre Walking Tour Experience</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 298466P37</t>
+          <t>PRODUCTCODE: 150467P2</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montmartre from a different perspective on a self-guided walking tour. Solve riddles and clues that lead to the next location, showing all the city highlights.</t>
+          <t>Summarized description: This 2-hour private walking tour focuses on Montmartre neighborhood. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes this area so nice.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Paris (Montmartre) Scavenger Hunt and Sights Self-Guided Tour</t>
+          <t>Title: Montmartre Private Walking Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 225279P12</t>
+          <t>PRODUCTCODE: 226709P1</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is renowned for its architecture, beautiful photo stops and for being the cultural heart of Paris. Walk through Sacre Coeur, explore La Maison Rose, stroll along with the Rue Saint Vincent, and ultimately finish in front of the Espace Dalí.</t>
+          <t>Summarized description: The itinerary covers Moulin Rouge to Sacre Coeur cathedral. We explore the eccentric lifestyles of current and former Montmartre residents. We discover why local residents are so proud of their peculiar vineyard.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Montmartre: Secret Stories of Paris - Self-Guided Audio Tour</t>
+          <t xml:space="preserve">Title: Montmartre Walking Tour </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29151P1</t>
+          <t>PRODUCTCODE: 298466P37</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5-hour walking tour in a small group of 10 people (maximum) Learn about the most exciting things Montmartre has to offer.</t>
+          <t>Summarized description: Discover Montmartre from a different perspective on a self-guided walking tour. Solve riddles and clues that lead to the next location, showing all the city highlights.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: 2.5-Hour Walking Tour of Magical Montmartre District</t>
+          <t>Title: Paris (Montmartre) Scavenger Hunt and Sights Self-Guided Tour</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 89859P2</t>
+          <t>PRODUCTCODE: 225279P12</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montmartre on foot in a small group. Learn about the history of the neighborhood. Listen to stories and insider tips from your local guide. Discover romantic corners off the beaten path.</t>
+          <t>Summarized description: Montmartre is renowned for its architecture, beautiful photo stops and for being the cultural heart of Paris. Walk through Sacre Coeur, explore La Maison Rose, stroll along with the Rue Saint Vincent, and ultimately finish in front of the Espace Dalí.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre: 2 hour walking tour in English and German (Group tour)</t>
+          <t>Title: Montmartre: Secret Stories of Paris - Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 427087P3</t>
+          <t>PRODUCTCODE: 51738P35</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: The Bohemian village of Montmartre is a popular area well-known by many artists and a lot of landmarks which have influenced the course of the history of Paris. These alleys contain crazy stories and offer an exceptional view of the city.</t>
+          <t>Summarized description: Montmartre is one of the oldest, most picturesque and characteristic quarter in Paris. It is home to famous artists such as Picasso, Van Gogh and Renoir.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Visite guidée de Montmartre avec un guide local en petit groupe</t>
+          <t>Title: Paris: Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 123350P4</t>
+          <t>PRODUCTCODE: 5746P32</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is full of stories about artists such as Van Gogh, Picasso, Renoir and others. Discover the beauty and secrets of the bohemian Montmartre with us.</t>
+          <t>Summarized description: Montmartre tour is designed so you see the village of Montmartre at its best without the day-time crowds. At the end of the tour, your guide takes you to a charming café at the top of the hill for an exquisite glass of chilled champagne.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: The Soul of Montmartre Walking Tour</t>
+          <t>Title: Montmartre from Moulin Rouge to Sacré Coeur Night Tour with Glass of Champagne</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 374044P2</t>
+          <t>PRODUCTCODE: 29151P1</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was once home to a host of artists including Picasso, Modigliani and Toulouse-Lautrec. This is a perfect cosy small-group tour that will allow you to enjoy the experience at its best.</t>
+          <t>Summarized description: 2.5-hour walking tour in a small group of 10 people (maximum) Learn about the most exciting things Montmartre has to offer.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacré Coeur Small Group Tour</t>
+          <t>Title: 2.5-Hour Walking Tour of Magical Montmartre District</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P86</t>
+          <t>PRODUCTCODE: 89859P2</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre Walking Tour is a leisurely walk through the heart of Paris. The highlight of your journey awaits you as you ascend Montmartre Hill and approach the magnificent Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Discover Montmartre on foot in a small group. Learn about the history of the neighborhood. Listen to stories and insider tips from your local guide. Discover romantic corners off the beaten path.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Montmartre Marvels: A Small Group Guided Stroll in Bohemian Paris</t>
+          <t>Title: Paris Montmartre: 2 hour walking tour in English and German (Group tour)</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118261P9</t>
+          <t>PRODUCTCODE: 103576P31</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is undoubtedly the most picturesque district in Paris. With this walk you will discover the history of this neighborhood. We will start from the famous Moulin Rouge and then go up the hill.</t>
+          <t>Summarized description: Montmartre was perhaps the cradle of Impressionism, starting in the 19th century. Many famous artists such as Monet, Dalí, Picasso, Van Gogh, Renoir, Degas and many others lived.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Group tour in Italian of the Montmartre district</t>
+          <t>Title: Self-Guided Audio Tour - Montmartre: The heart of art and bohemia</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1097</t>
+          <t>PRODUCTCODE: 323229P1</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Highlights &amp; Hidden Gems of Montmartre: Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce.</t>
+          <t>Summarized description: Montmartre is one of the most beautiful places in the world. It is located on the banks of the River Seine, near the city of Paris. The city is famous for its cafes and restaurants.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Highlights &amp; Hidden Gems of Montmartre: Private City Tour</t>
+          <t>Title: Montmartre to fall in love - Self-Guided Digital tour on Bohemian Hill of Paris</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 366784P2</t>
+          <t>PRODUCTCODE: 427087P3</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: The app features a pre-designed walking route that takes you through the key attractions of Montmartre, accompanied by captivating audio commentary detailing the history of the area. During your self-guided tour, you are guaranteed to encounter the iconic Moulin Rouge Cabaret and the renowned ""red light district of Paris"</t>
+          <t>Summarized description: The Bohemian village of Montmartre is a popular area well-known by many artists and a lot of landmarks which have influenced the course of the history of Paris. These alleys contain crazy stories and offer an exceptional view of the city.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Private Self Guided Walking Tour in Montmartre Paris</t>
+          <t>Title: Visite guidée de Montmartre avec un guide local en petit groupe</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126585P6</t>
+          <t>PRODUCTCODE: 374044P2</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: This visit was designed by a Montmartrois who lives on the Place du Tertre. In 2 hours you will discover the famous but also hidden places of Montmartre. Commentary and photo stops are provided to fully enjoy the experience.</t>
+          <t>Summarized description: Montmartre was once home to a host of artists including Picasso, Modigliani and Toulouse-Lautrec. This is a perfect cosy small-group tour that will allow you to enjoy the experience at its best.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Unusual walking tour of Montmartre and local wine tasting - 2H</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Small Group Tour</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210607P1</t>
+          <t>PRODUCTCODE: 5045P86</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most famous districts of Paris. The district was the filming location for EMILY IN PARIS, HEARTSTOPPER, JOHN WICK 4, AMELIE, MIDNIGHT in PARIS.</t>
+          <t>Summarized description: Montmartre Walking Tour is a leisurely walk through the heart of Paris. The highlight of your journey awaits you as you ascend Montmartre Hill and approach the magnificent Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Discovering Montmartre with local resident</t>
+          <t>Title: Montmartre Marvels: A Small Group Guided Stroll in Bohemian Paris</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328033P1</t>
+          <t>PRODUCTCODE: 210555P5</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is not only my favourite neighbourhood, it's also where I live. So we’ll dive deep into its history and give you all of the insider information. Discover Montmartre, full of secret gardens, tiny streets and windmills.</t>
+          <t>Summarized description: Discover the areas which made the artists like Vincent Van Gogh, Claude Monet, Salvador Dali and Pablo Picasso call it their home. Witness the last remaining Vineyards of Paris and the Square of the Artists.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Guided 2-Hour Tour Secret Face of Montmartre</t>
+          <t>Title: Montmartre Guided Tour with Sacré Cœur Church and City views</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 148845P3</t>
+          <t>PRODUCTCODE: 116778P16</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre housed the studios of a lot of masters of painting such as Picasso, Toulouse-Lautrec, Van Gogh and Utrillo.</t>
+          <t>Summarized description: Montmartre is famous for its chic art scene, impressive history, and remarkable heritage. Stroll through the mesmerizing Notre Dame de Lorette, and get up close to its handpainted murals. Uncover its unique past as you make your way down the world-famous Rue Des Martyrs.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Montmartre , Basilica of Sacred Heart and Place du Tertre</t>
+          <t>Title: Montmartre’s heritage with specialties tasting Private Tour</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P157</t>
+          <t>PRODUCTCODE: 118261P9</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been home to Van Gogh, Renoir, and Picasso. See the sites and vistas they enjoyed painting from the hill overlooking Paris.</t>
+          <t>Summarized description: Montmartre is undoubtedly the most picturesque district in Paris. With this walk you will discover the history of this neighborhood. We will start from the famous Moulin Rouge and then go up the hill.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Explore Bohemian Montmartre: Private Half-Day Walking Tour</t>
+          <t>Title: Group tour in Italian of the Montmartre district</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9204P12</t>
+          <t>PRODUCTCODE: 2050P294</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Travel back to a time of quaint cobblestone streets and country village charm. Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
+          <t>Summarized description: The Basilica of the Sacré-Cœur is located up the hill of Montmartre, the "Mount of Martyrs" Enjoy the wide panoramic view of the City of Light and its famous monuments.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Paris: Montmartre &amp; Sacré Coeur Private Walking Tour</t>
+          <t>Title: Montmartre Bohemian Audio Guided Tour with Sacre Coeur Basilica</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14447P4</t>
+          <t>PRODUCTCODE: 75909P683</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history, culture, and characters of the district. Visit Sacré-Coeur Basilica for a view over the city. Small-group tour is limited to 15 people.</t>
+          <t>Summarized description: Explore Montmartre on foot and enjoy Parisian delicacies as you go. Local expert will share anecdotes and teach you about the city and its culinary history.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Paris Walking Tour of the Montmartre District</t>
+          <t>Title: All Inclusive Food &amp; History Tour of Montmartre with Local Guide</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32142P51</t>
+          <t>PRODUCTCODE: 119774P4</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been a favourite place for Impressionist such as Renoir, Picasso, Toulouse-Lautrec and many other artists. The tour goes through the district up to the Basilica of the Sacred Heart.</t>
+          <t>Summarized description: You will relive the atmosphere of the ''New-Athens'', where the Batignolles Group gathered. You will learn about their art and their private life, and you will have fun with anecdotes.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Montmartre Small-Group Family Tour</t>
+          <t>Title: Montmartre, in the footsteps of painters.</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 398416P1</t>
+          <t>PRODUCTCODE: 24380P1097</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was the birthplace of both the Jesuit Order and the modern Counterculture. One must see the workshops and cafés where Renoir, Vang Gogh and Picasso championed new art forms.</t>
+          <t>Summarized description: Highlights &amp; Hidden Gems of Montmartre: Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Secrets of Montmartre from the Moulin Rouge to the Sacré Cœur</t>
+          <t>Title: Highlights &amp; Hidden Gems of Montmartre: Private City Tour</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P22</t>
+          <t>PRODUCTCODE: 366784P2</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour walking tour with a professional local guide. Explore the best of Montmartre in the footsteps of the Impressionists. Enjoy one of the most authentic district of Paris with your private guide.</t>
+          <t>Summarized description: The app features a pre-designed walking route that takes you through the key attractions of Montmartre, accompanied by captivating audio commentary detailing the history of the area. During your self-guided tour, you are guaranteed to encounter the iconic Moulin Rouge Cabaret and the renowned ""red light district of Paris"</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Montmartre Exclusive Impressionist Small Group Walking Tour</t>
+          <t>Title: Private Self Guided Walking Tour in Montmartre Paris</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 192144P4</t>
+          <t>PRODUCTCODE: 126585P6</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montmartre, the most iconic neighborhood in Paris. Walk the cobblestone streets and follow the path of the legendary painters and street artists.</t>
+          <t>Summarized description: This visit was designed by a Montmartrois who lives on the Place du Tertre. In 2 hours you will discover the famous but also hidden places of Montmartre. Commentary and photo stops are provided to fully enjoy the experience.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Walking Tour</t>
+          <t>Title: Unusual walking tour of Montmartre and local wine tasting - 2H</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 133687P69</t>
+          <t>PRODUCTCODE: 210607P1</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Montmartre's history and the secrets with a private guide. You will see attractions such as the Moulin Rouge and hear about bohemian life during the Belle Époque.</t>
+          <t>Summarized description: Montmartre is one of the most famous districts of Paris. The district was the filming location for EMILY IN PARIS, HEARTSTOPPER, JOHN WICK 4, AMELIE, MIDNIGHT in PARIS.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Paris: Montmartre and Sacré Coeur Experience</t>
+          <t>Title: Discovering Montmartre with local resident</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746P45</t>
+          <t>PRODUCTCODE: 328033P1</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the most iconic district of Paris. This private tour introduces you to the bohemian village of Montmartre. This tour will include the must-sees Sacre Coeur, artists' square, the funicular, the best views of Paris etc.</t>
+          <t>Summarized description: Montmartre is not only my favourite neighbourhood, it's also where I live. So we’ll dive deep into its history and give you all of the insider information. Discover Montmartre, full of secret gardens, tiny streets and windmills.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Village Private Walking Tour with Sacre Coeur Rooftop </t>
+          <t>Title: Guided 2-Hour Tour Secret Face of Montmartre</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384373P3</t>
+          <t>PRODUCTCODE: 132255P1</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to famous artists such as Van Gogh, Picasso Monet and others. The district was also the setting for much of the film Amélie.</t>
+          <t>Summarized description: Our show tours immerse you in the heart of a dramatized visit where surprising characters appear throughout the journey. It's neither a guided tour nor a play, but both at the same time!</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Montmartre-Sacré Coeur Walking Tour: Semi Private Experience</t>
+          <t>Title: The Eternal Spirit of Montmartre</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 343759P11</t>
+          <t>PRODUCTCODE: 148845P3</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was home to some of the most famous artists of all time, such as Picasso, Van Gogh, Renoir, Braque, and Matisse. Explore Montmartre's rich history and cultural significance with a local guide.</t>
+          <t>Summarized description: Montmartre housed the studios of a lot of masters of painting such as Picasso, Toulouse-Lautrec, Van Gogh and Utrillo.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Montmartre Art, Culture &amp; Rebel Legacy: Semi-Private Walking Tour</t>
+          <t>Title: Montmartre , Basilica of Sacred Heart and Place du Tertre</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P22</t>
+          <t>PRODUCTCODE: 255730P157</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the vibrant past of the renowned and enduring Moulin Rouge. Visit the renowned Sacre-Coeur Basilica to take in the expansive vista.</t>
+          <t>Summarized description: Montmartre has been home to Van Gogh, Renoir, and Picasso. See the sites and vistas they enjoyed painting from the hill overlooking Paris.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Paris: Walking tour of Montmartre (Guided Tour)</t>
+          <t>Title: Explore Bohemian Montmartre: Private Half-Day Walking Tour</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P133</t>
+          <t>PRODUCTCODE: 9204P12</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest, most authentic areas of Paris. Your local expert guide will take you through the area’s little-known nooks and crannies.</t>
+          <t>Summarized description: Travel back to a time of quaint cobblestone streets and country village charm. Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Hidden Montmartre Guided Walk of the Artists' Quarter</t>
+          <t>Title: Paris: Montmartre &amp; Sacré Coeur Private Walking Tour</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20502P4</t>
+          <t>PRODUCTCODE: 14447P4</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a walking tour through Artists life in Mythical Montmartre. You’ll discover secrets places, listen to a lot of anecdotes about great Painters, Picasso or Van Gogh. Also relax with a glass of wine offer in a typical bistro of this Mythical neighborhood.</t>
+          <t>Summarized description: Learn about the history, culture, and characters of the district. Visit Sacré-Coeur Basilica for a view over the city. Small-group tour is limited to 15 people.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Montmartre Artist Tour in Paris</t>
+          <t>Title: Paris Walking Tour of the Montmartre District</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6877P96</t>
+          <t>PRODUCTCODE: 32142P51</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the most bohemian neighborhood in Paris and the birthplace of some of the most renowned French painters and artists. Visit the Moulin Rouge, the Place des Abbesses and the Sacre Coeur.</t>
+          <t>Summarized description: Montmartre has been a favourite place for Impressionist such as Renoir, Picasso, Toulouse-Lautrec and many other artists. The tour goes through the district up to the Basilica of the Sacred Heart.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Walking tour of Montmartre</t>
+          <t>Title: Montmartre Small-Group Family Tour</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9200P8</t>
+          <t>PRODUCTCODE: 398416P1</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most beloved neighborhoods. You may remember that the beloved film Amelie takes place in Montmartre. You'll visit the cafe she frequented as well.</t>
+          <t>Summarized description: Montmartre was the birthplace of both the Jesuit Order and the modern Counterculture. One must see the workshops and cafés where Renoir, Vang Gogh and Picasso championed new art forms.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Montmartre and Sacre Coeur</t>
+          <t>Title: Secrets of Montmartre from the Moulin Rouge to the Sacré Cœur</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P586</t>
+          <t>PRODUCTCODE: 13437P22</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the best of Parisian culture and bohemian dreams in Montmartre. See the legendary Moulin Rouge and hear stories about Van Gogh, Dali and other famous artists who lived here. Optional: visit the Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Two-hour walking tour with a professional local guide. Explore the best of Montmartre in the footsteps of the Impressionists. Enjoy one of the most authentic district of Paris with your private guide.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre and Sacré-Cœur Basilica</t>
+          <t>Title: Montmartre Exclusive Impressionist Small Group Walking Tour</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 235760P7</t>
+          <t>PRODUCTCODE: 192144P4</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming village in a busy city. Discover this romantic corner of Paris and enjoy stunning views and peaceful atmosphere in its cobblestone streets.</t>
+          <t>Summarized description: Explore Montmartre, the most iconic neighborhood in Paris. Walk the cobblestone streets and follow the path of the legendary painters and street artists.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Paris Premium Tour : Basilique Sacré &amp; Montmartre with a Art Historian</t>
+          <t>Title: Montmartre Private Walking Tour</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157994P3</t>
+          <t>PRODUCTCODE: 133687P69</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: We'll hear about the painters, acrobats, street performers, absinthe-drinkers, poets, ragpickers, vagabonds and streetwalkers who settled in Montmartre. We'll see where Picasso painted, where Van Gogh and Renoir got drunk, and we'll walk down to the 'Harlem of Paris' where the Lost Generation discovered jazz.</t>
+          <t>Summarized description: Learn about Montmartre's history and the secrets with a private guide. You will see attractions such as the Moulin Rouge and hear about bohemian life during the Belle Époque.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: 'Bohemians of Paris' Walk in Montmartre</t>
+          <t>Title: Paris: Montmartre and Sacré Coeur Experience</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 129032P4</t>
+          <t>PRODUCTCODE: 5746P45</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Your Guide-Conferencier will make you discover the iconic places of this capital district of the capital. You will pass in the most confidential and unknown streets of this colorful district.</t>
+          <t>Summarized description: Montmartre is the most iconic district of Paris. This private tour introduces you to the bohemian village of Montmartre. This tour will include the must-sees Sacre Coeur, artists' square, the funicular, the best views of Paris etc.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Montmartre and its secrets</t>
+          <t xml:space="preserve">Title: Montmartre Village Private Walking Tour with Sacre Coeur Rooftop </t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 351948P1</t>
+          <t>PRODUCTCODE: 384373P3</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: To browse Montmartre is to discover this district through its history. From Saint-Denis to the recent artistic movements that have made the reputation of this mythical place in Paris, original and earthy.</t>
+          <t>Summarized description: Montmartre is home to famous artists such as Van Gogh, Picasso Monet and others. The district was also the setting for much of the film Amélie.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Tour</t>
+          <t>Title: Montmartre-Sacré Coeur Walking Tour: Semi Private Experience</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105229P5</t>
+          <t>PRODUCTCODE: 343759P11</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a melting pot of Van Gogh, Picasso and Dali. Explore the creativity, community and quirky secrets of one of the most unique areas of Paris.</t>
+          <t>Summarized description: Montmartre was home to some of the most famous artists of all time, such as Picasso, Van Gogh, Renoir, Braque, and Matisse. Explore Montmartre's rich history and cultural significance with a local guide.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre</t>
+          <t>Title: Montmartre Art, Culture &amp; Rebel Legacy: Semi-Private Walking Tour</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P6</t>
+          <t>PRODUCTCODE: 239576P22</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: The iconic neighborhood in Paris is the Montmarte. It is also artist, community, and historic site. On this tour you can get to see the best things ,sites that the city offers.</t>
+          <t>Summarized description: Learn about the vibrant past of the renowned and enduring Moulin Rouge. Visit the renowned Sacre-Coeur Basilica to take in the expansive vista.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Paris Tour at Montmartre : Remarkable Places and Surprising Gems (Private)</t>
+          <t>Title: Paris: Walking tour of Montmartre (Guided Tour)</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 435084P4</t>
+          <t>PRODUCTCODE: 462750P3</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to the Basilica of the Sacré-Cœur and Place du Tertre. You'll benefit from information and stories that only locals can provide. I will share the stories of famous artists who frequented Montmartre.</t>
+          <t>Summarized description: A unique walking tour with a local city guide. Follow me through some iconic streets, off the beaten path. You will be rewarded with a thrilling view of Paris.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: 3 Hours Private Walking Tour of Montmartre and Paris</t>
+          <t>Title: Guided Walking Tour through the Old Artist Village Montmartre</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420543P4</t>
+          <t>PRODUCTCODE: 3731P133</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the enchanting world of Montmartre with our curated tour. Discover hidden gems like La Maison Rose, and embrace the artistic spirit of Place du Tertre.</t>
+          <t>Summarized description: Montmartre is one of the oldest, most authentic areas of Paris. Your local expert guide will take you through the area’s little-known nooks and crannies.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title:  Guided Tour to Montmartre &amp; Sacré-Cœur Chronicles</t>
+          <t>Title: Hidden Montmartre Guided Walk of the Artists' Quarter</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14787P6</t>
+          <t>PRODUCTCODE: 20502P4</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Stroll around the Montmartre area with your professional photography guide. Capture the memories on 300 photos of you near such places as the Basilica of Sacre-Coeur and Moulin Rouge.</t>
+          <t>Summarized description: Enjoy a walking tour through Artists life in Mythical Montmartre. You’ll discover secrets places, listen to a lot of anecdotes about great Painters, Picasso or Van Gogh. Also relax with a glass of wine offer in a typical bistro of this Mythical neighborhood.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Professional Photo Shoot Tour in Paris' Montmartre</t>
+          <t>Title: Montmartre Artist Tour in Paris</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150467P10</t>
+          <t>PRODUCTCODE: 6877P96</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: This is a 2-hour private walking tour intended to focus on Montmartre neighborhood by night. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes the area so nice.</t>
+          <t>Summarized description: Discover the most bohemian neighborhood in Paris and the birthplace of some of the most renowned French painters and artists. Visit the Moulin Rouge, the Place des Abbesses and the Sacre Coeur.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Montmartre by Night Private Tour</t>
+          <t>Title: Walking tour of Montmartre</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 371334P2</t>
+          <t>PRODUCTCODE: 9200P8</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the city of light's most famous landmarks such as the Sacre Coeur and Moulin Rouge. Explore less-known but exciting spots, filled with history and local culture.</t>
+          <t>Summarized description: Montmartre is one of Paris' most beloved neighborhoods. You may remember that the beloved film Amelie takes place in Montmartre. You'll visit the cafe she frequented as well.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour From Moulin Rouge To Scare Coeur</t>
+          <t>Title: Private Tour of Montmartre and Sacre Coeur</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 452894P2</t>
+          <t>PRODUCTCODE: 332536P586</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the artistic district of Paris. The district is filled with love stories and legends. It includes the Saint-Pierre Market, the Maison de Dalida and the Basilica of the Sacred Heart.</t>
+          <t>Summarized description: Discover the best of Parisian culture and bohemian dreams in Montmartre. See the legendary Moulin Rouge and hear stories about Van Gogh, Dali and other famous artists who lived here. Optional: visit the Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: 2 Hour Walk in Montmartre</t>
+          <t>Title: Private Walking Tour of Montmartre and Sacré-Cœur Basilica</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132681P5</t>
+          <t>PRODUCTCODE: 125783P5</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the most famous district of Paris with a guide on a private walking tour. Learn about this charming area from your guide and find out why its been so beloved by artists since the 18th century.</t>
+          <t>Summarized description: Photography tour around Montmartre. Our local photographer will meet you at a prearranged location. During the tour, show you some of the most magical locations.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre : Private Guided Walking Tour</t>
+          <t>Title: Montmartre Insta Photography, Food shop street and Walking tour</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423194P3</t>
+          <t>PRODUCTCODE: 235760P7</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of Paris begins at the iconic Moulin Rouge. You will walk on the streets where Van Gogh, Henri de Toulouse-Lautrec, Pissarro and other artists lived &amp; worked. Your tour concludes at the summit of Montmartre where the steps of the Sacre-Coeur host millions of visitors.</t>
+          <t>Summarized description: Montmartre is a charming village in a busy city. Discover this romantic corner of Paris and enjoy stunning views and peaceful atmosphere in its cobblestone streets.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour: The Best of Paris - Art, Culture &amp; Food</t>
+          <t>Title: Paris Premium Tour : Basilique Sacré &amp; Montmartre with a Art Historian</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 449245P2</t>
+          <t>PRODUCTCODE: 157994P3</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is an escape from the typical Paris, with its winding streets, bohemian spirit and scandalous stories. With us on this tour, you'll get to learn and engage with the history of the neighborhood, the famous artists that lived there, and also hidden gems on the way.</t>
+          <t>Summarized description: We'll hear about the painters, acrobats, street performers, absinthe-drinkers, poets, ragpickers, vagabonds and streetwalkers who settled in Montmartre. We'll see where Picasso painted, where Van Gogh and Renoir got drunk, and we'll walk down to the 'Harlem of Paris' where the Lost Generation discovered jazz.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Ultimate Montmartre Semi-Private Walking Tour &amp; Sacre Coeur </t>
+          <t>Title: 'Bohemians of Paris' Walk in Montmartre</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 266623P2</t>
+          <t>PRODUCTCODE: 129032P4</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: Walking though Montmartre is like walking through a film set. Marie walks you to sites like Paris's last surviving windmill and vineyard. Sacre Coeur, with its incredible views over Paris.</t>
+          <t>Summarized description: Your Guide-Conferencier will make you discover the iconic places of this capital district of the capital. You will pass in the most confidential and unknown streets of this colorful district.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Virtual Walking Tour of Iconic Parisian Enclave Montmartre</t>
+          <t>Title: Montmartre and its secrets</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368071P1</t>
+          <t>PRODUCTCODE: 351948P1</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: This guided tour of Montmartre will allow you to discover the history of this ancient village. The visit will start in front of the Lapin Agile cabaret where we will tell you about Boronali's incredible artistic prank. We will also see the mysterious Château des Fogs, the Moulin de la Galette and the house of singer Dalida.</t>
+          <t>Summarized description: To browse Montmartre is to discover this district through its history. From Saint-Denis to the recent artistic movements that have made the reputation of this mythical place in Paris, original and earthy.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: Historical and Cultural Guided Tour of Montmartre</t>
+          <t>Title: Montmartre Private Tour</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P78</t>
+          <t>PRODUCTCODE: 105229P5</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: This self-guided interactive walking tour will let you discover the charming and picturesque quarter of Montmartre. Visit the house where Vincent van Gogh once lived and worked, visit the cemetery where luminaries including Edgar Degas, Emile Zola and Jacques Offenbach are buried.</t>
+          <t>Summarized description: Montmartre is a melting pot of Van Gogh, Picasso and Dali. Explore the creativity, community and quirky secrets of one of the most unique areas of Paris.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre &amp; Sacre Coeur: Self-Guided Walking Tour with Mobile App</t>
+          <t>Title: Private Walking Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 409362P2</t>
+          <t>PRODUCTCODE: 243313P6</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: Tours start at the Montmartre Cemetery and finish at the Sacré Coeur. We will see the famous mill painted by Auguste Renoir and the famous singer Dalida's home.</t>
+          <t>Summarized description: The iconic neighborhood in Paris is the Montmarte. It is also artist, community, and historic site. On this tour you can get to see the best things ,sites that the city offers.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Montmartre Sightseeing Guided Walking Tour</t>
+          <t>Title: Paris Tour at Montmartre : Remarkable Places and Surprising Gems (Private)</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P9</t>
+          <t>PRODUCTCODE: 420543P4</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming village within a bustling city. The cobblestone streets of Montmartre will leave you speechless. Learn more about this beautiful architectural style which is oh so Parisian.</t>
+          <t>Summarized description: Step into the enchanting world of Montmartre with our curated tour. Discover hidden gems like La Maison Rose, and embrace the artistic spirit of Place du Tertre.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Sacré-Coeur Basilica &amp; Montmartre Private Tour (with an Art Historian) </t>
+          <t>Title:  Guided Tour to Montmartre &amp; Sacré-Cœur Chronicles</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51192P171</t>
+          <t>PRODUCTCODE: 14787P6</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Place du Tertre and trace artistic legends such as Monet, Renoir, and Van Gogh. Explore the famous Sacré-Coeur Basilica and Saint Jean de Montmartre Church with an expert guide.</t>
+          <t>Summarized description: Stroll around the Montmartre area with your professional photography guide. Capture the memories on 300 photos of you near such places as the Basilica of Sacre-Coeur and Moulin Rouge.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Paris: Guided Walking Tour In Montmartre and Sacré-Coeur</t>
+          <t>Title: Professional Photo Shoot Tour in Paris' Montmartre</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 179966P4</t>
+          <t>PRODUCTCODE: 150467P10</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Basilica of the Sacred Heart, the Place du Tertre or the Moulin de la Galette with one of the guides-speakers of our agency. Choosing our agency is a guarantee of quality for your future visits.</t>
+          <t>Summarized description: This is a 2-hour private walking tour intended to focus on Montmartre neighborhood by night. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes the area so nice.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: From Moulin Rouge to Sacré Coeur, Montmartre and Bohemian life (private tour)</t>
+          <t>Title: Montmartre by Night Private Tour</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108889P17</t>
+          <t>PRODUCTCODE: 33567P5</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: In 1900 Montmartre was the world capital of artists. Your professional guide will explain to you why Picasso, Van Gogh, Renoir, Degas, Toulouse Lautrec used to live their. You will love the charming streets &amp; atmosphere.</t>
+          <t>Summarized description: Montmartre is one of Paris’ most atmospheric neighbourhoods. The bohemian district offers plenty of photo opportunities. A professional photographer guide will help you improve your photography skills.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Artists in Montmartre &amp; Sacred heart private tour</t>
+          <t>Title: Montmartre Poetic Photo Walk by night</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P326</t>
+          <t>PRODUCTCODE: 371334P2</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Private guided tour of Montmartre will allow you to feel the bohemian atmosphere of the district. You will walk the narrow streets and discover the hidden corners of the area while your local expert guide will tell you about the old cafes.</t>
+          <t>Summarized description: Explore some of the city of light's most famous landmarks such as the Sacre Coeur and Moulin Rouge. Explore less-known but exciting spots, filled with history and local culture.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Montmartre Quarter Private Guided Tour in Paris</t>
+          <t>Title: Montmartre Walking Tour From Moulin Rouge To Scare Coeur</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P143</t>
+          <t>PRODUCTCODE: 452894P2</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most famous districts. The district is a melting pot of art and inspiration for the cinema. The cobbled streets of the 18th arrondissement are a real pleasure to explore.</t>
+          <t>Summarized description: Montmartre is the artistic district of Paris. The district is filled with love stories and legends. It includes the Saint-Pierre Market, the Maison de Dalida and the Basilica of the Sacred Heart.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Walking Tour of "Montmartre" area in Paris </t>
+          <t>Title: 2 Hour Walk in Montmartre</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73434P108</t>
+          <t>PRODUCTCODE: 132681P5</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the history and magnificent details of this marvelous neighborhood in Paris. Walk through the footsteps of the famous artists, through the terrace cafes to romping bars and clubs, and saucy can-can dancers.</t>
+          <t>Summarized description: Explore the most famous district of Paris with a guide on a private walking tour. Learn about this charming area from your guide and find out why its been so beloved by artists since the 18th century.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: Montmartre Neighbourhood Tour in Paris</t>
+          <t>Title: Paris Montmartre : Private Guided Walking Tour</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 129414P1</t>
+          <t>PRODUCTCODE: 423194P3</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: Walk along Saint-Vincent Street to Abbesses via the Sacré-Coeur or the Place du Passe-Muraille. Destiny of Amélie Poulain will be our guiding thread.</t>
+          <t>Summarized description: Tour of Paris begins at the iconic Moulin Rouge. You will walk on the streets where Van Gogh, Henri de Toulouse-Lautrec, Pissarro and other artists lived &amp; worked. Your tour concludes at the summit of Montmartre where the steps of the Sacre-Coeur host millions of visitors.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: Ciné-Balade Montmartre</t>
+          <t>Title: Montmartre Walking Tour: The Best of Paris - Art, Culture &amp; Food</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 266661P29</t>
+          <t>PRODUCTCODE: 449245P2</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been home to artists like Van Gogh and Henri de Toulouse-Lautrec. Take a two-hour walking tour through the neighborhood to discover its history and culture.</t>
+          <t>Summarized description: Montmartre is an escape from the typical Paris, with its winding streets, bohemian spirit and scandalous stories. With us on this tour, you'll get to learn and engage with the history of the neighborhood, the famous artists that lived there, and also hidden gems on the way.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Title: Montmartre - Private Guided Walking Tour with a Local</t>
+          <t xml:space="preserve">Title: The Ultimate Montmartre Semi-Private Walking Tour &amp; Sacre Coeur </t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5944P16</t>
+          <t>PRODUCTCODE: 368071P1</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21607,7 +21607,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is nicknamed "the village" by Parisians. With its exquisite squares, pretty churches and idyllic, winding streets, it’s easy to see why artists fell in love with this neighbourhood.</t>
+          <t>Summarized description: This guided tour of Montmartre will allow you to discover the history of this ancient village. The visit will start in front of the Lapin Agile cabaret where we will tell you about Boronali's incredible artistic prank. We will also see the mysterious Château des Fogs, the Moulin de la Galette and the house of singer Dalida.</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>Title: Private tour of Montmartre</t>
+          <t>Title: Historical and Cultural Guided Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr"/>
@@ -21652,7 +21652,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr"/>
@@ -21667,7 +21667,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104883P39</t>
+          <t>PRODUCTCODE: 128905P78</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -21682,7 +21682,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most charming and authentic neighbourhoods of the city. Discover the bohemian side of Paris and visit the magnificent Sacré Coeur Basilica on our family-oriented private tour.</t>
+          <t>Summarized description: This self-guided interactive walking tour will let you discover the charming and picturesque quarter of Montmartre. Visit the house where Vincent van Gogh once lived and worked, visit the cemetery where luminaries including Edgar Degas, Emile Zola and Jacques Offenbach are buried.</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr"/>
@@ -21697,7 +21697,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
+          <t>Title: Paris Montmartre &amp; Sacre Coeur: Self-Guided Walking Tour with Mobile App</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr"/>
@@ -21727,7 +21727,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr"/>
@@ -21742,7 +21742,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 115227P1</t>
+          <t>PRODUCTCODE: 409362P2</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr"/>
@@ -21757,7 +21757,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was chosen for filming “Amelie’ — the film that touched the hearts of millions of people around the world. “I wanted that my movie make people happy” — Jean-Pierre Jeunet, film director of “Le Fabuleux destin d'Amélie Poulain”</t>
+          <t>Summarized description: Tours start at the Montmartre Cemetery and finish at the Sacré Coeur. We will see the famous mill painted by Auguste Renoir and the famous singer Dalida's home.</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>Title: The world of Amelie from Montmartre</t>
+          <t>Title: Montmartre Sightseeing Guided Walking Tour</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr"/>
@@ -21817,7 +21817,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 265370P13</t>
+          <t>PRODUCTCODE: 248877P9</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr"/>
@@ -21832,7 +21832,7 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most visited areas in the City of Lights. Famous for the great number of artists mainly painters who lived in its steep cobble-stone streets. We offer to show you the real local side of the district taking through the little local streets.</t>
+          <t>Summarized description: Montmartre is a charming village within a bustling city. The cobblestone streets of Montmartre will leave you speechless. Learn more about this beautiful architectural style which is oh so Parisian.</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr"/>
@@ -21847,7 +21847,7 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>Title: Small-Group Walking Tour of the Secrets of Montmartre</t>
+          <t xml:space="preserve">Title: Paris Sacré-Coeur Basilica &amp; Montmartre Private Tour (with an Art Historian) </t>
         </is>
       </c>
       <c r="B1424" t="inlineStr"/>
@@ -21877,7 +21877,7 @@
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1426" t="inlineStr"/>
@@ -21892,7 +21892,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121352P15</t>
+          <t>PRODUCTCODE: 51192P171</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr"/>
@@ -21907,7 +21907,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>Summarized description: Knowing this picturesque area from the hand of a friend who lives in it and who knows you very well. You will discover and enjoy a walk through the streets and hidden corners of Montmartre.</t>
+          <t>Summarized description: Visit Place du Tertre and trace artistic legends such as Monet, Renoir, and Van Gogh. Explore the famous Sacré-Coeur Basilica and Saint Jean de Montmartre Church with an expert guide.</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr"/>
@@ -21922,7 +21922,7 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Title: A walk in Montmartre</t>
+          <t>Title: Paris: Guided Walking Tour In Montmartre and Sacré-Coeur</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr"/>
@@ -21952,7 +21952,7 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P684</t>
+          <t>PRODUCTCODE: 179966P4</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr"/>
@@ -21982,7 +21982,7 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Summarized description: Hilltop Montmartre is one of the most visited tourist spots in the city. You will discover this beautiful area with a local expert and licensed tour guide.</t>
+          <t>Summarized description: Discover the Basilica of the Sacred Heart, the Place du Tertre or the Moulin de la Galette with one of the guides-speakers of our agency. Choosing our agency is a guarantee of quality for your future visits.</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr"/>
@@ -21997,7 +21997,7 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>Title: Private walking tour of Montmartre neighborhood in Paris</t>
+          <t>Title: From Moulin Rouge to Sacré Coeur, Montmartre and Bohemian life (private tour)</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr"/>
@@ -22027,7 +22027,7 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr"/>
@@ -22042,7 +22042,7 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5411P233</t>
+          <t>PRODUCTCODE: 108889P17</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr"/>
@@ -22057,7 +22057,7 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>Summarized description: A small-group walking tour of Paris's enigmatic Montmartre neighborhood. Home to many impressionist and modern artists. A tour of the city's most famous landmarks.</t>
+          <t>Summarized description: In 1900 Montmartre was the world capital of artists. Your professional guide will explain to you why Picasso, Van Gogh, Renoir, Degas, Toulouse Lautrec used to live their. You will love the charming streets &amp; atmosphere.</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr"/>
@@ -22072,7 +22072,7 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>Title: Expert Led Tour of Paris' Montmartre Neighborhood</t>
+          <t>Title: Artists in Montmartre &amp; Sacred heart private tour</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr"/>
@@ -22102,7 +22102,7 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr"/>
@@ -22117,7 +22117,7 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P45</t>
+          <t>PRODUCTCODE: 101116P3</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the key locations of the film Amélie. Meet your local guide and take a beautiful walk through the film's key locations.</t>
+          <t>Summarized description: Montmartre is one of the oldest neighbourhoods in Paris. It is home to many famous artists, including Picasso, Van Gogh and Renoir. Children will be engaged by the stories the group around Alberto can tell them.</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr"/>
@@ -22147,7 +22147,7 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>Title: Montmartre: In the Footsteps of Amélie Tour with a Snack</t>
+          <t>Title: Montmartre &amp; Sacre Coeur Tour for Kids &amp; Families w Alberto &amp; his team in Paris</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr"/>
@@ -22177,7 +22177,7 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr"/>
@@ -22192,7 +22192,7 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46018P28</t>
+          <t>PRODUCTCODE: 20455P326</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr"/>
@@ -22207,7 +22207,7 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the history of Paris’ quintessential bohemian neighborhood by visiting the bars, cafes, and streets that nurtured many of the 20th century’s finest artists. We’ll take in the views from the Sacre Coeur, see the original Moulin Rouge, pause at Picasso's old studio, and even peek into the only vineyard within the city limits.</t>
+          <t>Summarized description: Private guided tour of Montmartre will allow you to feel the bohemian atmosphere of the district. You will walk the narrow streets and discover the hidden corners of the area while your local expert guide will tell you about the old cafes.</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr"/>
@@ -22222,7 +22222,7 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>Title: In the footsteps of the Impressionists: Montmartre Tour with Sacre Coeur Views</t>
+          <t>Title: Montmartre Quarter Private Guided Tour in Paris</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr"/>
@@ -22252,7 +22252,7 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr"/>
@@ -22267,7 +22267,7 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255404P1</t>
+          <t>PRODUCTCODE: 320547P143</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr"/>
@@ -22282,7 +22282,7 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most picturesque neighborhoods in Paris. Discover the stories and anecdotes that have shaped the neighborhood. You will receive your edited pictures within 10 days after the tour.</t>
+          <t>Summarized description: Montmartre is one of Paris' most famous districts. The district is a melting pot of art and inspiration for the cinema. The cobbled streets of the 18th arrondissement are a real pleasure to explore.</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>Title: Romantic walk &amp; photoshoot in Montmartre</t>
+          <t xml:space="preserve">Title: Private Walking Tour of "Montmartre" area in Paris </t>
         </is>
       </c>
       <c r="B1454" t="inlineStr"/>
@@ -22327,7 +22327,7 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr"/>
@@ -22342,7 +22342,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P614</t>
+          <t>PRODUCTCODE: 73434P108</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr"/>
@@ -22357,7 +22357,7 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided and self-paced walking tour. Follow in the footsteps of renowned artists like Pablo Picasso and Vincent Van Gogh through Paris' Montmartre district.</t>
+          <t>Summarized description: Explore the history and magnificent details of this marvelous neighborhood in Paris. Walk through the footsteps of the famous artists, through the terrace cafes to romping bars and clubs, and saucy can-can dancers.</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr"/>
@@ -22372,7 +22372,7 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>Title: Private Self-Guided Audio Tour in Paris Montmartre District</t>
+          <t>Title: Montmartre Neighbourhood Tour in Paris</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr"/>
@@ -22402,7 +22402,7 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr"/>
@@ -22417,7 +22417,7 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9257P4</t>
+          <t>PRODUCTCODE: 110155P7</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr"/>
@@ -22432,7 +22432,7 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>Summarized description: You will have a chance to peek into shops, sample goodies, and sometimes just sit and take in the view. All of the afternoon walks are at leisure pace.</t>
+          <t>Summarized description: Learn all about Montmartre and the people who have shaped the district. Van Gogh, Picasso, Renoir, Matisse and many other great painters have lived here. Admire the last windmill in the city.</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr"/>
@@ -22447,7 +22447,7 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>Title: Afternoon Leisure Walk in Paris: Montmartre</t>
+          <t>Title: Montmartre - 2hours Chinese guided walking tour</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr"/>
@@ -22477,7 +22477,7 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr"/>
@@ -22492,7 +22492,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101116P8</t>
+          <t>PRODUCTCODE: 266661P29</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr"/>
@@ -22507,7 +22507,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most famous places in the world. It is home to some of the world's greatest artists including Picasso, Van Gogh and Edith Piaf. This tour will take you through the streets of Montmartre.</t>
+          <t>Summarized description: Montmartre has been home to artists like Van Gogh and Henri de Toulouse-Lautrec. Take a two-hour walking tour through the neighborhood to discover its history and culture.</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr"/>
@@ -22522,7 +22522,7 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacre Coeur Tour with Local Guide Alberto and his team in Paris</t>
+          <t>Title: Montmartre - Private Guided Walking Tour with a Local</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr"/>
@@ -22552,7 +22552,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr"/>
@@ -22567,7 +22567,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P63</t>
+          <t>PRODUCTCODE: 107859P508</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr"/>
@@ -22582,7 +22582,7 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Summarized description: We will meet in front of the metro station Abbesses and from there we will walk through the beautiful streets of Montmartre. I have discovered this area by myself and I found a lot of special spots on my long walking hours on the streets of Paris.</t>
+          <t>Summarized description: Wine, cheese and oysters are just some of the things you can get to know about Montmartre. This tour is only for you and your local host, so don't bring anyone else.</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr"/>
@@ -22597,7 +22597,7 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>Title: Private Paris Photo Experience through Montmartre</t>
+          <t>Title: France Paris Beautiful Evening in Montmartre: Bites &amp; Sights</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr"/>
@@ -22642,7 +22642,7 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 265370P4</t>
+          <t>PRODUCTCODE: 320547P568</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr"/>
@@ -22657,7 +22657,7 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most beautiful neighbourhoods in Paris. It is home to some of the city's most famous artists, including Van Gogh, Picasso and Lautrec.</t>
+          <t>Summarized description: The Montmartre Cheese and Wine Tasting Walking Tour is a popular activity for visitors to Paris. This tour typically takes about 2 hours and includes stops at local cheese shops and wine bars.</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr"/>
@@ -22672,7 +22672,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre's Secrets and Tastes in a Private Walking tour </t>
+          <t>Title: Montmartre Cheese and Wine tasting Walking Tour</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr"/>
@@ -22702,7 +22702,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr"/>
@@ -22717,7 +22717,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P14</t>
+          <t>PRODUCTCODE: 5944P16</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr"/>
@@ -22732,7 +22732,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a district known for its artists and historically bohemian vibe. Start your route at the Moulin Rouge and see where artists like Van Gogh, Henri de Toulouse-Lautrec, and Pissarro lived and worked. Hear stories from your guide about what makes this district stand out from the rest of Paris.</t>
+          <t>Summarized description: Montmartre is nicknamed "the village" by Parisians. With its exquisite squares, pretty churches and idyllic, winding streets, it’s easy to see why artists fell in love with this neighbourhood.</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr"/>
@@ -22747,7 +22747,7 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>Title: Paris - Place de Clichy and Montmartre Walking Tour with Private guide</t>
+          <t>Title: Private tour of Montmartre</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 104883P39</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr"/>
@@ -22804,6 +22804,1206 @@
       <c r="H1487" t="inlineStr"/>
       <c r="I1487" t="inlineStr"/>
     </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre is one of the most charming and authentic neighbourhoods of the city. Discover the bohemian side of Paris and visit the magnificent Sacré Coeur Basilica on our family-oriented private tour.</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr"/>
+      <c r="C1488" t="inlineStr"/>
+      <c r="D1488" t="inlineStr"/>
+      <c r="E1488" t="inlineStr"/>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr"/>
+      <c r="I1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>Title: Paris Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr"/>
+      <c r="C1489" t="inlineStr"/>
+      <c r="D1489" t="inlineStr"/>
+      <c r="E1489" t="inlineStr"/>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr"/>
+      <c r="H1489" t="inlineStr"/>
+      <c r="I1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr"/>
+      <c r="C1490" t="inlineStr"/>
+      <c r="D1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr"/>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr"/>
+      <c r="H1490" t="inlineStr"/>
+      <c r="I1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
+      <c r="D1491" t="inlineStr"/>
+      <c r="E1491" t="inlineStr"/>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
+      <c r="I1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 266661P22</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr"/>
+      <c r="C1492" t="inlineStr"/>
+      <c r="D1492" t="inlineStr"/>
+      <c r="E1492" t="inlineStr"/>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="inlineStr"/>
+      <c r="H1492" t="inlineStr"/>
+      <c r="I1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre food tour aims to combine wine, local products, meats, and desserts. We will eat and drink our way through the Montmartre. Along the way expect to try local wine, cheese, pastries, meats and chocolate.</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr"/>
+      <c r="C1493" t="inlineStr"/>
+      <c r="D1493" t="inlineStr"/>
+      <c r="E1493" t="inlineStr"/>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="inlineStr"/>
+      <c r="H1493" t="inlineStr"/>
+      <c r="I1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>Title: Montmartre Food Tour - Cheese, Chocolate, Wine and more!</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr"/>
+      <c r="C1494" t="inlineStr"/>
+      <c r="D1494" t="inlineStr"/>
+      <c r="E1494" t="inlineStr"/>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr"/>
+      <c r="H1494" t="inlineStr"/>
+      <c r="I1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr"/>
+      <c r="C1495" t="inlineStr"/>
+      <c r="D1495" t="inlineStr"/>
+      <c r="E1495" t="inlineStr"/>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr"/>
+      <c r="H1495" t="inlineStr"/>
+      <c r="I1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr"/>
+      <c r="C1496" t="inlineStr"/>
+      <c r="D1496" t="inlineStr"/>
+      <c r="E1496" t="inlineStr"/>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="inlineStr"/>
+      <c r="H1496" t="inlineStr"/>
+      <c r="I1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 115227P1</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr"/>
+      <c r="C1497" t="inlineStr"/>
+      <c r="D1497" t="inlineStr"/>
+      <c r="E1497" t="inlineStr"/>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="inlineStr"/>
+      <c r="H1497" t="inlineStr"/>
+      <c r="I1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre was chosen for filming “Amelie’ — the film that touched the hearts of millions of people around the world. “I wanted that my movie make people happy” — Jean-Pierre Jeunet, film director of “Le Fabuleux destin d'Amélie Poulain”</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr"/>
+      <c r="C1498" t="inlineStr"/>
+      <c r="D1498" t="inlineStr"/>
+      <c r="E1498" t="inlineStr"/>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr"/>
+      <c r="H1498" t="inlineStr"/>
+      <c r="I1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>Title: The world of Amelie from Montmartre</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr"/>
+      <c r="C1499" t="inlineStr"/>
+      <c r="D1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr"/>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr"/>
+      <c r="H1499" t="inlineStr"/>
+      <c r="I1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr"/>
+      <c r="C1500" t="inlineStr"/>
+      <c r="D1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr"/>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr"/>
+      <c r="H1500" t="inlineStr"/>
+      <c r="I1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>Category: ['Entertainment', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr"/>
+      <c r="C1501" t="inlineStr"/>
+      <c r="D1501" t="inlineStr"/>
+      <c r="E1501" t="inlineStr"/>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr"/>
+      <c r="H1501" t="inlineStr"/>
+      <c r="I1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 5746ESMONTMARTREWALK</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr"/>
+      <c r="C1502" t="inlineStr"/>
+      <c r="D1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr"/>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr"/>
+      <c r="H1502" t="inlineStr"/>
+      <c r="I1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre is one of Paris' most charming neighborhoods. Follow a local Spanish-speaking guide to explore the historic district. Visit famous attractions like Moulin Rouge and Basilique du Sacré-Coeur.</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr"/>
+      <c r="C1503" t="inlineStr"/>
+      <c r="D1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr"/>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="inlineStr"/>
+      <c r="H1503" t="inlineStr"/>
+      <c r="I1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>Title: Paris Walking Tour: Montmartre with a Spanish-Speaking Guide</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr"/>
+      <c r="C1504" t="inlineStr"/>
+      <c r="D1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr"/>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="inlineStr"/>
+      <c r="H1504" t="inlineStr"/>
+      <c r="I1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr"/>
+      <c r="C1505" t="inlineStr"/>
+      <c r="D1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr"/>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr"/>
+      <c r="H1505" t="inlineStr"/>
+      <c r="I1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr"/>
+      <c r="C1506" t="inlineStr"/>
+      <c r="D1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr"/>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr"/>
+      <c r="I1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 252536P1</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr"/>
+      <c r="C1507" t="inlineStr"/>
+      <c r="D1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr"/>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="inlineStr"/>
+      <c r="H1507" t="inlineStr"/>
+      <c r="I1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>Summarized description: A walk in Montmartre, orchestrated with magic tricks, a learning of 3 professional magic tricks and a magic gift (the Magiepro box)</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr"/>
+      <c r="C1508" t="inlineStr"/>
+      <c r="D1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr"/>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="inlineStr"/>
+      <c r="H1508" t="inlineStr"/>
+      <c r="I1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>Title: Magic in Montmartre</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr"/>
+      <c r="C1509" t="inlineStr"/>
+      <c r="D1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr"/>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr"/>
+      <c r="H1509" t="inlineStr"/>
+      <c r="I1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr"/>
+      <c r="C1510" t="inlineStr"/>
+      <c r="D1510" t="inlineStr"/>
+      <c r="E1510" t="inlineStr"/>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr"/>
+      <c r="I1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>Category: ['Entertainment', 'Workshops and Classes']</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr"/>
+      <c r="C1511" t="inlineStr"/>
+      <c r="D1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr"/>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr"/>
+      <c r="H1511" t="inlineStr"/>
+      <c r="I1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 265370P13</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr"/>
+      <c r="C1512" t="inlineStr"/>
+      <c r="D1512" t="inlineStr"/>
+      <c r="E1512" t="inlineStr"/>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="inlineStr"/>
+      <c r="H1512" t="inlineStr"/>
+      <c r="I1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre is one of the most visited areas in the City of Lights. Famous for the great number of artists mainly painters who lived in its steep cobble-stone streets. We offer to show you the real local side of the district taking through the little local streets.</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr"/>
+      <c r="C1513" t="inlineStr"/>
+      <c r="D1513" t="inlineStr"/>
+      <c r="E1513" t="inlineStr"/>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
+      <c r="H1513" t="inlineStr"/>
+      <c r="I1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>Title: Small-Group Walking Tour of the Secrets of Montmartre</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr"/>
+      <c r="C1514" t="inlineStr"/>
+      <c r="D1514" t="inlineStr"/>
+      <c r="E1514" t="inlineStr"/>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr"/>
+      <c r="I1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr"/>
+      <c r="C1515" t="inlineStr"/>
+      <c r="D1515" t="inlineStr"/>
+      <c r="E1515" t="inlineStr"/>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="inlineStr"/>
+      <c r="H1515" t="inlineStr"/>
+      <c r="I1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr"/>
+      <c r="C1516" t="inlineStr"/>
+      <c r="D1516" t="inlineStr"/>
+      <c r="E1516" t="inlineStr"/>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="inlineStr"/>
+      <c r="H1516" t="inlineStr"/>
+      <c r="I1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 121352P15</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr"/>
+      <c r="C1517" t="inlineStr"/>
+      <c r="D1517" t="inlineStr"/>
+      <c r="E1517" t="inlineStr"/>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="inlineStr"/>
+      <c r="H1517" t="inlineStr"/>
+      <c r="I1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>Summarized description: Knowing this picturesque area from the hand of a friend who lives in it and who knows you very well. You will discover and enjoy a walk through the streets and hidden corners of Montmartre.</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr"/>
+      <c r="C1518" t="inlineStr"/>
+      <c r="D1518" t="inlineStr"/>
+      <c r="E1518" t="inlineStr"/>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="inlineStr"/>
+      <c r="H1518" t="inlineStr"/>
+      <c r="I1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>Title: A walk in Montmartre</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr"/>
+      <c r="C1519" t="inlineStr"/>
+      <c r="D1519" t="inlineStr"/>
+      <c r="E1519" t="inlineStr"/>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="inlineStr"/>
+      <c r="H1519" t="inlineStr"/>
+      <c r="I1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr"/>
+      <c r="C1520" t="inlineStr"/>
+      <c r="D1520" t="inlineStr"/>
+      <c r="E1520" t="inlineStr"/>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr"/>
+      <c r="H1520" t="inlineStr"/>
+      <c r="I1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr"/>
+      <c r="C1521" t="inlineStr"/>
+      <c r="D1521" t="inlineStr"/>
+      <c r="E1521" t="inlineStr"/>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr"/>
+      <c r="H1521" t="inlineStr"/>
+      <c r="I1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 8647P684</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr"/>
+      <c r="C1522" t="inlineStr"/>
+      <c r="D1522" t="inlineStr"/>
+      <c r="E1522" t="inlineStr"/>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr"/>
+      <c r="H1522" t="inlineStr"/>
+      <c r="I1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>Summarized description: Hilltop Montmartre is one of the most visited tourist spots in the city. You will discover this beautiful area with a local expert and licensed tour guide.</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr"/>
+      <c r="C1523" t="inlineStr"/>
+      <c r="D1523" t="inlineStr"/>
+      <c r="E1523" t="inlineStr"/>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="inlineStr"/>
+      <c r="H1523" t="inlineStr"/>
+      <c r="I1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>Title: Private walking tour of Montmartre neighborhood in Paris</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr"/>
+      <c r="C1524" t="inlineStr"/>
+      <c r="D1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr"/>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr"/>
+      <c r="H1524" t="inlineStr"/>
+      <c r="I1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr"/>
+      <c r="C1525" t="inlineStr"/>
+      <c r="D1525" t="inlineStr"/>
+      <c r="E1525" t="inlineStr"/>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr"/>
+      <c r="H1525" t="inlineStr"/>
+      <c r="I1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr"/>
+      <c r="C1526" t="inlineStr"/>
+      <c r="D1526" t="inlineStr"/>
+      <c r="E1526" t="inlineStr"/>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr"/>
+      <c r="H1526" t="inlineStr"/>
+      <c r="I1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 5411P233</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr"/>
+      <c r="C1527" t="inlineStr"/>
+      <c r="D1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr"/>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="inlineStr"/>
+      <c r="H1527" t="inlineStr"/>
+      <c r="I1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>Summarized description: A small-group walking tour of Paris's enigmatic Montmartre neighborhood. Home to many impressionist and modern artists. A tour of the city's most famous landmarks.</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr"/>
+      <c r="C1528" t="inlineStr"/>
+      <c r="D1528" t="inlineStr"/>
+      <c r="E1528" t="inlineStr"/>
+      <c r="F1528" t="inlineStr"/>
+      <c r="G1528" t="inlineStr"/>
+      <c r="H1528" t="inlineStr"/>
+      <c r="I1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>Title: Expert Led Tour of Paris' Montmartre Neighborhood</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr"/>
+      <c r="C1529" t="inlineStr"/>
+      <c r="D1529" t="inlineStr"/>
+      <c r="E1529" t="inlineStr"/>
+      <c r="F1529" t="inlineStr"/>
+      <c r="G1529" t="inlineStr"/>
+      <c r="H1529" t="inlineStr"/>
+      <c r="I1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr"/>
+      <c r="C1530" t="inlineStr"/>
+      <c r="D1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr"/>
+      <c r="F1530" t="inlineStr"/>
+      <c r="G1530" t="inlineStr"/>
+      <c r="H1530" t="inlineStr"/>
+      <c r="I1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr"/>
+      <c r="C1531" t="inlineStr"/>
+      <c r="D1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr"/>
+      <c r="F1531" t="inlineStr"/>
+      <c r="G1531" t="inlineStr"/>
+      <c r="H1531" t="inlineStr"/>
+      <c r="I1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 9205P31</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr"/>
+      <c r="C1532" t="inlineStr"/>
+      <c r="D1532" t="inlineStr"/>
+      <c r="E1532" t="inlineStr"/>
+      <c r="F1532" t="inlineStr"/>
+      <c r="G1532" t="inlineStr"/>
+      <c r="H1532" t="inlineStr"/>
+      <c r="I1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre offers a romantic glimpse into an era when raucous cabarets, bohemian soirées, and unbridled creativity were the norm. We’ll transport you back to those days by revealing things like the naughty origins of the Moulin Rouge.</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr"/>
+      <c r="C1533" t="inlineStr"/>
+      <c r="D1533" t="inlineStr"/>
+      <c r="E1533" t="inlineStr"/>
+      <c r="F1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr"/>
+      <c r="H1533" t="inlineStr"/>
+      <c r="I1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>Title: 2-hour Walking Tour Through The Charms of Montmartre</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr"/>
+      <c r="C1534" t="inlineStr"/>
+      <c r="D1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr"/>
+      <c r="F1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr"/>
+      <c r="H1534" t="inlineStr"/>
+      <c r="I1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr"/>
+      <c r="C1535" t="inlineStr"/>
+      <c r="D1535" t="inlineStr"/>
+      <c r="E1535" t="inlineStr"/>
+      <c r="F1535" t="inlineStr"/>
+      <c r="G1535" t="inlineStr"/>
+      <c r="H1535" t="inlineStr"/>
+      <c r="I1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr"/>
+      <c r="C1536" t="inlineStr"/>
+      <c r="D1536" t="inlineStr"/>
+      <c r="E1536" t="inlineStr"/>
+      <c r="F1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr"/>
+      <c r="H1536" t="inlineStr"/>
+      <c r="I1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 46018P28</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr"/>
+      <c r="C1537" t="inlineStr"/>
+      <c r="D1537" t="inlineStr"/>
+      <c r="E1537" t="inlineStr"/>
+      <c r="F1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr"/>
+      <c r="H1537" t="inlineStr"/>
+      <c r="I1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore the history of Paris’ quintessential bohemian neighborhood by visiting the bars, cafes, and streets that nurtured many of the 20th century’s finest artists. We’ll take in the views from the Sacre Coeur, see the original Moulin Rouge, pause at Picasso's old studio, and even peek into the only vineyard within the city limits.</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr"/>
+      <c r="C1538" t="inlineStr"/>
+      <c r="D1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="inlineStr"/>
+      <c r="H1538" t="inlineStr"/>
+      <c r="I1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>Title: In the footsteps of the Impressionists: Montmartre Tour with Sacre Coeur Views</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr"/>
+      <c r="C1539" t="inlineStr"/>
+      <c r="D1539" t="inlineStr"/>
+      <c r="E1539" t="inlineStr"/>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr"/>
+      <c r="H1539" t="inlineStr"/>
+      <c r="I1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr"/>
+      <c r="C1540" t="inlineStr"/>
+      <c r="D1540" t="inlineStr"/>
+      <c r="E1540" t="inlineStr"/>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr"/>
+      <c r="H1540" t="inlineStr"/>
+      <c r="I1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr"/>
+      <c r="C1541" t="inlineStr"/>
+      <c r="D1541" t="inlineStr"/>
+      <c r="E1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr"/>
+      <c r="H1541" t="inlineStr"/>
+      <c r="I1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 181888P8</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr"/>
+      <c r="C1542" t="inlineStr"/>
+      <c r="D1542" t="inlineStr"/>
+      <c r="E1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr"/>
+      <c r="H1542" t="inlineStr"/>
+      <c r="I1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre is a bohemian neighborhood of Paris. Visit it’s old cabarets around the Byzantine cathedral “the Sacre Coeur’</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr"/>
+      <c r="C1543" t="inlineStr"/>
+      <c r="D1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr"/>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr"/>
+      <c r="H1543" t="inlineStr"/>
+      <c r="I1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>Title: Eternal Montmartre!</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr"/>
+      <c r="C1544" t="inlineStr"/>
+      <c r="D1544" t="inlineStr"/>
+      <c r="E1544" t="inlineStr"/>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr"/>
+      <c r="H1544" t="inlineStr"/>
+      <c r="I1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr"/>
+      <c r="C1545" t="inlineStr"/>
+      <c r="D1545" t="inlineStr"/>
+      <c r="E1545" t="inlineStr"/>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr"/>
+      <c r="H1545" t="inlineStr"/>
+      <c r="I1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr"/>
+      <c r="C1546" t="inlineStr"/>
+      <c r="D1546" t="inlineStr"/>
+      <c r="E1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr"/>
+      <c r="H1546" t="inlineStr"/>
+      <c r="I1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 110804P614</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr"/>
+      <c r="C1547" t="inlineStr"/>
+      <c r="D1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr"/>
+      <c r="H1547" t="inlineStr"/>
+      <c r="I1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>Summarized description: Self-guided and self-paced walking tour. Follow in the footsteps of renowned artists like Pablo Picasso and Vincent Van Gogh through Paris' Montmartre district.</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr"/>
+      <c r="C1548" t="inlineStr"/>
+      <c r="D1548" t="inlineStr"/>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="inlineStr"/>
+      <c r="H1548" t="inlineStr"/>
+      <c r="I1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>Title: Private Self-Guided Audio Tour in Paris Montmartre District</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr"/>
+      <c r="C1549" t="inlineStr"/>
+      <c r="D1549" t="inlineStr"/>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="inlineStr"/>
+      <c r="H1549" t="inlineStr"/>
+      <c r="I1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr"/>
+      <c r="C1550" t="inlineStr"/>
+      <c r="D1550" t="inlineStr"/>
+      <c r="E1550" t="inlineStr"/>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="inlineStr"/>
+      <c r="H1550" t="inlineStr"/>
+      <c r="I1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr"/>
+      <c r="C1551" t="inlineStr"/>
+      <c r="D1551" t="inlineStr"/>
+      <c r="E1551" t="inlineStr"/>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr"/>
+      <c r="H1551" t="inlineStr"/>
+      <c r="I1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 9257P4</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr"/>
+      <c r="C1552" t="inlineStr"/>
+      <c r="D1552" t="inlineStr"/>
+      <c r="E1552" t="inlineStr"/>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="inlineStr"/>
+      <c r="H1552" t="inlineStr"/>
+      <c r="I1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>Summarized description: You will have a chance to peek into shops, sample goodies, and sometimes just sit and take in the view. All of the afternoon walks are at leisure pace.</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr"/>
+      <c r="C1553" t="inlineStr"/>
+      <c r="D1553" t="inlineStr"/>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="inlineStr"/>
+      <c r="H1553" t="inlineStr"/>
+      <c r="I1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>Title: Afternoon Leisure Walk in Paris: Montmartre</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr"/>
+      <c r="C1554" t="inlineStr"/>
+      <c r="D1554" t="inlineStr"/>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr"/>
+      <c r="H1554" t="inlineStr"/>
+      <c r="I1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr"/>
+      <c r="C1555" t="inlineStr"/>
+      <c r="D1555" t="inlineStr"/>
+      <c r="E1555" t="inlineStr"/>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr"/>
+      <c r="H1555" t="inlineStr"/>
+      <c r="I1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr"/>
+      <c r="C1556" t="inlineStr"/>
+      <c r="D1556" t="inlineStr"/>
+      <c r="E1556" t="inlineStr"/>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="inlineStr"/>
+      <c r="H1556" t="inlineStr"/>
+      <c r="I1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 101116P8</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr"/>
+      <c r="C1557" t="inlineStr"/>
+      <c r="D1557" t="inlineStr"/>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="inlineStr"/>
+      <c r="H1557" t="inlineStr"/>
+      <c r="I1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre is one of the most famous places in the world. It is home to some of the world's greatest artists including Picasso, Van Gogh and Edith Piaf. This tour will take you through the streets of Montmartre.</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr"/>
+      <c r="C1558" t="inlineStr"/>
+      <c r="D1558" t="inlineStr"/>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="inlineStr"/>
+      <c r="H1558" t="inlineStr"/>
+      <c r="I1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>Title: Montmartre &amp; Sacre Coeur Tour with Local Guide Alberto and his team in Paris</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr"/>
+      <c r="C1559" t="inlineStr"/>
+      <c r="D1559" t="inlineStr"/>
+      <c r="E1559" t="inlineStr"/>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
+      <c r="H1559" t="inlineStr"/>
+      <c r="I1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr"/>
+      <c r="C1560" t="inlineStr"/>
+      <c r="D1560" t="inlineStr"/>
+      <c r="E1560" t="inlineStr"/>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="inlineStr"/>
+      <c r="H1560" t="inlineStr"/>
+      <c r="I1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr"/>
+      <c r="C1561" t="inlineStr"/>
+      <c r="D1561" t="inlineStr"/>
+      <c r="E1561" t="inlineStr"/>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="inlineStr"/>
+      <c r="H1561" t="inlineStr"/>
+      <c r="I1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 265370P4</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr"/>
+      <c r="C1562" t="inlineStr"/>
+      <c r="D1562" t="inlineStr"/>
+      <c r="E1562" t="inlineStr"/>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="inlineStr"/>
+      <c r="H1562" t="inlineStr"/>
+      <c r="I1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>Summarized description: Montmartre is one of the most beautiful neighbourhoods in Paris. It is home to some of the city's most famous artists, including Van Gogh, Picasso and Lautrec.</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr"/>
+      <c r="C1563" t="inlineStr"/>
+      <c r="D1563" t="inlineStr"/>
+      <c r="E1563" t="inlineStr"/>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="inlineStr"/>
+      <c r="H1563" t="inlineStr"/>
+      <c r="I1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Montmartre's Secrets and Tastes in a Private Walking tour </t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr"/>
+      <c r="C1564" t="inlineStr"/>
+      <c r="D1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr"/>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr"/>
+      <c r="H1564" t="inlineStr"/>
+      <c r="I1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr"/>
+      <c r="C1565" t="inlineStr"/>
+      <c r="D1565" t="inlineStr"/>
+      <c r="E1565" t="inlineStr"/>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr"/>
+      <c r="H1565" t="inlineStr"/>
+      <c r="I1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr"/>
+      <c r="C1566" t="inlineStr"/>
+      <c r="D1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr"/>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
+      <c r="H1566" t="inlineStr"/>
+      <c r="I1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr"/>
+      <c r="C1567" t="inlineStr"/>
+      <c r="D1567" t="inlineStr"/>
+      <c r="E1567" t="inlineStr"/>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr"/>
+      <c r="H1567" t="inlineStr"/>
+      <c r="I1567" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/129335P2.xlsx
+++ b/experiment_results/129335P2.xlsx
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Museums']</t>
+          <t>Category: ['Museums', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Food Festivals', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Food Festivals']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15546,7 +15546,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P195</t>
+          <t>PRODUCTCODE: 394285P4</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the only vineyards left in Paris. See where artists Picasso and Modigliani got their start. Do it all in an hour or linger at stops along the way.</t>
+          <t>Summarized description: Montmartre was once the home of a Roman temple and then a small village teeming with windmills. It became the birthplace of Impressionism, overrun with cabarets and can-can dancers. The neighbourhood is full of great bars and restaurants, artists’ studios, and even a vineyard.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Montmartre Self-Guided Audio Tour: More Than Meets the Eye</t>
+          <t>Title: Montmartre Guided Walking Tour: Famous Artists and Cabarets</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 17</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P86</t>
+          <t>PRODUCTCODE: 210555P5</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre Walking Tour is a leisurely walk through the heart of Paris. The highlight of your journey awaits you as you ascend Montmartre Hill and approach the magnificent Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Discover the areas which made the artists like Vincent Van Gogh, Claude Monet, Salvador Dali and Pablo Picasso call it their home. Witness the last remaining Vineyards of Paris and the Square of the Artists.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Montmartre Marvels: A Small Group Guided Stroll in Bohemian Paris</t>
+          <t>Title: Montmartre Guided Tour with Sacré Cœur Church and City views</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210555P5</t>
+          <t>PRODUCTCODE: 116778P16</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the areas which made the artists like Vincent Van Gogh, Claude Monet, Salvador Dali and Pablo Picasso call it their home. Witness the last remaining Vineyards of Paris and the Square of the Artists.</t>
+          <t>Summarized description: Montmartre is famous for its chic art scene, impressive history, and remarkable heritage. Stroll through the mesmerizing Notre Dame de Lorette, and get up close to its handpainted murals. Uncover its unique past as you make your way down the world-famous Rue Des Martyrs.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Montmartre Guided Tour with Sacré Cœur Church and City views</t>
+          <t>Title: Montmartre’s heritage with specialties tasting Private Tour</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P16</t>
+          <t>PRODUCTCODE: 118261P9</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is famous for its chic art scene, impressive history, and remarkable heritage. Stroll through the mesmerizing Notre Dame de Lorette, and get up close to its handpainted murals. Uncover its unique past as you make your way down the world-famous Rue Des Martyrs.</t>
+          <t>Summarized description: Montmartre is undoubtedly the most picturesque district in Paris. With this walk you will discover the history of this neighborhood. We will start from the famous Moulin Rouge and then go up the hill.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Montmartre’s heritage with specialties tasting Private Tour</t>
+          <t>Title: Group tour in Italian of the Montmartre district</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118261P9</t>
+          <t>PRODUCTCODE: 2050P294</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is undoubtedly the most picturesque district in Paris. With this walk you will discover the history of this neighborhood. We will start from the famous Moulin Rouge and then go up the hill.</t>
+          <t>Summarized description: The Basilica of the Sacré-Cœur is located up the hill of Montmartre, the "Mount of Martyrs" Enjoy the wide panoramic view of the City of Light and its famous monuments.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Group tour in Italian of the Montmartre district</t>
+          <t>Title: Montmartre Bohemian Audio Guided Tour with Sacre Coeur Basilica</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P294</t>
+          <t>PRODUCTCODE: 75909P683</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: The Basilica of the Sacré-Cœur is located up the hill of Montmartre, the "Mount of Martyrs" Enjoy the wide panoramic view of the City of Light and its famous monuments.</t>
+          <t>Summarized description: Explore Montmartre on foot and enjoy Parisian delicacies as you go. Local expert will share anecdotes and teach you about the city and its culinary history.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Montmartre Bohemian Audio Guided Tour with Sacre Coeur Basilica</t>
+          <t>Title: All Inclusive Food &amp; History Tour of Montmartre with Local Guide</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P683</t>
+          <t>PRODUCTCODE: 119774P4</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montmartre on foot and enjoy Parisian delicacies as you go. Local expert will share anecdotes and teach you about the city and its culinary history.</t>
+          <t>Summarized description: You will relive the atmosphere of the ''New-Athens'', where the Batignolles Group gathered. You will learn about their art and their private life, and you will have fun with anecdotes.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: All Inclusive Food &amp; History Tour of Montmartre with Local Guide</t>
+          <t>Title: Montmartre, in the footsteps of painters.</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 119774P4</t>
+          <t>PRODUCTCODE: 24380P1097</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: You will relive the atmosphere of the ''New-Athens'', where the Batignolles Group gathered. You will learn about their art and their private life, and you will have fun with anecdotes.</t>
+          <t>Summarized description: Highlights &amp; Hidden Gems of Montmartre: Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Montmartre, in the footsteps of painters.</t>
+          <t>Title: Highlights &amp; Hidden Gems of Montmartre: Private City Tour</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1097</t>
+          <t>PRODUCTCODE: 366784P2</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Highlights &amp; Hidden Gems of Montmartre: Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce.</t>
+          <t>Summarized description: The app features a pre-designed walking route that takes you through the key attractions of Montmartre, accompanied by captivating audio commentary detailing the history of the area. During your self-guided tour, you are guaranteed to encounter the iconic Moulin Rouge Cabaret and the renowned ""red light district of Paris"</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Highlights &amp; Hidden Gems of Montmartre: Private City Tour</t>
+          <t>Title: Private Self Guided Walking Tour in Montmartre Paris</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 366784P2</t>
+          <t>PRODUCTCODE: 126585P6</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: The app features a pre-designed walking route that takes you through the key attractions of Montmartre, accompanied by captivating audio commentary detailing the history of the area. During your self-guided tour, you are guaranteed to encounter the iconic Moulin Rouge Cabaret and the renowned ""red light district of Paris"</t>
+          <t>Summarized description: This visit was designed by a Montmartrois who lives on the Place du Tertre. In 2 hours you will discover the famous but also hidden places of Montmartre. Commentary and photo stops are provided to fully enjoy the experience.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Private Self Guided Walking Tour in Montmartre Paris</t>
+          <t>Title: Unusual walking tour of Montmartre and local wine tasting - 2H</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126585P6</t>
+          <t>PRODUCTCODE: 3234MONTMARTRE</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: This visit was designed by a Montmartrois who lives on the Place du Tertre. In 2 hours you will discover the famous but also hidden places of Montmartre. Commentary and photo stops are provided to fully enjoy the experience.</t>
+          <t>Summarized description: Montmartre is Paris’ most charming neighborhood. Enjoy a private walking tour of Montmartre’s must-see historical and cultural sights. Top it off with a truly traditional cabaret at Au Lapin Agile.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Unusual walking tour of Montmartre and local wine tasting - 2H</t>
+          <t>Title: Private Tour: Montmartre Walking Tour, Dinner and Au Lapin Agile Cabaret</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14447P4</t>
+          <t>PRODUCTCODE: 33567P2</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history, culture, and characters of the district. Visit Sacré-Coeur Basilica for a view over the city. Small-group tour is limited to 15 people.</t>
+          <t>Summarized description: The photo walking tour takes place in the popular Montmartre area where the famous french movie Amelie Poulain was filmed almost 20 years ago. The photo class starts at a traditional French coffee shop where you'll learn about the basics of photography.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Paris Walking Tour of the Montmartre District</t>
+          <t>Title: Discover Montmartre with a photo walk</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32142P51</t>
+          <t>PRODUCTCODE: 14447P4</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been a favourite place for Impressionist such as Renoir, Picasso, Toulouse-Lautrec and many other artists. The tour goes through the district up to the Basilica of the Sacred Heart.</t>
+          <t>Summarized description: Learn about the history, culture, and characters of the district. Visit Sacré-Coeur Basilica for a view over the city. Small-group tour is limited to 15 people.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Montmartre Small-Group Family Tour</t>
+          <t>Title: Paris Walking Tour of the Montmartre District</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 398416P1</t>
+          <t>PRODUCTCODE: 32142P51</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was the birthplace of both the Jesuit Order and the modern Counterculture. One must see the workshops and cafés where Renoir, Vang Gogh and Picasso championed new art forms.</t>
+          <t>Summarized description: Montmartre has been a favourite place for Impressionist such as Renoir, Picasso, Toulouse-Lautrec and many other artists. The tour goes through the district up to the Basilica of the Sacred Heart.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Secrets of Montmartre from the Moulin Rouge to the Sacré Cœur</t>
+          <t>Title: Montmartre Small-Group Family Tour</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P22</t>
+          <t>PRODUCTCODE: 398416P1</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour walking tour with a professional local guide. Explore the best of Montmartre in the footsteps of the Impressionists. Enjoy one of the most authentic district of Paris with your private guide.</t>
+          <t>Summarized description: Montmartre was the birthplace of both the Jesuit Order and the modern Counterculture. One must see the workshops and cafés where Renoir, Vang Gogh and Picasso championed new art forms.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Montmartre Exclusive Impressionist Small Group Walking Tour</t>
+          <t>Title: Secrets of Montmartre from the Moulin Rouge to the Sacré Cœur</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 192144P4</t>
+          <t>PRODUCTCODE: 13437P22</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montmartre, the most iconic neighborhood in Paris. Walk the cobblestone streets and follow the path of the legendary painters and street artists.</t>
+          <t>Summarized description: Two-hour walking tour with a professional local guide. Explore the best of Montmartre in the footsteps of the Impressionists. Enjoy one of the most authentic district of Paris with your private guide.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Walking Tour</t>
+          <t>Title: Montmartre Exclusive Impressionist Small Group Walking Tour</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 133687P69</t>
+          <t>PRODUCTCODE: 192144P4</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Montmartre's history and the secrets with a private guide. You will see attractions such as the Moulin Rouge and hear about bohemian life during the Belle Époque.</t>
+          <t>Summarized description: Explore Montmartre, the most iconic neighborhood in Paris. Walk the cobblestone streets and follow the path of the legendary painters and street artists.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Paris: Montmartre and Sacré Coeur Experience</t>
+          <t>Title: Montmartre Private Walking Tour</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746P45</t>
+          <t>PRODUCTCODE: 133687P69</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the most iconic district of Paris. This private tour introduces you to the bohemian village of Montmartre. This tour will include the must-sees Sacre Coeur, artists' square, the funicular, the best views of Paris etc.</t>
+          <t>Summarized description: Learn about Montmartre's history and the secrets with a private guide. You will see attractions such as the Moulin Rouge and hear about bohemian life during the Belle Époque.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Village Private Walking Tour with Sacre Coeur Rooftop </t>
+          <t>Title: Paris: Montmartre and Sacré Coeur Experience</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384373P3</t>
+          <t>PRODUCTCODE: 5746P45</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to famous artists such as Van Gogh, Picasso Monet and others. The district was also the setting for much of the film Amélie.</t>
+          <t>Summarized description: Montmartre is the most iconic district of Paris. This private tour introduces you to the bohemian village of Montmartre. This tour will include the must-sees Sacre Coeur, artists' square, the funicular, the best views of Paris etc.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Montmartre-Sacré Coeur Walking Tour: Semi Private Experience</t>
+          <t xml:space="preserve">Title: Montmartre Village Private Walking Tour with Sacre Coeur Rooftop </t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 343759P11</t>
+          <t>PRODUCTCODE: 384373P3</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was home to some of the most famous artists of all time, such as Picasso, Van Gogh, Renoir, Braque, and Matisse. Explore Montmartre's rich history and cultural significance with a local guide.</t>
+          <t>Summarized description: Montmartre is home to famous artists such as Van Gogh, Picasso Monet and others. The district was also the setting for much of the film Amélie.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Montmartre Art, Culture &amp; Rebel Legacy: Semi-Private Walking Tour</t>
+          <t>Title: Montmartre-Sacré Coeur Walking Tour: Semi Private Experience</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P22</t>
+          <t>PRODUCTCODE: 343759P11</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the vibrant past of the renowned and enduring Moulin Rouge. Visit the renowned Sacre-Coeur Basilica to take in the expansive vista.</t>
+          <t>Summarized description: Montmartre was home to some of the most famous artists of all time, such as Picasso, Van Gogh, Renoir, Braque, and Matisse. Explore Montmartre's rich history and cultural significance with a local guide.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Paris: Walking tour of Montmartre (Guided Tour)</t>
+          <t>Title: Montmartre Art, Culture &amp; Rebel Legacy: Semi-Private Walking Tour</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 462750P3</t>
+          <t>PRODUCTCODE: 239576P22</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: A unique walking tour with a local city guide. Follow me through some iconic streets, off the beaten path. You will be rewarded with a thrilling view of Paris.</t>
+          <t>Summarized description: Learn about the vibrant past of the renowned and enduring Moulin Rouge. Visit the renowned Sacre-Coeur Basilica to take in the expansive vista.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Guided Walking Tour through the Old Artist Village Montmartre</t>
+          <t>Title: Paris: Walking tour of Montmartre (Guided Tour)</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P133</t>
+          <t>PRODUCTCODE: 462750P3</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest, most authentic areas of Paris. Your local expert guide will take you through the area’s little-known nooks and crannies.</t>
+          <t>Summarized description: A unique walking tour with a local city guide. Follow me through some iconic streets, off the beaten path. You will be rewarded with a thrilling view of Paris.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Hidden Montmartre Guided Walk of the Artists' Quarter</t>
+          <t>Title: Guided Walking Tour through the Old Artist Village Montmartre</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20502P4</t>
+          <t>PRODUCTCODE: 3731P133</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a walking tour through Artists life in Mythical Montmartre. You’ll discover secrets places, listen to a lot of anecdotes about great Painters, Picasso or Van Gogh. Also relax with a glass of wine offer in a typical bistro of this Mythical neighborhood.</t>
+          <t>Summarized description: Montmartre is one of the oldest, most authentic areas of Paris. Your local expert guide will take you through the area’s little-known nooks and crannies.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Montmartre Artist Tour in Paris</t>
+          <t>Title: Hidden Montmartre Guided Walk of the Artists' Quarter</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6877P96</t>
+          <t>PRODUCTCODE: 20502P4</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the most bohemian neighborhood in Paris and the birthplace of some of the most renowned French painters and artists. Visit the Moulin Rouge, the Place des Abbesses and the Sacre Coeur.</t>
+          <t>Summarized description: Enjoy a walking tour through Artists life in Mythical Montmartre. You’ll discover secrets places, listen to a lot of anecdotes about great Painters, Picasso or Van Gogh. Also relax with a glass of wine offer in a typical bistro of this Mythical neighborhood.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Walking tour of Montmartre</t>
+          <t>Title: Montmartre Artist Tour in Paris</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9200P8</t>
+          <t>PRODUCTCODE: 6877P96</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most beloved neighborhoods. You may remember that the beloved film Amelie takes place in Montmartre. You'll visit the cafe she frequented as well.</t>
+          <t>Summarized description: Discover the most bohemian neighborhood in Paris and the birthplace of some of the most renowned French painters and artists. Visit the Moulin Rouge, the Place des Abbesses and the Sacre Coeur.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Montmartre and Sacre Coeur</t>
+          <t>Title: Walking tour of Montmartre</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P586</t>
+          <t>PRODUCTCODE: 9200P8</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the best of Parisian culture and bohemian dreams in Montmartre. See the legendary Moulin Rouge and hear stories about Van Gogh, Dali and other famous artists who lived here. Optional: visit the Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Montmartre is one of Paris' most beloved neighborhoods. You may remember that the beloved film Amelie takes place in Montmartre. You'll visit the cafe she frequented as well.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre and Sacré-Cœur Basilica</t>
+          <t>Title: Private Tour of Montmartre and Sacre Coeur</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 125783P5</t>
+          <t>PRODUCTCODE: 332536P586</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Photography tour around Montmartre. Our local photographer will meet you at a prearranged location. During the tour, show you some of the most magical locations.</t>
+          <t>Summarized description: Discover the best of Parisian culture and bohemian dreams in Montmartre. See the legendary Moulin Rouge and hear stories about Van Gogh, Dali and other famous artists who lived here. Optional: visit the Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Montmartre Insta Photography, Food shop street and Walking tour</t>
+          <t>Title: Private Walking Tour of Montmartre and Sacré-Cœur Basilica</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 235760P7</t>
+          <t>PRODUCTCODE: 125783P5</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming village in a busy city. Discover this romantic corner of Paris and enjoy stunning views and peaceful atmosphere in its cobblestone streets.</t>
+          <t>Summarized description: Photography tour around Montmartre. Our local photographer will meet you at a prearranged location. During the tour, show you some of the most magical locations.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Paris Premium Tour : Basilique Sacré &amp; Montmartre with a Art Historian</t>
+          <t>Title: Montmartre Insta Photography, Food shop street and Walking tour</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157994P3</t>
+          <t>PRODUCTCODE: 235760P7</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: We'll hear about the painters, acrobats, street performers, absinthe-drinkers, poets, ragpickers, vagabonds and streetwalkers who settled in Montmartre. We'll see where Picasso painted, where Van Gogh and Renoir got drunk, and we'll walk down to the 'Harlem of Paris' where the Lost Generation discovered jazz.</t>
+          <t>Summarized description: Montmartre is a charming village in a busy city. Discover this romantic corner of Paris and enjoy stunning views and peaceful atmosphere in its cobblestone streets.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: 'Bohemians of Paris' Walk in Montmartre</t>
+          <t>Title: Paris Premium Tour : Basilique Sacré &amp; Montmartre with a Art Historian</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 129032P4</t>
+          <t>PRODUCTCODE: 157994P3</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: Your Guide-Conferencier will make you discover the iconic places of this capital district of the capital. You will pass in the most confidential and unknown streets of this colorful district.</t>
+          <t>Summarized description: We'll hear about the painters, acrobats, street performers, absinthe-drinkers, poets, ragpickers, vagabonds and streetwalkers who settled in Montmartre. We'll see where Picasso painted, where Van Gogh and Renoir got drunk, and we'll walk down to the 'Harlem of Paris' where the Lost Generation discovered jazz.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Montmartre and its secrets</t>
+          <t>Title: 'Bohemians of Paris' Walk in Montmartre</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 351948P1</t>
+          <t>PRODUCTCODE: 129032P4</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: To browse Montmartre is to discover this district through its history. From Saint-Denis to the recent artistic movements that have made the reputation of this mythical place in Paris, original and earthy.</t>
+          <t>Summarized description: Your Guide-Conferencier will make you discover the iconic places of this capital district of the capital. You will pass in the most confidential and unknown streets of this colorful district.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Tour</t>
+          <t>Title: Montmartre and its secrets</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105229P5</t>
+          <t>PRODUCTCODE: 351948P1</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a melting pot of Van Gogh, Picasso and Dali. Explore the creativity, community and quirky secrets of one of the most unique areas of Paris.</t>
+          <t>Summarized description: To browse Montmartre is to discover this district through its history. From Saint-Denis to the recent artistic movements that have made the reputation of this mythical place in Paris, original and earthy.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre</t>
+          <t>Title: Montmartre Private Tour</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P6</t>
+          <t>PRODUCTCODE: 105229P5</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: The iconic neighborhood in Paris is the Montmarte. It is also artist, community, and historic site. On this tour you can get to see the best things ,sites that the city offers.</t>
+          <t>Summarized description: Montmartre is a melting pot of Van Gogh, Picasso and Dali. Explore the creativity, community and quirky secrets of one of the most unique areas of Paris.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Paris Tour at Montmartre : Remarkable Places and Surprising Gems (Private)</t>
+          <t>Title: Private Walking Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420543P4</t>
+          <t>PRODUCTCODE: 243313P6</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the enchanting world of Montmartre with our curated tour. Discover hidden gems like La Maison Rose, and embrace the artistic spirit of Place du Tertre.</t>
+          <t>Summarized description: The iconic neighborhood in Paris is the Montmarte. It is also artist, community, and historic site. On this tour you can get to see the best things ,sites that the city offers.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title:  Guided Tour to Montmartre &amp; Sacré-Cœur Chronicles</t>
+          <t>Title: Paris Tour at Montmartre : Remarkable Places and Surprising Gems (Private)</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14787P6</t>
+          <t>PRODUCTCODE: 420543P4</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Stroll around the Montmartre area with your professional photography guide. Capture the memories on 300 photos of you near such places as the Basilica of Sacre-Coeur and Moulin Rouge.</t>
+          <t>Summarized description: Step into the enchanting world of Montmartre with our curated tour. Discover hidden gems like La Maison Rose, and embrace the artistic spirit of Place du Tertre.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Professional Photo Shoot Tour in Paris' Montmartre</t>
+          <t>Title:  Guided Tour to Montmartre &amp; Sacré-Cœur Chronicles</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150467P10</t>
+          <t>PRODUCTCODE: 14787P6</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: This is a 2-hour private walking tour intended to focus on Montmartre neighborhood by night. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes the area so nice.</t>
+          <t>Summarized description: Stroll around the Montmartre area with your professional photography guide. Capture the memories on 300 photos of you near such places as the Basilica of Sacre-Coeur and Moulin Rouge.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Montmartre by Night Private Tour</t>
+          <t>Title: Professional Photo Shoot Tour in Paris' Montmartre</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 33567P5</t>
+          <t>PRODUCTCODE: 150467P10</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris’ most atmospheric neighbourhoods. The bohemian district offers plenty of photo opportunities. A professional photographer guide will help you improve your photography skills.</t>
+          <t>Summarized description: This is a 2-hour private walking tour intended to focus on Montmartre neighborhood by night. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes the area so nice.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Montmartre Poetic Photo Walk by night</t>
+          <t>Title: Montmartre by Night Private Tour</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 371334P2</t>
+          <t>PRODUCTCODE: 33567P5</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the city of light's most famous landmarks such as the Sacre Coeur and Moulin Rouge. Explore less-known but exciting spots, filled with history and local culture.</t>
+          <t>Summarized description: Montmartre is one of Paris’ most atmospheric neighbourhoods. The bohemian district offers plenty of photo opportunities. A professional photographer guide will help you improve your photography skills.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour From Moulin Rouge To Scare Coeur</t>
+          <t>Title: Montmartre Poetic Photo Walk by night</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 452894P2</t>
+          <t>PRODUCTCODE: 371334P2</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the artistic district of Paris. The district is filled with love stories and legends. It includes the Saint-Pierre Market, the Maison de Dalida and the Basilica of the Sacred Heart.</t>
+          <t>Summarized description: Explore some of the city of light's most famous landmarks such as the Sacre Coeur and Moulin Rouge. Explore less-known but exciting spots, filled with history and local culture.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: 2 Hour Walk in Montmartre</t>
+          <t>Title: Montmartre Walking Tour From Moulin Rouge To Scare Coeur</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132681P5</t>
+          <t>PRODUCTCODE: 452894P2</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the most famous district of Paris with a guide on a private walking tour. Learn about this charming area from your guide and find out why its been so beloved by artists since the 18th century.</t>
+          <t>Summarized description: Montmartre is the artistic district of Paris. The district is filled with love stories and legends. It includes the Saint-Pierre Market, the Maison de Dalida and the Basilica of the Sacred Heart.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre : Private Guided Walking Tour</t>
+          <t>Title: 2 Hour Walk in Montmartre</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423194P3</t>
+          <t>PRODUCTCODE: 132681P5</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of Paris begins at the iconic Moulin Rouge. You will walk on the streets where Van Gogh, Henri de Toulouse-Lautrec, Pissarro and other artists lived &amp; worked. Your tour concludes at the summit of Montmartre where the steps of the Sacre-Coeur host millions of visitors.</t>
+          <t>Summarized description: Explore the most famous district of Paris with a guide on a private walking tour. Learn about this charming area from your guide and find out why its been so beloved by artists since the 18th century.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour: The Best of Paris - Art, Culture &amp; Food</t>
+          <t>Title: Paris Montmartre : Private Guided Walking Tour</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 449245P2</t>
+          <t>PRODUCTCODE: 423194P3</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is an escape from the typical Paris, with its winding streets, bohemian spirit and scandalous stories. With us on this tour, you'll get to learn and engage with the history of the neighborhood, the famous artists that lived there, and also hidden gems on the way.</t>
+          <t>Summarized description: Tour of Paris begins at the iconic Moulin Rouge. You will walk on the streets where Van Gogh, Henri de Toulouse-Lautrec, Pissarro and other artists lived &amp; worked. Your tour concludes at the summit of Montmartre where the steps of the Sacre-Coeur host millions of visitors.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Ultimate Montmartre Semi-Private Walking Tour &amp; Sacre Coeur </t>
+          <t>Title: Montmartre Walking Tour: The Best of Paris - Art, Culture &amp; Food</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368071P1</t>
+          <t>PRODUCTCODE: 449245P2</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21607,7 +21607,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Summarized description: This guided tour of Montmartre will allow you to discover the history of this ancient village. The visit will start in front of the Lapin Agile cabaret where we will tell you about Boronali's incredible artistic prank. We will also see the mysterious Château des Fogs, the Moulin de la Galette and the house of singer Dalida.</t>
+          <t>Summarized description: Montmartre is an escape from the typical Paris, with its winding streets, bohemian spirit and scandalous stories. With us on this tour, you'll get to learn and engage with the history of the neighborhood, the famous artists that lived there, and also hidden gems on the way.</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>Title: Historical and Cultural Guided Tour of Montmartre</t>
+          <t xml:space="preserve">Title: The Ultimate Montmartre Semi-Private Walking Tour &amp; Sacre Coeur </t>
         </is>
       </c>
       <c r="B1409" t="inlineStr"/>
@@ -21667,7 +21667,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P78</t>
+          <t>PRODUCTCODE: 368071P1</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -21682,7 +21682,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Summarized description: This self-guided interactive walking tour will let you discover the charming and picturesque quarter of Montmartre. Visit the house where Vincent van Gogh once lived and worked, visit the cemetery where luminaries including Edgar Degas, Emile Zola and Jacques Offenbach are buried.</t>
+          <t>Summarized description: This guided tour of Montmartre will allow you to discover the history of this ancient village. The visit will start in front of the Lapin Agile cabaret where we will tell you about Boronali's incredible artistic prank. We will also see the mysterious Château des Fogs, the Moulin de la Galette and the house of singer Dalida.</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr"/>
@@ -21697,7 +21697,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre &amp; Sacre Coeur: Self-Guided Walking Tour with Mobile App</t>
+          <t>Title: Historical and Cultural Guided Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr"/>
@@ -21727,7 +21727,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr"/>
@@ -21742,7 +21742,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 409362P2</t>
+          <t>PRODUCTCODE: 128905P78</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr"/>
@@ -21757,7 +21757,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>Summarized description: Tours start at the Montmartre Cemetery and finish at the Sacré Coeur. We will see the famous mill painted by Auguste Renoir and the famous singer Dalida's home.</t>
+          <t>Summarized description: This self-guided interactive walking tour will let you discover the charming and picturesque quarter of Montmartre. Visit the house where Vincent van Gogh once lived and worked, visit the cemetery where luminaries including Edgar Degas, Emile Zola and Jacques Offenbach are buried.</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>Title: Montmartre Sightseeing Guided Walking Tour</t>
+          <t>Title: Paris Montmartre &amp; Sacre Coeur: Self-Guided Walking Tour with Mobile App</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr"/>
@@ -21817,7 +21817,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P9</t>
+          <t>PRODUCTCODE: 409362P2</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr"/>
@@ -21832,7 +21832,7 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming village within a bustling city. The cobblestone streets of Montmartre will leave you speechless. Learn more about this beautiful architectural style which is oh so Parisian.</t>
+          <t>Summarized description: Tours start at the Montmartre Cemetery and finish at the Sacré Coeur. We will see the famous mill painted by Auguste Renoir and the famous singer Dalida's home.</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr"/>
@@ -21847,7 +21847,7 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Sacré-Coeur Basilica &amp; Montmartre Private Tour (with an Art Historian) </t>
+          <t>Title: Montmartre Sightseeing Guided Walking Tour</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr"/>
@@ -21877,7 +21877,7 @@
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1426" t="inlineStr"/>
@@ -21892,7 +21892,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51192P171</t>
+          <t>PRODUCTCODE: 248877P9</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr"/>
@@ -21907,7 +21907,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Place du Tertre and trace artistic legends such as Monet, Renoir, and Van Gogh. Explore the famous Sacré-Coeur Basilica and Saint Jean de Montmartre Church with an expert guide.</t>
+          <t>Summarized description: Montmartre is a charming village within a bustling city. The cobblestone streets of Montmartre will leave you speechless. Learn more about this beautiful architectural style which is oh so Parisian.</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr"/>
@@ -21922,7 +21922,7 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Title: Paris: Guided Walking Tour In Montmartre and Sacré-Coeur</t>
+          <t xml:space="preserve">Title: Paris Sacré-Coeur Basilica &amp; Montmartre Private Tour (with an Art Historian) </t>
         </is>
       </c>
       <c r="B1429" t="inlineStr"/>
@@ -21952,7 +21952,7 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 179966P4</t>
+          <t>PRODUCTCODE: 51192P171</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr"/>
@@ -21982,7 +21982,7 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Basilica of the Sacred Heart, the Place du Tertre or the Moulin de la Galette with one of the guides-speakers of our agency. Choosing our agency is a guarantee of quality for your future visits.</t>
+          <t>Summarized description: Visit Place du Tertre and trace artistic legends such as Monet, Renoir, and Van Gogh. Explore the famous Sacré-Coeur Basilica and Saint Jean de Montmartre Church with an expert guide.</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr"/>
@@ -21997,7 +21997,7 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>Title: From Moulin Rouge to Sacré Coeur, Montmartre and Bohemian life (private tour)</t>
+          <t>Title: Paris: Guided Walking Tour In Montmartre and Sacré-Coeur</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr"/>
@@ -22042,7 +22042,7 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108889P17</t>
+          <t>PRODUCTCODE: 179966P4</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr"/>
@@ -22057,7 +22057,7 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>Summarized description: In 1900 Montmartre was the world capital of artists. Your professional guide will explain to you why Picasso, Van Gogh, Renoir, Degas, Toulouse Lautrec used to live their. You will love the charming streets &amp; atmosphere.</t>
+          <t>Summarized description: Discover the Basilica of the Sacred Heart, the Place du Tertre or the Moulin de la Galette with one of the guides-speakers of our agency. Choosing our agency is a guarantee of quality for your future visits.</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr"/>
@@ -22072,7 +22072,7 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>Title: Artists in Montmartre &amp; Sacred heart private tour</t>
+          <t>Title: From Moulin Rouge to Sacré Coeur, Montmartre and Bohemian life (private tour)</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr"/>
@@ -22102,7 +22102,7 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr"/>
@@ -22117,7 +22117,7 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101116P3</t>
+          <t>PRODUCTCODE: 108889P17</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest neighbourhoods in Paris. It is home to many famous artists, including Picasso, Van Gogh and Renoir. Children will be engaged by the stories the group around Alberto can tell them.</t>
+          <t>Summarized description: In 1900 Montmartre was the world capital of artists. Your professional guide will explain to you why Picasso, Van Gogh, Renoir, Degas, Toulouse Lautrec used to live their. You will love the charming streets &amp; atmosphere.</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr"/>
@@ -22147,7 +22147,7 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacre Coeur Tour for Kids &amp; Families w Alberto &amp; his team in Paris</t>
+          <t>Title: Artists in Montmartre &amp; Sacred heart private tour</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr"/>
@@ -22177,7 +22177,7 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr"/>
@@ -22192,7 +22192,7 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P326</t>
+          <t>PRODUCTCODE: 101116P3</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr"/>
@@ -22207,7 +22207,7 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>Summarized description: Private guided tour of Montmartre will allow you to feel the bohemian atmosphere of the district. You will walk the narrow streets and discover the hidden corners of the area while your local expert guide will tell you about the old cafes.</t>
+          <t>Summarized description: Montmartre is one of the oldest neighbourhoods in Paris. It is home to many famous artists, including Picasso, Van Gogh and Renoir. Children will be engaged by the stories the group around Alberto can tell them.</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr"/>
@@ -22222,7 +22222,7 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>Title: Montmartre Quarter Private Guided Tour in Paris</t>
+          <t>Title: Montmartre &amp; Sacre Coeur Tour for Kids &amp; Families w Alberto &amp; his team in Paris</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr"/>
@@ -22252,7 +22252,7 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr"/>
@@ -22267,7 +22267,7 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P143</t>
+          <t>PRODUCTCODE: 20455P326</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr"/>
@@ -22282,7 +22282,7 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most famous districts. The district is a melting pot of art and inspiration for the cinema. The cobbled streets of the 18th arrondissement are a real pleasure to explore.</t>
+          <t>Summarized description: Private guided tour of Montmartre will allow you to feel the bohemian atmosphere of the district. You will walk the narrow streets and discover the hidden corners of the area while your local expert guide will tell you about the old cafes.</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Walking Tour of "Montmartre" area in Paris </t>
+          <t>Title: Montmartre Quarter Private Guided Tour in Paris</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr"/>
@@ -22327,7 +22327,7 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr"/>
@@ -22342,7 +22342,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73434P108</t>
+          <t>PRODUCTCODE: 320547P143</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr"/>
@@ -22357,7 +22357,7 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the history and magnificent details of this marvelous neighborhood in Paris. Walk through the footsteps of the famous artists, through the terrace cafes to romping bars and clubs, and saucy can-can dancers.</t>
+          <t>Summarized description: Montmartre is one of Paris' most famous districts. The district is a melting pot of art and inspiration for the cinema. The cobbled streets of the 18th arrondissement are a real pleasure to explore.</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr"/>
@@ -22372,7 +22372,7 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>Title: Montmartre Neighbourhood Tour in Paris</t>
+          <t xml:space="preserve">Title: Private Walking Tour of "Montmartre" area in Paris </t>
         </is>
       </c>
       <c r="B1459" t="inlineStr"/>
@@ -22402,7 +22402,7 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr"/>
@@ -22417,7 +22417,7 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110155P7</t>
+          <t>PRODUCTCODE: 73434P108</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr"/>
@@ -22432,7 +22432,7 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about Montmartre and the people who have shaped the district. Van Gogh, Picasso, Renoir, Matisse and many other great painters have lived here. Admire the last windmill in the city.</t>
+          <t>Summarized description: Explore the history and magnificent details of this marvelous neighborhood in Paris. Walk through the footsteps of the famous artists, through the terrace cafes to romping bars and clubs, and saucy can-can dancers.</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr"/>
@@ -22447,7 +22447,7 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>Title: Montmartre - 2hours Chinese guided walking tour</t>
+          <t>Title: Montmartre Neighbourhood Tour in Paris</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr"/>
@@ -22477,7 +22477,7 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr"/>
@@ -22492,7 +22492,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 266661P29</t>
+          <t>PRODUCTCODE: 110155P7</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr"/>
@@ -22507,7 +22507,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been home to artists like Van Gogh and Henri de Toulouse-Lautrec. Take a two-hour walking tour through the neighborhood to discover its history and culture.</t>
+          <t>Summarized description: Learn all about Montmartre and the people who have shaped the district. Van Gogh, Picasso, Renoir, Matisse and many other great painters have lived here. Admire the last windmill in the city.</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr"/>
@@ -22522,7 +22522,7 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Title: Montmartre - Private Guided Walking Tour with a Local</t>
+          <t>Title: Montmartre - 2hours Chinese guided walking tour</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr"/>
@@ -22552,7 +22552,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr"/>
@@ -22567,7 +22567,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107859P508</t>
+          <t>PRODUCTCODE: 266661P29</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr"/>
@@ -22582,7 +22582,7 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Summarized description: Wine, cheese and oysters are just some of the things you can get to know about Montmartre. This tour is only for you and your local host, so don't bring anyone else.</t>
+          <t>Summarized description: Montmartre has been home to artists like Van Gogh and Henri de Toulouse-Lautrec. Take a two-hour walking tour through the neighborhood to discover its history and culture.</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr"/>
@@ -22597,7 +22597,7 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>Title: France Paris Beautiful Evening in Montmartre: Bites &amp; Sights</t>
+          <t>Title: Montmartre - Private Guided Walking Tour with a Local</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr"/>
@@ -22642,7 +22642,7 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P568</t>
+          <t>PRODUCTCODE: 107859P508</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr"/>
@@ -22657,7 +22657,7 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>Summarized description: The Montmartre Cheese and Wine Tasting Walking Tour is a popular activity for visitors to Paris. This tour typically takes about 2 hours and includes stops at local cheese shops and wine bars.</t>
+          <t>Summarized description: Wine, cheese and oysters are just some of the things you can get to know about Montmartre. This tour is only for you and your local host, so don't bring anyone else.</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr"/>
@@ -22672,7 +22672,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Title: Montmartre Cheese and Wine tasting Walking Tour</t>
+          <t>Title: France Paris Beautiful Evening in Montmartre: Bites &amp; Sights</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr"/>
@@ -22702,7 +22702,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr"/>
@@ -22717,7 +22717,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5944P16</t>
+          <t>PRODUCTCODE: 320547P568</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr"/>
@@ -22732,7 +22732,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is nicknamed "the village" by Parisians. With its exquisite squares, pretty churches and idyllic, winding streets, it’s easy to see why artists fell in love with this neighbourhood.</t>
+          <t>Summarized description: The Montmartre Cheese and Wine Tasting Walking Tour is a popular activity for visitors to Paris. This tour typically takes about 2 hours and includes stops at local cheese shops and wine bars.</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr"/>
@@ -22747,7 +22747,7 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>Title: Private tour of Montmartre</t>
+          <t>Title: Montmartre Cheese and Wine tasting Walking Tour</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104883P39</t>
+          <t>PRODUCTCODE: 5944P16</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr"/>
@@ -22807,7 +22807,7 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most charming and authentic neighbourhoods of the city. Discover the bohemian side of Paris and visit the magnificent Sacré Coeur Basilica on our family-oriented private tour.</t>
+          <t>Summarized description: Montmartre is nicknamed "the village" by Parisians. With its exquisite squares, pretty churches and idyllic, winding streets, it’s easy to see why artists fell in love with this neighbourhood.</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr"/>
@@ -22822,7 +22822,7 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
+          <t>Title: Private tour of Montmartre</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr"/>
@@ -22852,7 +22852,7 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr"/>
@@ -22867,7 +22867,7 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 266661P22</t>
+          <t>PRODUCTCODE: 104883P39</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr"/>
@@ -22882,7 +22882,7 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre food tour aims to combine wine, local products, meats, and desserts. We will eat and drink our way through the Montmartre. Along the way expect to try local wine, cheese, pastries, meats and chocolate.</t>
+          <t>Summarized description: Montmartre is one of the most charming and authentic neighbourhoods of the city. Discover the bohemian side of Paris and visit the magnificent Sacré Coeur Basilica on our family-oriented private tour.</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr"/>
@@ -22897,7 +22897,7 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>Title: Montmartre Food Tour - Cheese, Chocolate, Wine and more!</t>
+          <t>Title: Paris Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr"/>
@@ -22927,7 +22927,7 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr"/>
@@ -22942,7 +22942,7 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 115227P1</t>
+          <t>PRODUCTCODE: 266661P22</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was chosen for filming “Amelie’ — the film that touched the hearts of millions of people around the world. “I wanted that my movie make people happy” — Jean-Pierre Jeunet, film director of “Le Fabuleux destin d'Amélie Poulain”</t>
+          <t>Summarized description: Montmartre food tour aims to combine wine, local products, meats, and desserts. We will eat and drink our way through the Montmartre. Along the way expect to try local wine, cheese, pastries, meats and chocolate.</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr"/>
@@ -22972,7 +22972,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>Title: The world of Amelie from Montmartre</t>
+          <t>Title: Montmartre Food Tour - Cheese, Chocolate, Wine and more!</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr"/>
@@ -23002,7 +23002,7 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr"/>
@@ -23017,7 +23017,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746ESMONTMARTREWALK</t>
+          <t>PRODUCTCODE: 115227P1</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr"/>
@@ -23032,7 +23032,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most charming neighborhoods. Follow a local Spanish-speaking guide to explore the historic district. Visit famous attractions like Moulin Rouge and Basilique du Sacré-Coeur.</t>
+          <t>Summarized description: Montmartre was chosen for filming “Amelie’ — the film that touched the hearts of millions of people around the world. “I wanted that my movie make people happy” — Jean-Pierre Jeunet, film director of “Le Fabuleux destin d'Amélie Poulain”</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr"/>
@@ -23047,7 +23047,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>Title: Paris Walking Tour: Montmartre with a Spanish-Speaking Guide</t>
+          <t>Title: The world of Amelie from Montmartre</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr"/>
@@ -23077,7 +23077,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr"/>
@@ -23092,7 +23092,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 252536P1</t>
+          <t>PRODUCTCODE: 5746ESMONTMARTREWALK</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr"/>
@@ -23107,7 +23107,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>Summarized description: A walk in Montmartre, orchestrated with magic tricks, a learning of 3 professional magic tricks and a magic gift (the Magiepro box)</t>
+          <t>Summarized description: Montmartre is one of Paris' most charming neighborhoods. Follow a local Spanish-speaking guide to explore the historic district. Visit famous attractions like Moulin Rouge and Basilique du Sacré-Coeur.</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>Title: Magic in Montmartre</t>
+          <t>Title: Paris Walking Tour: Montmartre with a Spanish-Speaking Guide</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr"/>
@@ -23152,7 +23152,7 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Workshops and Classes']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr"/>
@@ -23167,7 +23167,7 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 265370P13</t>
+          <t>PRODUCTCODE: 252536P1</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr"/>
@@ -23182,7 +23182,7 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most visited areas in the City of Lights. Famous for the great number of artists mainly painters who lived in its steep cobble-stone streets. We offer to show you the real local side of the district taking through the little local streets.</t>
+          <t>Summarized description: A walk in Montmartre, orchestrated with magic tricks, a learning of 3 professional magic tricks and a magic gift (the Magiepro box)</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr"/>
@@ -23197,7 +23197,7 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Title: Small-Group Walking Tour of the Secrets of Montmartre</t>
+          <t>Title: Magic in Montmartre</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr"/>
@@ -23227,7 +23227,7 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr"/>
@@ -23242,7 +23242,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121352P15</t>
+          <t>PRODUCTCODE: 265370P13</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr"/>
@@ -23257,7 +23257,7 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>Summarized description: Knowing this picturesque area from the hand of a friend who lives in it and who knows you very well. You will discover and enjoy a walk through the streets and hidden corners of Montmartre.</t>
+          <t>Summarized description: Montmartre is one of the most visited areas in the City of Lights. Famous for the great number of artists mainly painters who lived in its steep cobble-stone streets. We offer to show you the real local side of the district taking through the little local streets.</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr"/>
@@ -23272,7 +23272,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>Title: A walk in Montmartre</t>
+          <t>Title: Small-Group Walking Tour of the Secrets of Montmartre</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr"/>
@@ -23302,7 +23302,7 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr"/>
@@ -23317,7 +23317,7 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P684</t>
+          <t>PRODUCTCODE: 121352P15</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr"/>
@@ -23332,7 +23332,7 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>Summarized description: Hilltop Montmartre is one of the most visited tourist spots in the city. You will discover this beautiful area with a local expert and licensed tour guide.</t>
+          <t>Summarized description: Knowing this picturesque area from the hand of a friend who lives in it and who knows you very well. You will discover and enjoy a walk through the streets and hidden corners of Montmartre.</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr"/>
@@ -23347,7 +23347,7 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>Title: Private walking tour of Montmartre neighborhood in Paris</t>
+          <t>Title: A walk in Montmartre</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr"/>
@@ -23377,7 +23377,7 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr"/>
@@ -23392,7 +23392,7 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5411P233</t>
+          <t>PRODUCTCODE: 8647P684</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr"/>
@@ -23407,7 +23407,7 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>Summarized description: A small-group walking tour of Paris's enigmatic Montmartre neighborhood. Home to many impressionist and modern artists. A tour of the city's most famous landmarks.</t>
+          <t>Summarized description: Hilltop Montmartre is one of the most visited tourist spots in the city. You will discover this beautiful area with a local expert and licensed tour guide.</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr"/>
@@ -23422,7 +23422,7 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>Title: Expert Led Tour of Paris' Montmartre Neighborhood</t>
+          <t>Title: Private walking tour of Montmartre neighborhood in Paris</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr"/>
@@ -23467,7 +23467,7 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9205P31</t>
+          <t>PRODUCTCODE: 5411P233</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr"/>
@@ -23482,7 +23482,7 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre offers a romantic glimpse into an era when raucous cabarets, bohemian soirées, and unbridled creativity were the norm. We’ll transport you back to those days by revealing things like the naughty origins of the Moulin Rouge.</t>
+          <t>Summarized description: A small-group walking tour of Paris's enigmatic Montmartre neighborhood. Home to many impressionist and modern artists. A tour of the city's most famous landmarks.</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr"/>
@@ -23497,7 +23497,7 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>Title: 2-hour Walking Tour Through The Charms of Montmartre</t>
+          <t>Title: Expert Led Tour of Paris' Montmartre Neighborhood</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr"/>
@@ -23527,7 +23527,7 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr"/>
@@ -23542,7 +23542,7 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46018P28</t>
+          <t>PRODUCTCODE: 9205P31</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr"/>
@@ -23557,7 +23557,7 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the history of Paris’ quintessential bohemian neighborhood by visiting the bars, cafes, and streets that nurtured many of the 20th century’s finest artists. We’ll take in the views from the Sacre Coeur, see the original Moulin Rouge, pause at Picasso's old studio, and even peek into the only vineyard within the city limits.</t>
+          <t>Summarized description: Montmartre offers a romantic glimpse into an era when raucous cabarets, bohemian soirées, and unbridled creativity were the norm. We’ll transport you back to those days by revealing things like the naughty origins of the Moulin Rouge.</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr"/>
@@ -23572,7 +23572,7 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>Title: In the footsteps of the Impressionists: Montmartre Tour with Sacre Coeur Views</t>
+          <t>Title: 2-hour Walking Tour Through The Charms of Montmartre</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr"/>
@@ -23602,7 +23602,7 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 181888P8</t>
+          <t>PRODUCTCODE: 46018P28</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr"/>
@@ -23632,7 +23632,7 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a bohemian neighborhood of Paris. Visit it’s old cabarets around the Byzantine cathedral “the Sacre Coeur’</t>
+          <t>Summarized description: Explore the history of Paris’ quintessential bohemian neighborhood by visiting the bars, cafes, and streets that nurtured many of the 20th century’s finest artists. We’ll take in the views from the Sacre Coeur, see the original Moulin Rouge, pause at Picasso's old studio, and even peek into the only vineyard within the city limits.</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr"/>
@@ -23647,7 +23647,7 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>Title: Eternal Montmartre!</t>
+          <t>Title: In the footsteps of the Impressionists: Montmartre Tour with Sacre Coeur Views</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr"/>
@@ -23677,7 +23677,7 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr"/>
@@ -23692,7 +23692,7 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P614</t>
+          <t>PRODUCTCODE: 181888P8</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr"/>
@@ -23707,7 +23707,7 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided and self-paced walking tour. Follow in the footsteps of renowned artists like Pablo Picasso and Vincent Van Gogh through Paris' Montmartre district.</t>
+          <t>Summarized description: Montmartre is a bohemian neighborhood of Paris. Visit it’s old cabarets around the Byzantine cathedral “the Sacre Coeur’</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr"/>
@@ -23722,7 +23722,7 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>Title: Private Self-Guided Audio Tour in Paris Montmartre District</t>
+          <t>Title: Eternal Montmartre!</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr"/>
@@ -23767,7 +23767,7 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9257P4</t>
+          <t>PRODUCTCODE: 110804P614</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Summarized description: You will have a chance to peek into shops, sample goodies, and sometimes just sit and take in the view. All of the afternoon walks are at leisure pace.</t>
+          <t>Summarized description: Self-guided and self-paced walking tour. Follow in the footsteps of renowned artists like Pablo Picasso and Vincent Van Gogh through Paris' Montmartre district.</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr"/>
@@ -23797,7 +23797,7 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>Title: Afternoon Leisure Walk in Paris: Montmartre</t>
+          <t>Title: Private Self-Guided Audio Tour in Paris Montmartre District</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr"/>
@@ -23827,7 +23827,7 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr"/>
@@ -23842,7 +23842,7 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101116P8</t>
+          <t>PRODUCTCODE: 9257P4</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr"/>
@@ -23857,7 +23857,7 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most famous places in the world. It is home to some of the world's greatest artists including Picasso, Van Gogh and Edith Piaf. This tour will take you through the streets of Montmartre.</t>
+          <t>Summarized description: You will have a chance to peek into shops, sample goodies, and sometimes just sit and take in the view. All of the afternoon walks are at leisure pace.</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr"/>
@@ -23872,7 +23872,7 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacre Coeur Tour with Local Guide Alberto and his team in Paris</t>
+          <t>Title: Afternoon Leisure Walk in Paris: Montmartre</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr"/>
@@ -23902,7 +23902,7 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr"/>
@@ -23917,7 +23917,7 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 265370P4</t>
+          <t>PRODUCTCODE: 101116P8</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr"/>
@@ -23932,7 +23932,7 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most beautiful neighbourhoods in Paris. It is home to some of the city's most famous artists, including Van Gogh, Picasso and Lautrec.</t>
+          <t>Summarized description: Montmartre is one of the most famous places in the world. It is home to some of the world's greatest artists including Picasso, Van Gogh and Edith Piaf. This tour will take you through the streets of Montmartre.</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre's Secrets and Tastes in a Private Walking tour </t>
+          <t>Title: Montmartre &amp; Sacre Coeur Tour with Local Guide Alberto and his team in Paris</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr"/>
@@ -23977,7 +23977,7 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr"/>

--- a/experiment_results/129335P2.xlsx
+++ b/experiment_results/129335P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1567"/>
+  <dimension ref="A1:I1557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Museums']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Museums']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Food Festivals']</t>
+          <t>Category: ['Food Festivals', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14871,7 +14871,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15396,7 +15396,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15471,7 +15471,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15546,7 +15546,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P20</t>
+          <t>PRODUCTCODE: 47475P17</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the outside of the Basilica of the Sacred Heart of Paris, built between 1874 and 1914. See the largest mosaic in the world, Christ in Majesty, depicting the Sacred heart of Jesus, worshiped by the Virgin Mary, Jeanne d'Arc, and St. Michael the Archangel. Explore the artistic and picturesque village of Montmartre.</t>
+          <t>Summarized description: Montmartre is home to famous painters like Van Gogh and Henri de Toulouse-Lautrec. The two-hour private walking tour includes a stop at the Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Sacré-Coeur and Montmartre</t>
+          <t>Title: Paris Montmartre Private Walking Tour - Best Art, Culture, Food</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 66</t>
+          <t>TotalReviews: 67</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72849P4</t>
+          <t>PRODUCTCODE: 6839P20</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the amazing atmosphere in the legendary red light district Pigalle. Visit the Basilica Sacré-Cœur, Paris' biggest church. Enjoy a breathtaking view all over Paris - including the Eiffel Tower - during sunset.</t>
+          <t>Summarized description: Explore the outside of the Basilica of the Sacred Heart of Paris, built between 1874 and 1914. See the largest mosaic in the world, Christ in Majesty, depicting the Sacred heart of Jesus, worshiped by the Virgin Mary, Jeanne d'Arc, and St. Michael the Archangel. Explore the artistic and picturesque village of Montmartre.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Discover Montmartre and visit the Basilica of Sacré-Coeur</t>
+          <t>Title: Guided Tour of Sacré-Coeur and Montmartre</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9204P3</t>
+          <t>PRODUCTCODE: 72849P4</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour small group walking tour of Montmartre (maximum 8 participants) Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
+          <t>Summarized description: Discover the amazing atmosphere in the legendary red light district Pigalle. Visit the Basilica Sacré-Cœur, Paris' biggest church. Enjoy a breathtaking view all over Paris - including the Eiffel Tower - during sunset.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Montmartre and Moulin Rouge and Sacré Coeur Walking Tour</t>
+          <t>Title: Discover Montmartre and visit the Basilica of Sacré-Coeur</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 59</t>
+          <t>TotalReviews: 66</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 436155P1</t>
+          <t>PRODUCTCODE: 9204P3</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Mid-day tour of Montmartre. 3-hour tour includes 1-hour treasure hunt. Small group (max. 15 persons) with expert of our city.</t>
+          <t>Summarized description: 2-hour small group walking tour of Montmartre (maximum 8 participants) Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Montmartre Small Group Walking Tour in Paris</t>
+          <t>Title: Montmartre and Moulin Rouge and Sacré Coeur Walking Tour</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 35</t>
+          <t>TotalReviews: 59</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31738P1</t>
+          <t>PRODUCTCODE: 436155P1</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has played host to some of the most famous artists in the world, including Van Gogh and Picasso. As you stroll along cobbled streets, keep your eyes peeled for today's promising artists.</t>
+          <t>Summarized description: Mid-day tour of Montmartre. 3-hour tour includes 1-hour treasure hunt. Small group (max. 15 persons) with expert of our city.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre</t>
+          <t>Title: Montmartre Small Group Walking Tour in Paris</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 35</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 179560P1</t>
+          <t>PRODUCTCODE: 31738P1</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in this bohemian neighborhood, home to artists like Van Gogh and Picasso. Take a tour of the city and become another Parisian!</t>
+          <t>Summarized description: Montmartre has played host to some of the most famous artists in the world, including Van Gogh and Picasso. As you stroll along cobbled streets, keep your eyes peeled for today's promising artists.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Walking Tour of Montmartre</t>
+          <t>Title: Private Walking Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746ORANGERIE</t>
+          <t>PRODUCTCODE: 179560P1</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: 1.5-hour Montmartre walking tour. skip-the-line entry to Impressionist galleries. Explore venues that influenced painters including Renoir and Monet.</t>
+          <t>Summarized description: Immerse yourself in this bohemian neighborhood, home to artists like Van Gogh and Picasso. Take a tour of the city and become another Parisian!</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Art Walking Tour </t>
+          <t>Title: Walking Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 123721P4</t>
+          <t>PRODUCTCODE: 5746ORANGERIE</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a former little village originally outside of Paris. The former artist colony and studios where Picasso, Toulouse Lautrec, Van Gogh and Degas painted their masterpieces.</t>
+          <t>Summarized description: 1.5-hour Montmartre walking tour. skip-the-line entry to Impressionist galleries. Explore venues that influenced painters including Renoir and Monet.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Tour Paris </t>
+          <t xml:space="preserve">Title: Montmartre Art Walking Tour </t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 26</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60331P1</t>
+          <t>PRODUCTCODE: 123721P4</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: The Montmartre Tour is held every day at 17:00 in Paris. Tour highlights include the history of the city, Van Gogh’s apartment and the vineyards.</t>
+          <t>Summarized description: Montmartre is a former little village originally outside of Paris. The former artist colony and studios where Picasso, Toulouse Lautrec, Van Gogh and Degas painted their masterpieces.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Tour Montmartre</t>
+          <t xml:space="preserve">Title: Montmartre Tour Paris </t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420049P1</t>
+          <t>PRODUCTCODE: 60331P1</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has always been a buzzing hive of creative activity and the dwelling place of some of the most influential artists of all time. Book a tour with an affable and affordable guide and soak up the rich artistic atmosphere and follow in the footsteps of the legends of Montmartre.</t>
+          <t>Summarized description: The Montmartre Tour is held every day at 17:00 in Paris. Tour highlights include the history of the city, Van Gogh’s apartment and the vineyards.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: ESSENTIAL MONTMARTRE Walking Tour: the essential highlights+MORE!</t>
+          <t>Title: Tour Montmartre</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 26</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 445889P2</t>
+          <t>PRODUCTCODE: 420049P1</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Walk in the footsteps of filmmakers and find yourself amidst iconic scenes from French and international pop culture. Dive into the alleys, unearth history and culture and capture the Parisian essence.</t>
+          <t>Summarized description: Montmartre has always been a buzzing hive of creative activity and the dwelling place of some of the most influential artists of all time. Book a tour with an affable and affordable guide and soak up the rich artistic atmosphere and follow in the footsteps of the legends of Montmartre.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Montmartre Secrets and Sacré-Coeur Small Group Walking Tour</t>
+          <t>Title: ESSENTIAL MONTMARTRE Walking Tour: the essential highlights+MORE!</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13405P3</t>
+          <t>PRODUCTCODE: 445889P2</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Montmartre's history and secrets with insight from a private guide. You'll see attractions like the Moulin Rouge and hear about bohemian life during the Belle Epoque.</t>
+          <t>Summarized description: Walk in the footsteps of filmmakers and find yourself amidst iconic scenes from French and international pop culture. Dive into the alleys, unearth history and culture and capture the Parisian essence.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacré Coeur Private Historical 2-Hour Walking Tour in Paris</t>
+          <t>Title: Montmartre Secrets and Sacré-Coeur Small Group Walking Tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746SS</t>
+          <t>PRODUCTCODE: 13405P3</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Go on an art walking tour in the morning through the bohemian neighborhood of Montmartre. Enjoy skip-the-line access to the Musée d’Orsay to see masterpieces by Van Gogh and Monet. At night, admire illuminated landmarks such as the Eiffel Tower and Notre Dame Cathedral.</t>
+          <t>Summarized description: Learn about Montmartre's history and secrets with insight from a private guide. You'll see attractions like the Moulin Rouge and hear about bohemian life during the Belle Epoque.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacré Coeur Super Saver with Paris by Night Tour</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Private Historical 2-Hour Walking Tour in Paris</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 394285P4</t>
+          <t>PRODUCTCODE: 5746SS</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was once the home of a Roman temple and then a small village teeming with windmills. It became the birthplace of Impressionism, overrun with cabarets and can-can dancers. The neighbourhood is full of great bars and restaurants, artists’ studios, and even a vineyard.</t>
+          <t>Summarized description: Go on an art walking tour in the morning through the bohemian neighborhood of Montmartre. Enjoy skip-the-line access to the Musée d’Orsay to see masterpieces by Van Gogh and Monet. At night, admire illuminated landmarks such as the Eiffel Tower and Notre Dame Cathedral.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Montmartre Guided Walking Tour: Famous Artists and Cabarets</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Super Saver with Paris by Night Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 17</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 348920P2</t>
+          <t>PRODUCTCODE: 394285P4</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is like wandering through a Parisian movie set. Your expert tour guide will bring you to the sights and sounds of legendary bohemians.</t>
+          <t>Summarized description: Montmartre was once the home of a Roman temple and then a small village teeming with windmills. It became the birthplace of Impressionism, overrun with cabarets and can-can dancers. The neighbourhood is full of great bars and restaurants, artists’ studios, and even a vineyard.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: The Montmartre Walking Tour Experience</t>
+          <t>Title: Montmartre Guided Walking Tour: Famous Artists and Cabarets</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 17</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150467P2</t>
+          <t>PRODUCTCODE: 348920P2</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: This 2-hour private walking tour focuses on Montmartre neighborhood. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes this area so nice.</t>
+          <t>Summarized description: Montmartre is like wandering through a Parisian movie set. Your expert tour guide will bring you to the sights and sounds of legendary bohemians.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Walking Tour</t>
+          <t>Title: The Montmartre Walking Tour Experience</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226709P1</t>
+          <t>PRODUCTCODE: 150467P2</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: The itinerary covers Moulin Rouge to Sacre Coeur cathedral. We explore the eccentric lifestyles of current and former Montmartre residents. We discover why local residents are so proud of their peculiar vineyard.</t>
+          <t>Summarized description: This 2-hour private walking tour focuses on Montmartre neighborhood. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes this area so nice.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Walking Tour </t>
+          <t>Title: Montmartre Private Walking Tour</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 298466P37</t>
+          <t>PRODUCTCODE: 226709P1</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montmartre from a different perspective on a self-guided walking tour. Solve riddles and clues that lead to the next location, showing all the city highlights.</t>
+          <t>Summarized description: The itinerary covers Moulin Rouge to Sacre Coeur cathedral. We explore the eccentric lifestyles of current and former Montmartre residents. We discover why local residents are so proud of their peculiar vineyard.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Paris (Montmartre) Scavenger Hunt and Sights Self-Guided Tour</t>
+          <t xml:space="preserve">Title: Montmartre Walking Tour </t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 225279P12</t>
+          <t>PRODUCTCODE: 298466P37</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is renowned for its architecture, beautiful photo stops and for being the cultural heart of Paris. Walk through Sacre Coeur, explore La Maison Rose, stroll along with the Rue Saint Vincent, and ultimately finish in front of the Espace Dalí.</t>
+          <t>Summarized description: Discover Montmartre from a different perspective on a self-guided walking tour. Solve riddles and clues that lead to the next location, showing all the city highlights.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Montmartre: Secret Stories of Paris - Self-Guided Audio Tour</t>
+          <t>Title: Paris (Montmartre) Scavenger Hunt and Sights Self-Guided Tour</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51738P35</t>
+          <t>PRODUCTCODE: 225279P12</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest, most picturesque and characteristic quarter in Paris. It is home to famous artists such as Picasso, Van Gogh and Renoir.</t>
+          <t>Summarized description: Montmartre is renowned for its architecture, beautiful photo stops and for being the cultural heart of Paris. Walk through Sacre Coeur, explore La Maison Rose, stroll along with the Rue Saint Vincent, and ultimately finish in front of the Espace Dalí.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Paris: Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
+          <t>Title: Montmartre: Secret Stories of Paris - Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746P32</t>
+          <t>PRODUCTCODE: 51738P35</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre tour is designed so you see the village of Montmartre at its best without the day-time crowds. At the end of the tour, your guide takes you to a charming café at the top of the hill for an exquisite glass of chilled champagne.</t>
+          <t>Summarized description: Montmartre is one of the oldest, most picturesque and characteristic quarter in Paris. It is home to famous artists such as Picasso, Van Gogh and Renoir.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Montmartre from Moulin Rouge to Sacré Coeur Night Tour with Glass of Champagne</t>
+          <t>Title: Paris: Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29151P1</t>
+          <t>PRODUCTCODE: 5746P32</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5-hour walking tour in a small group of 10 people (maximum) Learn about the most exciting things Montmartre has to offer.</t>
+          <t>Summarized description: Montmartre tour is designed so you see the village of Montmartre at its best without the day-time crowds. At the end of the tour, your guide takes you to a charming café at the top of the hill for an exquisite glass of chilled champagne.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: 2.5-Hour Walking Tour of Magical Montmartre District</t>
+          <t>Title: Montmartre from Moulin Rouge to Sacré Coeur Night Tour with Glass of Champagne</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 89859P2</t>
+          <t>PRODUCTCODE: 29151P1</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montmartre on foot in a small group. Learn about the history of the neighborhood. Listen to stories and insider tips from your local guide. Discover romantic corners off the beaten path.</t>
+          <t>Summarized description: 2.5-hour walking tour in a small group of 10 people (maximum) Learn about the most exciting things Montmartre has to offer.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre: 2 hour walking tour in English and German (Group tour)</t>
+          <t>Title: 2.5-Hour Walking Tour of Magical Montmartre District</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103576P31</t>
+          <t>PRODUCTCODE: 89859P2</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was perhaps the cradle of Impressionism, starting in the 19th century. Many famous artists such as Monet, Dalí, Picasso, Van Gogh, Renoir, Degas and many others lived.</t>
+          <t>Summarized description: Discover Montmartre on foot in a small group. Learn about the history of the neighborhood. Listen to stories and insider tips from your local guide. Discover romantic corners off the beaten path.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Self-Guided Audio Tour - Montmartre: The heart of art and bohemia</t>
+          <t>Title: Paris Montmartre: 2 hour walking tour in English and German (Group tour)</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 323229P1</t>
+          <t>PRODUCTCODE: 103576P31</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most beautiful places in the world. It is located on the banks of the River Seine, near the city of Paris. The city is famous for its cafes and restaurants.</t>
+          <t>Summarized description: Montmartre was perhaps the cradle of Impressionism, starting in the 19th century. Many famous artists such as Monet, Dalí, Picasso, Van Gogh, Renoir, Degas and many others lived.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Montmartre to fall in love - Self-Guided Digital tour on Bohemian Hill of Paris</t>
+          <t>Title: Self-Guided Audio Tour - Montmartre: The heart of art and bohemia</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 427087P3</t>
+          <t>PRODUCTCODE: 323229P1</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: The Bohemian village of Montmartre is a popular area well-known by many artists and a lot of landmarks which have influenced the course of the history of Paris. These alleys contain crazy stories and offer an exceptional view of the city.</t>
+          <t>Summarized description: Montmartre is one of the most beautiful places in the world. It is located on the banks of the River Seine, near the city of Paris. The city is famous for its cafes and restaurants.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Visite guidée de Montmartre avec un guide local en petit groupe</t>
+          <t>Title: Montmartre to fall in love - Self-Guided Digital tour on Bohemian Hill of Paris</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 374044P2</t>
+          <t>PRODUCTCODE: 427087P3</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was once home to a host of artists including Picasso, Modigliani and Toulouse-Lautrec. This is a perfect cosy small-group tour that will allow you to enjoy the experience at its best.</t>
+          <t>Summarized description: The Bohemian village of Montmartre is a popular area well-known by many artists and a lot of landmarks which have influenced the course of the history of Paris. These alleys contain crazy stories and offer an exceptional view of the city.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacré Coeur Small Group Tour</t>
+          <t>Title: Visite guidée de Montmartre avec un guide local en petit groupe</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210555P5</t>
+          <t>PRODUCTCODE: 374044P2</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the areas which made the artists like Vincent Van Gogh, Claude Monet, Salvador Dali and Pablo Picasso call it their home. Witness the last remaining Vineyards of Paris and the Square of the Artists.</t>
+          <t>Summarized description: Montmartre was once home to a host of artists including Picasso, Modigliani and Toulouse-Lautrec. This is a perfect cosy small-group tour that will allow you to enjoy the experience at its best.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Montmartre Guided Tour with Sacré Cœur Church and City views</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Small Group Tour</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P16</t>
+          <t>PRODUCTCODE: 5045P86</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is famous for its chic art scene, impressive history, and remarkable heritage. Stroll through the mesmerizing Notre Dame de Lorette, and get up close to its handpainted murals. Uncover its unique past as you make your way down the world-famous Rue Des Martyrs.</t>
+          <t>Summarized description: Montmartre Walking Tour is a leisurely walk through the heart of Paris. The highlight of your journey awaits you as you ascend Montmartre Hill and approach the magnificent Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Montmartre’s heritage with specialties tasting Private Tour</t>
+          <t>Title: Montmartre Marvels: A Small Group Guided Stroll in Bohemian Paris</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118261P9</t>
+          <t>PRODUCTCODE: 210555P5</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is undoubtedly the most picturesque district in Paris. With this walk you will discover the history of this neighborhood. We will start from the famous Moulin Rouge and then go up the hill.</t>
+          <t>Summarized description: Discover the areas which made the artists like Vincent Van Gogh, Claude Monet, Salvador Dali and Pablo Picasso call it their home. Witness the last remaining Vineyards of Paris and the Square of the Artists.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Group tour in Italian of the Montmartre district</t>
+          <t>Title: Montmartre Guided Tour with Sacré Cœur Church and City views</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P294</t>
+          <t>PRODUCTCODE: 116778P16</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: The Basilica of the Sacré-Cœur is located up the hill of Montmartre, the "Mount of Martyrs" Enjoy the wide panoramic view of the City of Light and its famous monuments.</t>
+          <t>Summarized description: Montmartre is famous for its chic art scene, impressive history, and remarkable heritage. Stroll through the mesmerizing Notre Dame de Lorette, and get up close to its handpainted murals. Uncover its unique past as you make your way down the world-famous Rue Des Martyrs.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Montmartre Bohemian Audio Guided Tour with Sacre Coeur Basilica</t>
+          <t>Title: Montmartre’s heritage with specialties tasting Private Tour</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P683</t>
+          <t>PRODUCTCODE: 118261P9</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montmartre on foot and enjoy Parisian delicacies as you go. Local expert will share anecdotes and teach you about the city and its culinary history.</t>
+          <t>Summarized description: Montmartre is undoubtedly the most picturesque district in Paris. With this walk you will discover the history of this neighborhood. We will start from the famous Moulin Rouge and then go up the hill.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: All Inclusive Food &amp; History Tour of Montmartre with Local Guide</t>
+          <t>Title: Group tour in Italian of the Montmartre district</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 119774P4</t>
+          <t>PRODUCTCODE: 2050P294</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: You will relive the atmosphere of the ''New-Athens'', where the Batignolles Group gathered. You will learn about their art and their private life, and you will have fun with anecdotes.</t>
+          <t>Summarized description: The Basilica of the Sacré-Cœur is located up the hill of Montmartre, the "Mount of Martyrs" Enjoy the wide panoramic view of the City of Light and its famous monuments.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Montmartre, in the footsteps of painters.</t>
+          <t>Title: Montmartre Bohemian Audio Guided Tour with Sacre Coeur Basilica</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1097</t>
+          <t>PRODUCTCODE: 119774P4</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Highlights &amp; Hidden Gems of Montmartre: Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce.</t>
+          <t>Summarized description: You will relive the atmosphere of the ''New-Athens'', where the Batignolles Group gathered. You will learn about their art and their private life, and you will have fun with anecdotes.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Highlights &amp; Hidden Gems of Montmartre: Private City Tour</t>
+          <t>Title: Montmartre, in the footsteps of painters.</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 366784P2</t>
+          <t>PRODUCTCODE: 24380P1097</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: The app features a pre-designed walking route that takes you through the key attractions of Montmartre, accompanied by captivating audio commentary detailing the history of the area. During your self-guided tour, you are guaranteed to encounter the iconic Moulin Rouge Cabaret and the renowned ""red light district of Paris"</t>
+          <t>Summarized description: Highlights &amp; Hidden Gems of Montmartre: Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Private Self Guided Walking Tour in Montmartre Paris</t>
+          <t>Title: Highlights &amp; Hidden Gems of Montmartre: Private City Tour</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3234MONTMARTRE</t>
+          <t>PRODUCTCODE: 210607P1</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is Paris’ most charming neighborhood. Enjoy a private walking tour of Montmartre’s must-see historical and cultural sights. Top it off with a truly traditional cabaret at Au Lapin Agile.</t>
+          <t>Summarized description: Montmartre is one of the most famous districts of Paris. The district was the filming location for EMILY IN PARIS, HEARTSTOPPER, JOHN WICK 4, AMELIE, MIDNIGHT in PARIS.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Montmartre Walking Tour, Dinner and Au Lapin Agile Cabaret</t>
+          <t>Title: Discovering Montmartre with local resident</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210607P1</t>
+          <t>PRODUCTCODE: 328033P1</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most famous districts of Paris. The district was the filming location for EMILY IN PARIS, HEARTSTOPPER, JOHN WICK 4, AMELIE, MIDNIGHT in PARIS.</t>
+          <t>Summarized description: Montmartre is not only my favourite neighbourhood, it's also where I live. So we’ll dive deep into its history and give you all of the insider information. Discover Montmartre, full of secret gardens, tiny streets and windmills.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Discovering Montmartre with local resident</t>
+          <t>Title: Guided 2-Hour Tour Secret Face of Montmartre</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328033P1</t>
+          <t>PRODUCTCODE: 132255P1</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is not only my favourite neighbourhood, it's also where I live. So we’ll dive deep into its history and give you all of the insider information. Discover Montmartre, full of secret gardens, tiny streets and windmills.</t>
+          <t>Summarized description: Our show tours immerse you in the heart of a dramatized visit where surprising characters appear throughout the journey. It's neither a guided tour nor a play, but both at the same time!</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Guided 2-Hour Tour Secret Face of Montmartre</t>
+          <t>Title: The Eternal Spirit of Montmartre</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132255P1</t>
+          <t>PRODUCTCODE: 148845P3</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Our show tours immerse you in the heart of a dramatized visit where surprising characters appear throughout the journey. It's neither a guided tour nor a play, but both at the same time!</t>
+          <t>Summarized description: Montmartre housed the studios of a lot of masters of painting such as Picasso, Toulouse-Lautrec, Van Gogh and Utrillo.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: The Eternal Spirit of Montmartre</t>
+          <t>Title: Montmartre , Basilica of Sacred Heart and Place du Tertre</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 148845P3</t>
+          <t>PRODUCTCODE: 255730P157</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre housed the studios of a lot of masters of painting such as Picasso, Toulouse-Lautrec, Van Gogh and Utrillo.</t>
+          <t>Summarized description: Montmartre has been home to Van Gogh, Renoir, and Picasso. See the sites and vistas they enjoyed painting from the hill overlooking Paris.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Montmartre , Basilica of Sacred Heart and Place du Tertre</t>
+          <t>Title: Explore Bohemian Montmartre: Private Half-Day Walking Tour</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P157</t>
+          <t>PRODUCTCODE: 9204P12</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been home to Van Gogh, Renoir, and Picasso. See the sites and vistas they enjoyed painting from the hill overlooking Paris.</t>
+          <t>Summarized description: Travel back to a time of quaint cobblestone streets and country village charm. Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Explore Bohemian Montmartre: Private Half-Day Walking Tour</t>
+          <t>Title: Paris: Montmartre &amp; Sacré Coeur Private Walking Tour</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9204P12</t>
+          <t>PRODUCTCODE: 14447P4</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Travel back to a time of quaint cobblestone streets and country village charm. Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
+          <t>Summarized description: Learn about the history, culture, and characters of the district. Visit Sacré-Coeur Basilica for a view over the city. Small-group tour is limited to 15 people.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Paris: Montmartre &amp; Sacré Coeur Private Walking Tour</t>
+          <t>Title: Paris Walking Tour of the Montmartre District</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 33567P2</t>
+          <t>PRODUCTCODE: 398416P1</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: The photo walking tour takes place in the popular Montmartre area where the famous french movie Amelie Poulain was filmed almost 20 years ago. The photo class starts at a traditional French coffee shop where you'll learn about the basics of photography.</t>
+          <t>Summarized description: Montmartre was the birthplace of both the Jesuit Order and the modern Counterculture. One must see the workshops and cafés where Renoir, Vang Gogh and Picasso championed new art forms.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Discover Montmartre with a photo walk</t>
+          <t>Title: Secrets of Montmartre from the Moulin Rouge to the Sacré Cœur</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14447P4</t>
+          <t>PRODUCTCODE: 192144P4</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history, culture, and characters of the district. Visit Sacré-Coeur Basilica for a view over the city. Small-group tour is limited to 15 people.</t>
+          <t>Summarized description: Explore Montmartre, the most iconic neighborhood in Paris. Walk the cobblestone streets and follow the path of the legendary painters and street artists.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Paris Walking Tour of the Montmartre District</t>
+          <t>Title: Montmartre Private Walking Tour</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32142P51</t>
+          <t>PRODUCTCODE: 133687P69</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been a favourite place for Impressionist such as Renoir, Picasso, Toulouse-Lautrec and many other artists. The tour goes through the district up to the Basilica of the Sacred Heart.</t>
+          <t>Summarized description: Learn about Montmartre's history and the secrets with a private guide. You will see attractions such as the Moulin Rouge and hear about bohemian life during the Belle Époque.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Montmartre Small-Group Family Tour</t>
+          <t>Title: Paris: Montmartre and Sacré Coeur Experience</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 398416P1</t>
+          <t>PRODUCTCODE: 5746P45</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was the birthplace of both the Jesuit Order and the modern Counterculture. One must see the workshops and cafés where Renoir, Vang Gogh and Picasso championed new art forms.</t>
+          <t>Summarized description: Montmartre is the most iconic district of Paris. This private tour introduces you to the bohemian village of Montmartre. This tour will include the must-sees Sacre Coeur, artists' square, the funicular, the best views of Paris etc.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Secrets of Montmartre from the Moulin Rouge to the Sacré Cœur</t>
+          <t xml:space="preserve">Title: Montmartre Village Private Walking Tour with Sacre Coeur Rooftop </t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P22</t>
+          <t>PRODUCTCODE: 384373P3</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour walking tour with a professional local guide. Explore the best of Montmartre in the footsteps of the Impressionists. Enjoy one of the most authentic district of Paris with your private guide.</t>
+          <t>Summarized description: Montmartre is home to famous artists such as Van Gogh, Picasso Monet and others. The district was also the setting for much of the film Amélie.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Montmartre Exclusive Impressionist Small Group Walking Tour</t>
+          <t>Title: Montmartre-Sacré Coeur Walking Tour: Semi Private Experience</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 192144P4</t>
+          <t>PRODUCTCODE: 343759P11</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montmartre, the most iconic neighborhood in Paris. Walk the cobblestone streets and follow the path of the legendary painters and street artists.</t>
+          <t>Summarized description: Montmartre was home to some of the most famous artists of all time, such as Picasso, Van Gogh, Renoir, Braque, and Matisse. Explore Montmartre's rich history and cultural significance with a local guide.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Walking Tour</t>
+          <t>Title: Montmartre Art, Culture &amp; Rebel Legacy: Semi-Private Walking Tour</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 133687P69</t>
+          <t>PRODUCTCODE: 239576P22</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Montmartre's history and the secrets with a private guide. You will see attractions such as the Moulin Rouge and hear about bohemian life during the Belle Époque.</t>
+          <t>Summarized description: Learn about the vibrant past of the renowned and enduring Moulin Rouge. Visit the renowned Sacre-Coeur Basilica to take in the expansive vista.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Paris: Montmartre and Sacré Coeur Experience</t>
+          <t>Title: Paris: Walking tour of Montmartre (Guided Tour)</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746P45</t>
+          <t>PRODUCTCODE: 462750P3</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the most iconic district of Paris. This private tour introduces you to the bohemian village of Montmartre. This tour will include the must-sees Sacre Coeur, artists' square, the funicular, the best views of Paris etc.</t>
+          <t>Summarized description: A unique walking tour with a local city guide. Follow me through some iconic streets, off the beaten path. You will be rewarded with a thrilling view of Paris.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Village Private Walking Tour with Sacre Coeur Rooftop </t>
+          <t>Title: Guided Walking Tour through the Old Artist Village Montmartre</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384373P3</t>
+          <t>PRODUCTCODE: 3731P133</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to famous artists such as Van Gogh, Picasso Monet and others. The district was also the setting for much of the film Amélie.</t>
+          <t>Summarized description: Montmartre is one of the oldest, most authentic areas of Paris. Your local expert guide will take you through the area’s little-known nooks and crannies.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Montmartre-Sacré Coeur Walking Tour: Semi Private Experience</t>
+          <t>Title: Hidden Montmartre Guided Walk of the Artists' Quarter</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 343759P11</t>
+          <t>PRODUCTCODE: 20502P4</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was home to some of the most famous artists of all time, such as Picasso, Van Gogh, Renoir, Braque, and Matisse. Explore Montmartre's rich history and cultural significance with a local guide.</t>
+          <t>Summarized description: Enjoy a walking tour through Artists life in Mythical Montmartre. You’ll discover secrets places, listen to a lot of anecdotes about great Painters, Picasso or Van Gogh. Also relax with a glass of wine offer in a typical bistro of this Mythical neighborhood.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Montmartre Art, Culture &amp; Rebel Legacy: Semi-Private Walking Tour</t>
+          <t>Title: Montmartre Artist Tour in Paris</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P22</t>
+          <t>PRODUCTCODE: 6877P96</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the vibrant past of the renowned and enduring Moulin Rouge. Visit the renowned Sacre-Coeur Basilica to take in the expansive vista.</t>
+          <t>Summarized description: Discover the most bohemian neighborhood in Paris and the birthplace of some of the most renowned French painters and artists. Visit the Moulin Rouge, the Place des Abbesses and the Sacre Coeur.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Paris: Walking tour of Montmartre (Guided Tour)</t>
+          <t>Title: Walking tour of Montmartre</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 462750P3</t>
+          <t>PRODUCTCODE: 9200P8</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: A unique walking tour with a local city guide. Follow me through some iconic streets, off the beaten path. You will be rewarded with a thrilling view of Paris.</t>
+          <t>Summarized description: Montmartre is one of Paris' most beloved neighborhoods. You may remember that the beloved film Amelie takes place in Montmartre. You'll visit the cafe she frequented as well.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Guided Walking Tour through the Old Artist Village Montmartre</t>
+          <t>Title: Private Tour of Montmartre and Sacre Coeur</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P133</t>
+          <t>PRODUCTCODE: 332536P586</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest, most authentic areas of Paris. Your local expert guide will take you through the area’s little-known nooks and crannies.</t>
+          <t>Summarized description: Discover the best of Parisian culture and bohemian dreams in Montmartre. See the legendary Moulin Rouge and hear stories about Van Gogh, Dali and other famous artists who lived here. Optional: visit the Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Hidden Montmartre Guided Walk of the Artists' Quarter</t>
+          <t>Title: Private Walking Tour of Montmartre and Sacré-Cœur Basilica</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20502P4</t>
+          <t>PRODUCTCODE: 125783P5</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a walking tour through Artists life in Mythical Montmartre. You’ll discover secrets places, listen to a lot of anecdotes about great Painters, Picasso or Van Gogh. Also relax with a glass of wine offer in a typical bistro of this Mythical neighborhood.</t>
+          <t>Summarized description: Photography tour around Montmartre. Our local photographer will meet you at a prearranged location. During the tour, show you some of the most magical locations.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Montmartre Artist Tour in Paris</t>
+          <t>Title: Montmartre Insta Photography, Food shop street and Walking tour</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6877P96</t>
+          <t>PRODUCTCODE: 235760P7</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the most bohemian neighborhood in Paris and the birthplace of some of the most renowned French painters and artists. Visit the Moulin Rouge, the Place des Abbesses and the Sacre Coeur.</t>
+          <t>Summarized description: Montmartre is a charming village in a busy city. Discover this romantic corner of Paris and enjoy stunning views and peaceful atmosphere in its cobblestone streets.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Walking tour of Montmartre</t>
+          <t>Title: Paris Premium Tour : Basilique Sacré &amp; Montmartre with a Art Historian</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9200P8</t>
+          <t>PRODUCTCODE: 157994P3</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most beloved neighborhoods. You may remember that the beloved film Amelie takes place in Montmartre. You'll visit the cafe she frequented as well.</t>
+          <t>Summarized description: We'll hear about the painters, acrobats, street performers, absinthe-drinkers, poets, ragpickers, vagabonds and streetwalkers who settled in Montmartre. We'll see where Picasso painted, where Van Gogh and Renoir got drunk, and we'll walk down to the 'Harlem of Paris' where the Lost Generation discovered jazz.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Montmartre and Sacre Coeur</t>
+          <t>Title: 'Bohemians of Paris' Walk in Montmartre</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P586</t>
+          <t>PRODUCTCODE: 129032P4</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the best of Parisian culture and bohemian dreams in Montmartre. See the legendary Moulin Rouge and hear stories about Van Gogh, Dali and other famous artists who lived here. Optional: visit the Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Your Guide-Conferencier will make you discover the iconic places of this capital district of the capital. You will pass in the most confidential and unknown streets of this colorful district.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre and Sacré-Cœur Basilica</t>
+          <t>Title: Montmartre and its secrets</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 125783P5</t>
+          <t>PRODUCTCODE: 351948P1</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Photography tour around Montmartre. Our local photographer will meet you at a prearranged location. During the tour, show you some of the most magical locations.</t>
+          <t>Summarized description: To browse Montmartre is to discover this district through its history. From Saint-Denis to the recent artistic movements that have made the reputation of this mythical place in Paris, original and earthy.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Montmartre Insta Photography, Food shop street and Walking tour</t>
+          <t>Title: Montmartre Private Tour</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 235760P7</t>
+          <t>PRODUCTCODE: 105229P5</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming village in a busy city. Discover this romantic corner of Paris and enjoy stunning views and peaceful atmosphere in its cobblestone streets.</t>
+          <t>Summarized description: Montmartre is a melting pot of Van Gogh, Picasso and Dali. Explore the creativity, community and quirky secrets of one of the most unique areas of Paris.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Paris Premium Tour : Basilique Sacré &amp; Montmartre with a Art Historian</t>
+          <t>Title: Private Walking Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157994P3</t>
+          <t>PRODUCTCODE: 243313P6</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: We'll hear about the painters, acrobats, street performers, absinthe-drinkers, poets, ragpickers, vagabonds and streetwalkers who settled in Montmartre. We'll see where Picasso painted, where Van Gogh and Renoir got drunk, and we'll walk down to the 'Harlem of Paris' where the Lost Generation discovered jazz.</t>
+          <t>Summarized description: The iconic neighborhood in Paris is the Montmarte. It is also artist, community, and historic site. On this tour you can get to see the best things ,sites that the city offers.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: 'Bohemians of Paris' Walk in Montmartre</t>
+          <t>Title: Paris Tour at Montmartre : Remarkable Places and Surprising Gems (Private)</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 129032P4</t>
+          <t>PRODUCTCODE: 420543P4</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: Your Guide-Conferencier will make you discover the iconic places of this capital district of the capital. You will pass in the most confidential and unknown streets of this colorful district.</t>
+          <t>Summarized description: Step into the enchanting world of Montmartre with our curated tour. Discover hidden gems like La Maison Rose, and embrace the artistic spirit of Place du Tertre.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: Montmartre and its secrets</t>
+          <t>Title:  Guided Tour to Montmartre &amp; Sacré-Cœur Chronicles</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 351948P1</t>
+          <t>PRODUCTCODE: 14787P6</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: To browse Montmartre is to discover this district through its history. From Saint-Denis to the recent artistic movements that have made the reputation of this mythical place in Paris, original and earthy.</t>
+          <t>Summarized description: Stroll around the Montmartre area with your professional photography guide. Capture the memories on 300 photos of you near such places as the Basilica of Sacre-Coeur and Moulin Rouge.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Tour</t>
+          <t>Title: Professional Photo Shoot Tour in Paris' Montmartre</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105229P5</t>
+          <t>PRODUCTCODE: 150467P10</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a melting pot of Van Gogh, Picasso and Dali. Explore the creativity, community and quirky secrets of one of the most unique areas of Paris.</t>
+          <t>Summarized description: This is a 2-hour private walking tour intended to focus on Montmartre neighborhood by night. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes the area so nice.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre</t>
+          <t>Title: Montmartre by Night Private Tour</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P6</t>
+          <t>PRODUCTCODE: 33567P5</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: The iconic neighborhood in Paris is the Montmarte. It is also artist, community, and historic site. On this tour you can get to see the best things ,sites that the city offers.</t>
+          <t>Summarized description: Montmartre is one of Paris’ most atmospheric neighbourhoods. The bohemian district offers plenty of photo opportunities. A professional photographer guide will help you improve your photography skills.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Paris Tour at Montmartre : Remarkable Places and Surprising Gems (Private)</t>
+          <t>Title: Montmartre Poetic Photo Walk by night</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420543P4</t>
+          <t>PRODUCTCODE: 371334P2</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the enchanting world of Montmartre with our curated tour. Discover hidden gems like La Maison Rose, and embrace the artistic spirit of Place du Tertre.</t>
+          <t>Summarized description: Explore some of the city of light's most famous landmarks such as the Sacre Coeur and Moulin Rouge. Explore less-known but exciting spots, filled with history and local culture.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title:  Guided Tour to Montmartre &amp; Sacré-Cœur Chronicles</t>
+          <t>Title: Montmartre Walking Tour From Moulin Rouge To Scare Coeur</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14787P6</t>
+          <t>PRODUCTCODE: 452894P2</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Stroll around the Montmartre area with your professional photography guide. Capture the memories on 300 photos of you near such places as the Basilica of Sacre-Coeur and Moulin Rouge.</t>
+          <t>Summarized description: Montmartre is the artistic district of Paris. The district is filled with love stories and legends. It includes the Saint-Pierre Market, the Maison de Dalida and the Basilica of the Sacred Heart.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Professional Photo Shoot Tour in Paris' Montmartre</t>
+          <t>Title: 2 Hour Walk in Montmartre</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150467P10</t>
+          <t>PRODUCTCODE: 132681P5</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: This is a 2-hour private walking tour intended to focus on Montmartre neighborhood by night. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes the area so nice.</t>
+          <t>Summarized description: Explore the most famous district of Paris with a guide on a private walking tour. Learn about this charming area from your guide and find out why its been so beloved by artists since the 18th century.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Montmartre by Night Private Tour</t>
+          <t>Title: Paris Montmartre : Private Guided Walking Tour</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 33567P5</t>
+          <t>PRODUCTCODE: 423194P3</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris’ most atmospheric neighbourhoods. The bohemian district offers plenty of photo opportunities. A professional photographer guide will help you improve your photography skills.</t>
+          <t>Summarized description: Tour of Paris begins at the iconic Moulin Rouge. You will walk on the streets where Van Gogh, Henri de Toulouse-Lautrec, Pissarro and other artists lived &amp; worked. Your tour concludes at the summit of Montmartre where the steps of the Sacre-Coeur host millions of visitors.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Montmartre Poetic Photo Walk by night</t>
+          <t>Title: Montmartre Walking Tour: The Best of Paris - Art, Culture &amp; Food</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 371334P2</t>
+          <t>PRODUCTCODE: 449245P2</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the city of light's most famous landmarks such as the Sacre Coeur and Moulin Rouge. Explore less-known but exciting spots, filled with history and local culture.</t>
+          <t>Summarized description: Montmartre is an escape from the typical Paris, with its winding streets, bohemian spirit and scandalous stories. With us on this tour, you'll get to learn and engage with the history of the neighborhood, the famous artists that lived there, and also hidden gems on the way.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour From Moulin Rouge To Scare Coeur</t>
+          <t xml:space="preserve">Title: The Ultimate Montmartre Semi-Private Walking Tour &amp; Sacre Coeur </t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 452894P2</t>
+          <t>PRODUCTCODE: 266623P2</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the artistic district of Paris. The district is filled with love stories and legends. It includes the Saint-Pierre Market, the Maison de Dalida and the Basilica of the Sacred Heart.</t>
+          <t>Summarized description: Walking though Montmartre is like walking through a film set. Marie walks you to sites like Paris's last surviving windmill and vineyard. Sacre Coeur, with its incredible views over Paris.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: 2 Hour Walk in Montmartre</t>
+          <t>Title: Virtual Walking Tour of Iconic Parisian Enclave Montmartre</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132681P5</t>
+          <t>PRODUCTCODE: 368071P1</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the most famous district of Paris with a guide on a private walking tour. Learn about this charming area from your guide and find out why its been so beloved by artists since the 18th century.</t>
+          <t>Summarized description: This guided tour of Montmartre will allow you to discover the history of this ancient village. The visit will start in front of the Lapin Agile cabaret where we will tell you about Boronali's incredible artistic prank. We will also see the mysterious Château des Fogs, the Moulin de la Galette and the house of singer Dalida.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre : Private Guided Walking Tour</t>
+          <t>Title: Historical and Cultural Guided Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423194P3</t>
+          <t>PRODUCTCODE: 226727P56</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of Paris begins at the iconic Moulin Rouge. You will walk on the streets where Van Gogh, Henri de Toulouse-Lautrec, Pissarro and other artists lived &amp; worked. Your tour concludes at the summit of Montmartre where the steps of the Sacre-Coeur host millions of visitors.</t>
+          <t>Summarized description: Montmartre is considered to be the most magnificent district of Paris. Explore Montmartre District with the private audio tour available on WeGoTrip App.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour: The Best of Paris - Art, Culture &amp; Food</t>
+          <t>Title: Montmartre District Sightseeing Audio Tour in Paris on the Mobile App</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 449245P2</t>
+          <t>PRODUCTCODE: 128905P78</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21607,7 +21607,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is an escape from the typical Paris, with its winding streets, bohemian spirit and scandalous stories. With us on this tour, you'll get to learn and engage with the history of the neighborhood, the famous artists that lived there, and also hidden gems on the way.</t>
+          <t>Summarized description: This self-guided interactive walking tour will let you discover the charming and picturesque quarter of Montmartre. Visit the house where Vincent van Gogh once lived and worked, visit the cemetery where luminaries including Edgar Degas, Emile Zola and Jacques Offenbach are buried.</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Ultimate Montmartre Semi-Private Walking Tour &amp; Sacre Coeur </t>
+          <t>Title: Paris Montmartre &amp; Sacre Coeur: Self-Guided Walking Tour with Mobile App</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr"/>
@@ -21652,7 +21652,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr"/>
@@ -21667,7 +21667,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368071P1</t>
+          <t>PRODUCTCODE: 409362P2</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -21682,7 +21682,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Summarized description: This guided tour of Montmartre will allow you to discover the history of this ancient village. The visit will start in front of the Lapin Agile cabaret where we will tell you about Boronali's incredible artistic prank. We will also see the mysterious Château des Fogs, the Moulin de la Galette and the house of singer Dalida.</t>
+          <t>Summarized description: Tours start at the Montmartre Cemetery and finish at the Sacré Coeur. We will see the famous mill painted by Auguste Renoir and the famous singer Dalida's home.</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr"/>
@@ -21697,7 +21697,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>Title: Historical and Cultural Guided Tour of Montmartre</t>
+          <t>Title: Montmartre Sightseeing Guided Walking Tour</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr"/>
@@ -21727,7 +21727,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr"/>
@@ -21742,7 +21742,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P78</t>
+          <t>PRODUCTCODE: 248877P9</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr"/>
@@ -21757,7 +21757,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>Summarized description: This self-guided interactive walking tour will let you discover the charming and picturesque quarter of Montmartre. Visit the house where Vincent van Gogh once lived and worked, visit the cemetery where luminaries including Edgar Degas, Emile Zola and Jacques Offenbach are buried.</t>
+          <t>Summarized description: Montmartre is a charming village within a bustling city. The cobblestone streets of Montmartre will leave you speechless. Learn more about this beautiful architectural style which is oh so Parisian.</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre &amp; Sacre Coeur: Self-Guided Walking Tour with Mobile App</t>
+          <t xml:space="preserve">Title: Paris Sacré-Coeur Basilica &amp; Montmartre Private Tour (with an Art Historian) </t>
         </is>
       </c>
       <c r="B1419" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr"/>
@@ -21817,7 +21817,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 409362P2</t>
+          <t>PRODUCTCODE: 51192P171</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr"/>
@@ -21832,7 +21832,7 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>Summarized description: Tours start at the Montmartre Cemetery and finish at the Sacré Coeur. We will see the famous mill painted by Auguste Renoir and the famous singer Dalida's home.</t>
+          <t>Summarized description: Visit Place du Tertre and trace artistic legends such as Monet, Renoir, and Van Gogh. Explore the famous Sacré-Coeur Basilica and Saint Jean de Montmartre Church with an expert guide.</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr"/>
@@ -21847,7 +21847,7 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>Title: Montmartre Sightseeing Guided Walking Tour</t>
+          <t>Title: Paris: Guided Walking Tour In Montmartre and Sacré-Coeur</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr"/>
@@ -21877,7 +21877,7 @@
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1426" t="inlineStr"/>
@@ -21892,7 +21892,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P9</t>
+          <t>PRODUCTCODE: 179966P4</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr"/>
@@ -21907,7 +21907,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming village within a bustling city. The cobblestone streets of Montmartre will leave you speechless. Learn more about this beautiful architectural style which is oh so Parisian.</t>
+          <t>Summarized description: Discover the Basilica of the Sacred Heart, the Place du Tertre or the Moulin de la Galette with one of the guides-speakers of our agency. Choosing our agency is a guarantee of quality for your future visits.</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr"/>
@@ -21922,7 +21922,7 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Sacré-Coeur Basilica &amp; Montmartre Private Tour (with an Art Historian) </t>
+          <t>Title: From Moulin Rouge to Sacré Coeur, Montmartre and Bohemian life (private tour)</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr"/>
@@ -21952,7 +21952,7 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51192P171</t>
+          <t>PRODUCTCODE: 108889P17</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr"/>
@@ -21982,7 +21982,7 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Place du Tertre and trace artistic legends such as Monet, Renoir, and Van Gogh. Explore the famous Sacré-Coeur Basilica and Saint Jean de Montmartre Church with an expert guide.</t>
+          <t>Summarized description: In 1900 Montmartre was the world capital of artists. Your professional guide will explain to you why Picasso, Van Gogh, Renoir, Degas, Toulouse Lautrec used to live their. You will love the charming streets &amp; atmosphere.</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr"/>
@@ -21997,7 +21997,7 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>Title: Paris: Guided Walking Tour In Montmartre and Sacré-Coeur</t>
+          <t>Title: Artists in Montmartre &amp; Sacred heart private tour</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr"/>
@@ -22027,7 +22027,7 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr"/>
@@ -22042,7 +22042,7 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 179966P4</t>
+          <t>PRODUCTCODE: 101116P3</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr"/>
@@ -22057,7 +22057,7 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Basilica of the Sacred Heart, the Place du Tertre or the Moulin de la Galette with one of the guides-speakers of our agency. Choosing our agency is a guarantee of quality for your future visits.</t>
+          <t>Summarized description: Montmartre is one of the oldest neighbourhoods in Paris. It is home to many famous artists, including Picasso, Van Gogh and Renoir. Children will be engaged by the stories the group around Alberto can tell them.</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr"/>
@@ -22072,7 +22072,7 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>Title: From Moulin Rouge to Sacré Coeur, Montmartre and Bohemian life (private tour)</t>
+          <t>Title: Montmartre &amp; Sacre Coeur Tour for Kids &amp; Families w Alberto &amp; his team in Paris</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr"/>
@@ -22102,7 +22102,7 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr"/>
@@ -22117,7 +22117,7 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108889P17</t>
+          <t>PRODUCTCODE: 20455P326</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>Summarized description: In 1900 Montmartre was the world capital of artists. Your professional guide will explain to you why Picasso, Van Gogh, Renoir, Degas, Toulouse Lautrec used to live their. You will love the charming streets &amp; atmosphere.</t>
+          <t>Summarized description: Private guided tour of Montmartre will allow you to feel the bohemian atmosphere of the district. You will walk the narrow streets and discover the hidden corners of the area while your local expert guide will tell you about the old cafes.</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr"/>
@@ -22147,7 +22147,7 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>Title: Artists in Montmartre &amp; Sacred heart private tour</t>
+          <t>Title: Montmartre Quarter Private Guided Tour in Paris</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr"/>
@@ -22177,7 +22177,7 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr"/>
@@ -22192,7 +22192,7 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101116P3</t>
+          <t>PRODUCTCODE: 320547P143</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr"/>
@@ -22207,7 +22207,7 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest neighbourhoods in Paris. It is home to many famous artists, including Picasso, Van Gogh and Renoir. Children will be engaged by the stories the group around Alberto can tell them.</t>
+          <t>Summarized description: Montmartre is one of Paris' most famous districts. The district is a melting pot of art and inspiration for the cinema. The cobbled streets of the 18th arrondissement are a real pleasure to explore.</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr"/>
@@ -22222,7 +22222,7 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacre Coeur Tour for Kids &amp; Families w Alberto &amp; his team in Paris</t>
+          <t xml:space="preserve">Title: Private Walking Tour of "Montmartre" area in Paris </t>
         </is>
       </c>
       <c r="B1449" t="inlineStr"/>
@@ -22252,7 +22252,7 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr"/>
@@ -22267,7 +22267,7 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P326</t>
+          <t>PRODUCTCODE: 73434P108</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr"/>
@@ -22282,7 +22282,7 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>Summarized description: Private guided tour of Montmartre will allow you to feel the bohemian atmosphere of the district. You will walk the narrow streets and discover the hidden corners of the area while your local expert guide will tell you about the old cafes.</t>
+          <t>Summarized description: Explore the history and magnificent details of this marvelous neighborhood in Paris. Walk through the footsteps of the famous artists, through the terrace cafes to romping bars and clubs, and saucy can-can dancers.</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>Title: Montmartre Quarter Private Guided Tour in Paris</t>
+          <t>Title: Montmartre Neighbourhood Tour in Paris</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr"/>
@@ -22327,7 +22327,7 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr"/>
@@ -22342,7 +22342,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P143</t>
+          <t>PRODUCTCODE: 110155P7</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr"/>
@@ -22357,7 +22357,7 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most famous districts. The district is a melting pot of art and inspiration for the cinema. The cobbled streets of the 18th arrondissement are a real pleasure to explore.</t>
+          <t>Summarized description: Learn all about Montmartre and the people who have shaped the district. Van Gogh, Picasso, Renoir, Matisse and many other great painters have lived here. Admire the last windmill in the city.</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr"/>
@@ -22372,7 +22372,7 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Walking Tour of "Montmartre" area in Paris </t>
+          <t>Title: Montmartre - 2hours Chinese guided walking tour</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr"/>
@@ -22402,7 +22402,7 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr"/>
@@ -22417,7 +22417,7 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73434P108</t>
+          <t>PRODUCTCODE: 266661P29</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr"/>
@@ -22432,7 +22432,7 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the history and magnificent details of this marvelous neighborhood in Paris. Walk through the footsteps of the famous artists, through the terrace cafes to romping bars and clubs, and saucy can-can dancers.</t>
+          <t>Summarized description: Montmartre has been home to artists like Van Gogh and Henri de Toulouse-Lautrec. Take a two-hour walking tour through the neighborhood to discover its history and culture.</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr"/>
@@ -22447,7 +22447,7 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>Title: Montmartre Neighbourhood Tour in Paris</t>
+          <t>Title: Montmartre - Private Guided Walking Tour with a Local</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr"/>
@@ -22477,7 +22477,7 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr"/>
@@ -22492,7 +22492,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110155P7</t>
+          <t>PRODUCTCODE: 107859P508</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr"/>
@@ -22507,7 +22507,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about Montmartre and the people who have shaped the district. Van Gogh, Picasso, Renoir, Matisse and many other great painters have lived here. Admire the last windmill in the city.</t>
+          <t>Summarized description: Wine, cheese and oysters are just some of the things you can get to know about Montmartre. This tour is only for you and your local host, so don't bring anyone else.</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr"/>
@@ -22522,7 +22522,7 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Title: Montmartre - 2hours Chinese guided walking tour</t>
+          <t>Title: France Paris Beautiful Evening in Montmartre: Bites &amp; Sights</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr"/>
@@ -22552,7 +22552,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr"/>
@@ -22567,7 +22567,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 266661P29</t>
+          <t>PRODUCTCODE: 320547P568</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr"/>
@@ -22582,7 +22582,7 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been home to artists like Van Gogh and Henri de Toulouse-Lautrec. Take a two-hour walking tour through the neighborhood to discover its history and culture.</t>
+          <t>Summarized description: The Montmartre Cheese and Wine Tasting Walking Tour is a popular activity for visitors to Paris. This tour typically takes about 2 hours and includes stops at local cheese shops and wine bars.</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr"/>
@@ -22597,7 +22597,7 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>Title: Montmartre - Private Guided Walking Tour with a Local</t>
+          <t>Title: Montmartre Cheese and Wine tasting Walking Tour</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr"/>
@@ -22642,7 +22642,7 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107859P508</t>
+          <t>PRODUCTCODE: 5944P16</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr"/>
@@ -22657,7 +22657,7 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>Summarized description: Wine, cheese and oysters are just some of the things you can get to know about Montmartre. This tour is only for you and your local host, so don't bring anyone else.</t>
+          <t>Summarized description: Montmartre is nicknamed "the village" by Parisians. With its exquisite squares, pretty churches and idyllic, winding streets, it’s easy to see why artists fell in love with this neighbourhood.</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr"/>
@@ -22672,7 +22672,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Title: France Paris Beautiful Evening in Montmartre: Bites &amp; Sights</t>
+          <t>Title: Private tour of Montmartre</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr"/>
@@ -22702,7 +22702,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr"/>
@@ -22717,7 +22717,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P568</t>
+          <t>PRODUCTCODE: 104883P39</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr"/>
@@ -22732,7 +22732,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>Summarized description: The Montmartre Cheese and Wine Tasting Walking Tour is a popular activity for visitors to Paris. This tour typically takes about 2 hours and includes stops at local cheese shops and wine bars.</t>
+          <t>Summarized description: Montmartre is one of the most charming and authentic neighbourhoods of the city. Discover the bohemian side of Paris and visit the magnificent Sacré Coeur Basilica on our family-oriented private tour.</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr"/>
@@ -22747,7 +22747,7 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>Title: Montmartre Cheese and Wine tasting Walking Tour</t>
+          <t>Title: Paris Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5944P16</t>
+          <t>PRODUCTCODE: 266661P22</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr"/>
@@ -22807,7 +22807,7 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is nicknamed "the village" by Parisians. With its exquisite squares, pretty churches and idyllic, winding streets, it’s easy to see why artists fell in love with this neighbourhood.</t>
+          <t>Summarized description: Montmartre food tour aims to combine wine, local products, meats, and desserts. We will eat and drink our way through the Montmartre. Along the way expect to try local wine, cheese, pastries, meats and chocolate.</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr"/>
@@ -22822,7 +22822,7 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>Title: Private tour of Montmartre</t>
+          <t>Title: Montmartre Food Tour - Cheese, Chocolate, Wine and more!</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr"/>
@@ -22852,7 +22852,7 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr"/>
@@ -22867,7 +22867,7 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104883P39</t>
+          <t>PRODUCTCODE: 115227P1</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr"/>
@@ -22882,7 +22882,7 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most charming and authentic neighbourhoods of the city. Discover the bohemian side of Paris and visit the magnificent Sacré Coeur Basilica on our family-oriented private tour.</t>
+          <t>Summarized description: Montmartre was chosen for filming “Amelie’ — the film that touched the hearts of millions of people around the world. “I wanted that my movie make people happy” — Jean-Pierre Jeunet, film director of “Le Fabuleux destin d'Amélie Poulain”</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr"/>
@@ -22897,7 +22897,7 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
+          <t>Title: The world of Amelie from Montmartre</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr"/>
@@ -22927,7 +22927,7 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr"/>
@@ -22942,7 +22942,7 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 266661P22</t>
+          <t>PRODUCTCODE: 5746ESMONTMARTREWALK</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre food tour aims to combine wine, local products, meats, and desserts. We will eat and drink our way through the Montmartre. Along the way expect to try local wine, cheese, pastries, meats and chocolate.</t>
+          <t>Summarized description: Montmartre is one of Paris' most charming neighborhoods. Follow a local Spanish-speaking guide to explore the historic district. Visit famous attractions like Moulin Rouge and Basilique du Sacré-Coeur.</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr"/>
@@ -22972,7 +22972,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>Title: Montmartre Food Tour - Cheese, Chocolate, Wine and more!</t>
+          <t>Title: Paris Walking Tour: Montmartre with a Spanish-Speaking Guide</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr"/>
@@ -23002,7 +23002,7 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr"/>
@@ -23017,7 +23017,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 115227P1</t>
+          <t>PRODUCTCODE: 252536P1</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr"/>
@@ -23032,7 +23032,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was chosen for filming “Amelie’ — the film that touched the hearts of millions of people around the world. “I wanted that my movie make people happy” — Jean-Pierre Jeunet, film director of “Le Fabuleux destin d'Amélie Poulain”</t>
+          <t>Summarized description: A walk in Montmartre, orchestrated with magic tricks, a learning of 3 professional magic tricks and a magic gift (the Magiepro box)</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr"/>
@@ -23047,7 +23047,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>Title: The world of Amelie from Montmartre</t>
+          <t>Title: Magic in Montmartre</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr"/>
@@ -23077,7 +23077,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr"/>
@@ -23092,7 +23092,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746ESMONTMARTREWALK</t>
+          <t>PRODUCTCODE: 265370P13</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr"/>
@@ -23107,7 +23107,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most charming neighborhoods. Follow a local Spanish-speaking guide to explore the historic district. Visit famous attractions like Moulin Rouge and Basilique du Sacré-Coeur.</t>
+          <t>Summarized description: Montmartre is one of the most visited areas in the City of Lights. Famous for the great number of artists mainly painters who lived in its steep cobble-stone streets. We offer to show you the real local side of the district taking through the little local streets.</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>Title: Paris Walking Tour: Montmartre with a Spanish-Speaking Guide</t>
+          <t>Title: Small-Group Walking Tour of the Secrets of Montmartre</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr"/>
@@ -23152,7 +23152,7 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr"/>
@@ -23167,7 +23167,7 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 252536P1</t>
+          <t>PRODUCTCODE: 121352P15</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr"/>
@@ -23182,7 +23182,7 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>Summarized description: A walk in Montmartre, orchestrated with magic tricks, a learning of 3 professional magic tricks and a magic gift (the Magiepro box)</t>
+          <t>Summarized description: Knowing this picturesque area from the hand of a friend who lives in it and who knows you very well. You will discover and enjoy a walk through the streets and hidden corners of Montmartre.</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr"/>
@@ -23197,7 +23197,7 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Title: Magic in Montmartre</t>
+          <t>Title: A walk in Montmartre</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr"/>
@@ -23227,7 +23227,7 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Workshops and Classes']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr"/>
@@ -23242,7 +23242,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 265370P13</t>
+          <t>PRODUCTCODE: 8647P684</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr"/>
@@ -23257,7 +23257,7 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most visited areas in the City of Lights. Famous for the great number of artists mainly painters who lived in its steep cobble-stone streets. We offer to show you the real local side of the district taking through the little local streets.</t>
+          <t>Summarized description: Hilltop Montmartre is one of the most visited tourist spots in the city. You will discover this beautiful area with a local expert and licensed tour guide.</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr"/>
@@ -23272,7 +23272,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>Title: Small-Group Walking Tour of the Secrets of Montmartre</t>
+          <t>Title: Private walking tour of Montmartre neighborhood in Paris</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr"/>
@@ -23302,7 +23302,7 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr"/>
@@ -23317,7 +23317,7 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121352P15</t>
+          <t>PRODUCTCODE: 5411P233</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr"/>
@@ -23332,7 +23332,7 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>Summarized description: Knowing this picturesque area from the hand of a friend who lives in it and who knows you very well. You will discover and enjoy a walk through the streets and hidden corners of Montmartre.</t>
+          <t>Summarized description: A small-group walking tour of Paris's enigmatic Montmartre neighborhood. Home to many impressionist and modern artists. A tour of the city's most famous landmarks.</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr"/>
@@ -23347,7 +23347,7 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>Title: A walk in Montmartre</t>
+          <t>Title: Expert Led Tour of Paris' Montmartre Neighborhood</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr"/>
@@ -23377,7 +23377,7 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr"/>
@@ -23392,7 +23392,7 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P684</t>
+          <t>PRODUCTCODE: 9205P31</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr"/>
@@ -23407,7 +23407,7 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>Summarized description: Hilltop Montmartre is one of the most visited tourist spots in the city. You will discover this beautiful area with a local expert and licensed tour guide.</t>
+          <t>Summarized description: Montmartre offers a romantic glimpse into an era when raucous cabarets, bohemian soirées, and unbridled creativity were the norm. We’ll transport you back to those days by revealing things like the naughty origins of the Moulin Rouge.</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr"/>
@@ -23422,7 +23422,7 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>Title: Private walking tour of Montmartre neighborhood in Paris</t>
+          <t>Title: 2-hour Walking Tour Through The Charms of Montmartre</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr"/>
@@ -23467,7 +23467,7 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5411P233</t>
+          <t>PRODUCTCODE: 46018P28</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr"/>
@@ -23482,7 +23482,7 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>Summarized description: A small-group walking tour of Paris's enigmatic Montmartre neighborhood. Home to many impressionist and modern artists. A tour of the city's most famous landmarks.</t>
+          <t>Summarized description: Explore the history of Paris’ quintessential bohemian neighborhood by visiting the bars, cafes, and streets that nurtured many of the 20th century’s finest artists. We’ll take in the views from the Sacre Coeur, see the original Moulin Rouge, pause at Picasso's old studio, and even peek into the only vineyard within the city limits.</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr"/>
@@ -23497,7 +23497,7 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>Title: Expert Led Tour of Paris' Montmartre Neighborhood</t>
+          <t>Title: In the footsteps of the Impressionists: Montmartre Tour with Sacre Coeur Views</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr"/>
@@ -23527,7 +23527,7 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr"/>
@@ -23542,7 +23542,7 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9205P31</t>
+          <t>PRODUCTCODE: 181888P8</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr"/>
@@ -23557,7 +23557,7 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre offers a romantic glimpse into an era when raucous cabarets, bohemian soirées, and unbridled creativity were the norm. We’ll transport you back to those days by revealing things like the naughty origins of the Moulin Rouge.</t>
+          <t>Summarized description: Montmartre is a bohemian neighborhood of Paris. Visit it’s old cabarets around the Byzantine cathedral “the Sacre Coeur’</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr"/>
@@ -23572,7 +23572,7 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>Title: 2-hour Walking Tour Through The Charms of Montmartre</t>
+          <t>Title: Eternal Montmartre!</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr"/>
@@ -23602,7 +23602,7 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46018P28</t>
+          <t>PRODUCTCODE: 9257P4</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr"/>
@@ -23632,7 +23632,7 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the history of Paris’ quintessential bohemian neighborhood by visiting the bars, cafes, and streets that nurtured many of the 20th century’s finest artists. We’ll take in the views from the Sacre Coeur, see the original Moulin Rouge, pause at Picasso's old studio, and even peek into the only vineyard within the city limits.</t>
+          <t>Summarized description: You will have a chance to peek into shops, sample goodies, and sometimes just sit and take in the view. All of the afternoon walks are at leisure pace.</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr"/>
@@ -23647,7 +23647,7 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>Title: In the footsteps of the Impressionists: Montmartre Tour with Sacre Coeur Views</t>
+          <t>Title: Afternoon Leisure Walk in Paris: Montmartre</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr"/>
@@ -23677,7 +23677,7 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr"/>
@@ -23692,7 +23692,7 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 181888P8</t>
+          <t>PRODUCTCODE: 101116P8</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr"/>
@@ -23707,7 +23707,7 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a bohemian neighborhood of Paris. Visit it’s old cabarets around the Byzantine cathedral “the Sacre Coeur’</t>
+          <t>Summarized description: Montmartre is one of the most famous places in the world. It is home to some of the world's greatest artists including Picasso, Van Gogh and Edith Piaf. This tour will take you through the streets of Montmartre.</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr"/>
@@ -23722,7 +23722,7 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>Title: Eternal Montmartre!</t>
+          <t>Title: Montmartre &amp; Sacre Coeur Tour with Local Guide Alberto and his team in Paris</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr"/>
@@ -23752,7 +23752,7 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr"/>
@@ -23767,7 +23767,7 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P614</t>
+          <t>PRODUCTCODE: 265370P4</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided and self-paced walking tour. Follow in the footsteps of renowned artists like Pablo Picasso and Vincent Van Gogh through Paris' Montmartre district.</t>
+          <t>Summarized description: Montmartre is one of the most beautiful neighbourhoods in Paris. It is home to some of the city's most famous artists, including Van Gogh, Picasso and Lautrec.</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr"/>
@@ -23797,7 +23797,7 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>Title: Private Self-Guided Audio Tour in Paris Montmartre District</t>
+          <t xml:space="preserve">Title: Montmartre's Secrets and Tastes in a Private Walking tour </t>
         </is>
       </c>
       <c r="B1554" t="inlineStr"/>
@@ -23827,7 +23827,7 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr"/>
@@ -23842,7 +23842,7 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9257P4</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr"/>
@@ -23854,156 +23854,6 @@
       <c r="H1557" t="inlineStr"/>
       <c r="I1557" t="inlineStr"/>
     </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>Summarized description: You will have a chance to peek into shops, sample goodies, and sometimes just sit and take in the view. All of the afternoon walks are at leisure pace.</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr"/>
-      <c r="C1558" t="inlineStr"/>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr"/>
-      <c r="I1558" t="inlineStr"/>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>Title: Afternoon Leisure Walk in Paris: Montmartre</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr"/>
-      <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr"/>
-      <c r="I1559" t="inlineStr"/>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr"/>
-      <c r="C1560" t="inlineStr"/>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr"/>
-      <c r="I1560" t="inlineStr"/>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr"/>
-      <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr"/>
-      <c r="I1561" t="inlineStr"/>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 101116P8</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr"/>
-      <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr"/>
-      <c r="I1562" t="inlineStr"/>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of the most famous places in the world. It is home to some of the world's greatest artists including Picasso, Van Gogh and Edith Piaf. This tour will take you through the streets of Montmartre.</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr"/>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr"/>
-      <c r="I1563" t="inlineStr"/>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>Title: Montmartre &amp; Sacre Coeur Tour with Local Guide Alberto and his team in Paris</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr"/>
-      <c r="I1564" t="inlineStr"/>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr"/>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr"/>
-      <c r="I1565" t="inlineStr"/>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
-      <c r="I1566" t="inlineStr"/>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr"/>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
-      <c r="H1567" t="inlineStr"/>
-      <c r="I1567" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/129335P2.xlsx
+++ b/experiment_results/129335P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1809"/>
+  <dimension ref="A1:I1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +876,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -3726,7 +3726,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3801,7 +3801,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -3951,7 +3951,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -4101,7 +4101,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -4401,7 +4401,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -4626,7 +4626,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -4776,7 +4776,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -5076,7 +5076,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -6126,7 +6126,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -6426,7 +6426,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -6651,7 +6651,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -7026,7 +7026,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -7101,7 +7101,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -7476,7 +7476,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -7851,7 +7851,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -7926,7 +7926,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -8001,7 +8001,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -8526,7 +8526,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -8601,7 +8601,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -8751,7 +8751,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B551" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -9276,7 +9276,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -9351,7 +9351,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B651" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B656" t="inlineStr"/>
@@ -10401,7 +10401,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B661" t="inlineStr"/>
@@ -10476,7 +10476,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B666" t="inlineStr"/>
@@ -10701,7 +10701,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B681" t="inlineStr"/>
@@ -10776,7 +10776,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B686" t="inlineStr"/>
@@ -10926,7 +10926,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B696" t="inlineStr"/>
@@ -11301,7 +11301,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -11526,7 +11526,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B736" t="inlineStr"/>
@@ -11976,7 +11976,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -12126,7 +12126,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -12801,7 +12801,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12951,7 +12951,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -13326,7 +13326,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13476,7 +13476,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13851,7 +13851,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -14001,7 +14001,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Entertainment']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14151,7 +14151,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14226,7 +14226,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14451,7 +14451,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14901,7 +14901,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -15501,7 +15501,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26729P5</t>
+          <t>PRODUCTCODE: 48577P1</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most emblematic and picturesque quarter of Paris. Follow your passionate local guide and unveil the mysteries of Montmartre during an unforgettable 3 hours food tour.</t>
+          <t>Summarized description: Montmartre is the epitome of all things quintessentially Parisian. Join the local guide for this 2 hour tour to walk through this distinctive district.</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Title: Montmartre Hill Sweet &amp; Savory French Gourmet Food &amp; Wine Tasting Tour</t>
+          <t>Title: Montmartre District Walking Tour in Paris</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>TotalReviews: 1835</t>
+          <t>TotalReviews: 809</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 47475P6</t>
+          <t>PRODUCTCODE: 5944P8</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is Paris' most popular neighborhood. Join your friendly English speaking guide for this 90 minute walking tour. Your guide will share stories about the the art, the music, the food and the unique history of Montmartre.</t>
+          <t>Summarized description: Explore the cobbled streets of Montmartre, the fabled 2,000-year-old district. Taste one of the best butter croissants in all of Paris. Discover the Sacre-Coeur Basilica from a different angle.</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre Walking Tour Best Art Culture and Food</t>
+          <t>Title: Discover Paris: Hidden Montmartre Tour</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>TotalReviews: 1721</t>
+          <t>TotalReviews: 490</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 48577P1</t>
+          <t>PRODUCTCODE: 3588MONTMARTRE</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the epitome of all things quintessentially Parisian. Join the local guide for this 2 hour tour to walk through this distinctive district.</t>
+          <t>Summarized description: Montmartre is Paris' most bohemian neighborhood. Take a guided afternoon walk through this beautiful hilltop part of the city. Follow cobblestone streets to the highest point in Paris at Sacre Coeur Basilica.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Title: Montmartre District Walking Tour in Paris</t>
+          <t>Title: Montmartre and Sacre Coeur Walking Tour in Paris</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 809</t>
+          <t>TotalReviews: 433</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5944P8</t>
+          <t>PRODUCTCODE: 6353P13</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the cobbled streets of Montmartre, the fabled 2,000-year-old district. Taste one of the best butter croissants in all of Paris. Discover the Sacre-Coeur Basilica from a different angle.</t>
+          <t>Summarized description: Montmartre is home to cabarets, windmills, and sweeping views of Paris. This 2.5 hour exclusive guided walking tour will explore the people and places that marked the Belle Epoque period.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Title: Discover Paris: Hidden Montmartre Tour</t>
+          <t xml:space="preserve">Title: Montmartre District and Sacre Coeur - Exclusive Guided Walking Tour </t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 490</t>
+          <t>TotalReviews: 176</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588MONTMARTRE</t>
+          <t>PRODUCTCODE: 366458P5</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is Paris' most bohemian neighborhood. Take a guided afternoon walk through this beautiful hilltop part of the city. Follow cobblestone streets to the highest point in Paris at Sacre Coeur Basilica.</t>
+          <t>Summarized description: Explore the picturesque alleys of Montmartre. Stroll along the rue des Abbesses, witness to an ancient history. Admire the breathtaking panoramic view of Paris.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Title: Montmartre and Sacre Coeur Walking Tour in Paris</t>
+          <t>Title: Montmarte and Sacré-Coeur with the best guides in Paris</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 433</t>
+          <t>TotalReviews: 115</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88461P3</t>
+          <t>PRODUCTCODE: 6353P15</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the culturally vibrant and iconically stunning neighborhood of Montmartre. Climb to the city’s most picturesque viewpoint for awe-inspiring views of Paris.</t>
+          <t>Summarized description: Montmartre is home to cabarets, windmills, and sweeping views of Paris. Explore the people and places that marked the Belle Epoque period, when the City of Light sparkled more than ever.</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Title: Eating Montmartre Food &amp; Wine Tour</t>
+          <t>Title: Montmartre District and Sacre Coeur Guided Walking Tour - Semi-Private 8ppl Max</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 273</t>
+          <t>TotalReviews: 88</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353P13</t>
+          <t>PRODUCTCODE: 47475P17</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to cabarets, windmills, and sweeping views of Paris. This 2.5 hour exclusive guided walking tour will explore the people and places that marked the Belle Epoque period.</t>
+          <t>Summarized description: Montmartre is home to famous painters like Van Gogh and Henri de Toulouse-Lautrec. The two-hour private walking tour includes a stop at the Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre District and Sacre Coeur - Exclusive Guided Walking Tour </t>
+          <t>Title: Paris Montmartre Private Walking Tour - Best Art, Culture, Food</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>TotalReviews: 176</t>
+          <t>TotalReviews: 67</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 208589P3</t>
+          <t>PRODUCTCODE: 6839P20</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most popular places in Paris to see street art. It is home to famous artists such as Toulouse-Lautrec and Matisse.</t>
+          <t>Summarized description: Explore the outside of the Basilica of the Sacred Heart of Paris, built between 1874 and 1914. See the largest mosaic in the world, Christ in Majesty, depicting the Sacred heart of Jesus, worshiped by the Virgin Mary, Jeanne d'Arc, and St. Michael the Archangel. Explore the artistic and picturesque village of Montmartre.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: Montmartre Street Art Tour with an Artist</t>
+          <t>Title: Guided Tour of Sacré-Coeur and Montmartre</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>TotalReviews: 120</t>
+          <t>TotalReviews: 66</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 366458P5</t>
+          <t>PRODUCTCODE: 72849P4</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the picturesque alleys of Montmartre. Stroll along the rue des Abbesses, witness to an ancient history. Admire the breathtaking panoramic view of Paris.</t>
+          <t>Summarized description: Discover the amazing atmosphere in the legendary red light district Pigalle. Visit the Basilica Sacré-Cœur, Paris' biggest church. Enjoy a breathtaking view all over Paris - including the Eiffel Tower - during sunset.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title: Montmarte and Sacré-Coeur with the best guides in Paris</t>
+          <t>Title: Discover Montmartre and visit the Basilica of Sacré-Coeur</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>TotalReviews: 115</t>
+          <t>TotalReviews: 66</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353P15</t>
+          <t>PRODUCTCODE: 9204P3</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to cabarets, windmills, and sweeping views of Paris. Explore the people and places that marked the Belle Epoque period, when the City of Light sparkled more than ever.</t>
+          <t>Summarized description: 2-hour small group walking tour of Montmartre (maximum 8 participants) Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Title: Montmartre District and Sacre Coeur Guided Walking Tour - Semi-Private 8ppl Max</t>
+          <t>Title: Montmartre and Moulin Rouge and Sacré Coeur Walking Tour</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>TotalReviews: 88</t>
+          <t>TotalReviews: 59</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353ORSAY</t>
+          <t>PRODUCTCODE: 130002P1</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: 5.5 hour semi-private (8 guest maximum) guided combo museum &amp; walking tour explores origins of the Impressionist movement. Start at Orsay Museum where you will enter directly into its main collection of artwork by the likes of Monet and Cezanne. Then head to the Montmartre neighborhood and experience the surrounding that is the background of the impressionist's lives.</t>
+          <t>Summarized description: The Butte of Montmartre is one of the most beautiful places in the world. It is home to many famous artists, including Picasso and Picasso. The Butte is also known as the birthplace of the French Revolution.</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay &amp; Montmartre - Semi-Private 8ppl Max (Reserved Entry Included!)</t>
+          <t>Title: The Butte Montmartre as you have never seen.</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>TotalReviews: 67</t>
+          <t>TotalReviews: 52</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 47475P17</t>
+          <t>PRODUCTCODE: 5746P29</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to famous painters like Van Gogh and Henri de Toulouse-Lautrec. The two-hour private walking tour includes a stop at the Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Montmartre is where Van Gogh found his calling and where Picasso became a great master. Explore the Sacré Coeur basilica, artists' square, Moulin Rouge, and the cabaret of the assassins.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre Private Walking Tour - Best Art, Culture, Food</t>
+          <t>Title: Montmartre Walking Tour to the Sacre Coeur &amp; Skip-the-Line to Musée d'Orsay</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>TotalReviews: 67</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P20</t>
+          <t>PRODUCTCODE: 436155P1</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the outside of the Basilica of the Sacred Heart of Paris, built between 1874 and 1914. See the largest mosaic in the world, Christ in Majesty, depicting the Sacred heart of Jesus, worshiped by the Virgin Mary, Jeanne d'Arc, and St. Michael the Archangel. Explore the artistic and picturesque village of Montmartre.</t>
+          <t>Summarized description: Mid-day tour of Montmartre. 3-hour tour includes 1-hour treasure hunt. Small group (max. 15 persons) with expert of our city.</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Sacré-Coeur and Montmartre</t>
+          <t>Title: Montmartre Small Group Walking Tour in Paris</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>TotalReviews: 66</t>
+          <t>TotalReviews: 35</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72849P4</t>
+          <t>PRODUCTCODE: 31738P1</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the amazing atmosphere in the legendary red light district Pigalle. Visit the Basilica Sacré-Cœur, Paris' biggest church. Enjoy a breathtaking view all over Paris - including the Eiffel Tower - during sunset.</t>
+          <t>Summarized description: Montmartre has played host to some of the most famous artists in the world, including Van Gogh and Picasso. As you stroll along cobbled streets, keep your eyes peeled for today's promising artists.</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Title: Discover Montmartre and visit the Basilica of Sacré-Coeur</t>
+          <t>Title: Private Walking Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>TotalReviews: 66</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9204P3</t>
+          <t>PRODUCTCODE: 179560P1</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour small group walking tour of Montmartre (maximum 8 participants) Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
+          <t>Summarized description: Immerse yourself in this bohemian neighborhood, home to artists like Van Gogh and Picasso. Take a tour of the city and become another Parisian!</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Title: Montmartre and Moulin Rouge and Sacré Coeur Walking Tour</t>
+          <t>Title: Walking Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>TotalReviews: 59</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P6</t>
+          <t>PRODUCTCODE: 5746ORANGERIE</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Summarized description: Walking tour led by a savvy guide who will whisk you away to the most iconic landmarks of Montmartre. Treat your taste buds to classic French dishes at every turn.</t>
+          <t>Summarized description: 1.5-hour Montmartre walking tour. skip-the-line entry to Impressionist galleries. Explore venues that influenced painters including Renoir and Monet.</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Title: Paris: Food Tour with Montmartre History &amp; Highlights</t>
+          <t xml:space="preserve">Title: Montmartre Art Walking Tour </t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>TotalReviews: 56</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130002P1</t>
+          <t>PRODUCTCODE: 123721P4</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Summarized description: The Butte of Montmartre is one of the most beautiful places in the world. It is home to many famous artists, including Picasso and Picasso. The Butte is also known as the birthplace of the French Revolution.</t>
+          <t>Summarized description: Montmartre is a former little village originally outside of Paris. The former artist colony and studios where Picasso, Toulouse Lautrec, Van Gogh and Degas painted their masterpieces.</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Title: The Butte Montmartre as you have never seen.</t>
+          <t xml:space="preserve">Title: Montmartre Tour Paris </t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>TotalReviews: 52</t>
+          <t>TotalReviews: 26</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746P29</t>
+          <t>PRODUCTCODE: 60331P1</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is where Van Gogh found his calling and where Picasso became a great master. Explore the Sacré Coeur basilica, artists' square, Moulin Rouge, and the cabaret of the assassins.</t>
+          <t>Summarized description: The Montmartre Tour is held every day at 17:00 in Paris. Tour highlights include the history of the city, Van Gogh’s apartment and the vineyards.</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour to the Sacre Coeur &amp; Skip-the-Line to Musée d'Orsay</t>
+          <t>Title: Tour Montmartre</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 26</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P701</t>
+          <t>PRODUCTCODE: 420049P1</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the cutest neighbourhoods in Paris. Join your local host and enjoy beautiful sights, delicious wine, fresh oysters, and more along the way.</t>
+          <t>Summarized description: Montmartre has always been a buzzing hive of creative activity and the dwelling place of some of the most influential artists of all time. Book a tour with an affable and affordable guide and soak up the rich artistic atmosphere and follow in the footsteps of the legends of Montmartre.</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Title: Beautiful Private Evening Tour in Montmartre: Bites &amp; Sights</t>
+          <t>Title: ESSENTIAL MONTMARTRE Walking Tour: the essential highlights+MORE!</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 436155P1</t>
+          <t>PRODUCTCODE: 445889P2</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Summarized description: Mid-day tour of Montmartre. 3-hour tour includes 1-hour treasure hunt. Small group (max. 15 persons) with expert of our city.</t>
+          <t>Summarized description: Walk in the footsteps of filmmakers and find yourself amidst iconic scenes from French and international pop culture. Dive into the alleys, unearth history and culture and capture the Parisian essence.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Title: Montmartre Small Group Walking Tour in Paris</t>
+          <t>Title: Montmartre Secrets and Sacré-Coeur Small Group Walking Tour</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>TotalReviews: 35</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144878P6</t>
+          <t>PRODUCTCODE: 13405P3</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Summarized description: Spend a morning exploring Montmartre through its food. Learn about the delicate art of patisserie, try delicious cheeseboard offerings, and sip on uniquely French wines.</t>
+          <t>Summarized description: Learn about Montmartre's history and secrets with insight from a private guide. You'll see attractions like the Moulin Rouge and hear about bohemian life during the Belle Epoque.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Title: Paris Food Tour : Montmartre Like a Local</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Private Historical 2-Hour Walking Tour in Paris</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31738P1</t>
+          <t>PRODUCTCODE: 5746SS</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has played host to some of the most famous artists in the world, including Van Gogh and Picasso. As you stroll along cobbled streets, keep your eyes peeled for today's promising artists.</t>
+          <t>Summarized description: Go on an art walking tour in the morning through the bohemian neighborhood of Montmartre. Enjoy skip-the-line access to the Musée d’Orsay to see masterpieces by Van Gogh and Monet. At night, admire illuminated landmarks such as the Eiffel Tower and Notre Dame Cathedral.</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Super Saver with Paris by Night Tour</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 436737P1</t>
+          <t>PRODUCTCODE: 394285P4</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the art of pairing Wine and Cheese. Discover the history of French Cheese. Taste delicious French Wines. Learn more about the notion of French "Terroir"</t>
+          <t>Summarized description: Montmartre was once the home of a Roman temple and then a small village teeming with windmills. It became the birthplace of Impressionism, overrun with cabarets and can-can dancers. The neighbourhood is full of great bars and restaurants, artists’ studios, and even a vineyard.</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Title: Paris: A Cozy Wine &amp; Cheese Tasting in Montmartre</t>
+          <t>Title: Montmartre Guided Walking Tour: Famous Artists and Cabarets</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 17</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 179560P1</t>
+          <t>PRODUCTCODE: 110804P195</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in this bohemian neighborhood, home to artists like Van Gogh and Picasso. Take a tour of the city and become another Parisian!</t>
+          <t>Summarized description: Montmartre is one of the only vineyards left in Paris. See where artists Picasso and Modigliani got their start. Do it all in an hour or linger at stops along the way.</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Title: Walking Tour of Montmartre</t>
+          <t>Title: Montmartre Self-Guided Audio Tour: More Than Meets the Eye</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746ORANGERIE</t>
+          <t>PRODUCTCODE: 266661P27</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Summarized description: 1.5-hour Montmartre walking tour. skip-the-line entry to Impressionist galleries. Explore venues that influenced painters including Renoir and Monet.</t>
+          <t>Summarized description: Montmartre offers exclusive access to Parisian culinary gems. Our expert guides share captivating stories, intertwining history and culture with each delectable bite.</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Art Walking Tour </t>
+          <t xml:space="preserve">Title: Montmartre Food Tour - Bakeries, Chocolate and Patisseries </t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 123721P4</t>
+          <t>PRODUCTCODE: 88461P2</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a former little village originally outside of Paris. The former artist colony and studios where Picasso, Toulouse Lautrec, Van Gogh and Degas painted their masterpieces.</t>
+          <t>Summarized description: The Montmartre food tour takes you through the backstreets of the French capital. Enjoy an exclusive kitchen tour at a local bakery and meet the bakers behind the bread. Later, we sit down for a private meal at a humble bistro popular for its simple and hearty dishes.</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Tour Paris </t>
+          <t>Title: New Montmartre Brunch Food Tour - Discover Paris at its Quietest</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>TotalReviews: 26</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60331P1</t>
+          <t>PRODUCTCODE: 260293P2</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Summarized description: The Montmartre Tour is held every day at 17:00 in Paris. Tour highlights include the history of the city, Van Gogh’s apartment and the vineyards.</t>
+          <t>Summarized description: Forgotten notebooks were found in a workshop Rue d'Orchampt. They belonged to an artist who lived there last century. They seem to be the key of a secret buried in Montmartre since ages.</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Title: Tour Montmartre</t>
+          <t>Title: Montmartre's Secret - Outdoor Escape Game / Historical Treasure Hunt</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>TotalReviews: 26</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420049P1</t>
+          <t>PRODUCTCODE: 348920P2</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has always been a buzzing hive of creative activity and the dwelling place of some of the most influential artists of all time. Book a tour with an affable and affordable guide and soak up the rich artistic atmosphere and follow in the footsteps of the legends of Montmartre.</t>
+          <t>Summarized description: Montmartre is like wandering through a Parisian movie set. Your expert tour guide will bring you to the sights and sounds of legendary bohemians.</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Title: ESSENTIAL MONTMARTRE Walking Tour: the essential highlights+MORE!</t>
+          <t>Title: The Montmartre Walking Tour Experience</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 445889P2</t>
+          <t>PRODUCTCODE: 150467P2</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Summarized description: Walk in the footsteps of filmmakers and find yourself amidst iconic scenes from French and international pop culture. Dive into the alleys, unearth history and culture and capture the Parisian essence.</t>
+          <t>Summarized description: This 2-hour private walking tour focuses on Montmartre neighborhood. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes this area so nice.</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Title: Montmartre Secrets and Sacré-Coeur Small Group Walking Tour</t>
+          <t>Title: Montmartre Private Walking Tour</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26729P8</t>
+          <t>PRODUCTCODE: 126585P7</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Summarized description: An exclusive tour dedicated to the Parisian culture of the Bistrologie. Enjoy some amazing wines, alcools and food in the Montmartre neiberghoud.</t>
+          <t>Summarized description: Montmartre is one of France's most popular tourist destinations. Visitors can take a walking tour of the district, visit Renoir's house and enjoy a gourmet break.</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Title: Montmartre French Bistrot Style Food &amp; Wine Tasting Tour</t>
+          <t>Title: Montmartre La Bohème : 2CV, Walking &amp; Tasting - 3H</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13405P3</t>
+          <t>PRODUCTCODE: 3731MONTCLOS</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Montmartre's history and secrets with insight from a private guide. You'll see attractions like the Moulin Rouge and hear about bohemian life during the Belle Epoque.</t>
+          <t>Summarized description: Follow a guide through Montmartre’s cobbled streets and hear of their colorful history. Learn of the actors, painters and writers who once frequented the cafés and cabarets. Admire attractive cityscapes painted by Maurice Utrillo, and see the Moulin Rouge and Moulin de la Galette. Step inside the exclusive Clos MontMartre Vineyard to sample its fine wine.</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacré Coeur Private Historical 2-Hour Walking Tour in Paris</t>
+          <t>Title: Montmartre Tour with VIP Clos Montmartre Vineyard Visit</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746SS</t>
+          <t>PRODUCTCODE: 226709P1</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Summarized description: Go on an art walking tour in the morning through the bohemian neighborhood of Montmartre. Enjoy skip-the-line access to the Musée d’Orsay to see masterpieces by Van Gogh and Monet. At night, admire illuminated landmarks such as the Eiffel Tower and Notre Dame Cathedral.</t>
+          <t>Summarized description: The itinerary covers Moulin Rouge to Sacre Coeur cathedral. We explore the eccentric lifestyles of current and former Montmartre residents. We discover why local residents are so proud of their peculiar vineyard.</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacré Coeur Super Saver with Paris by Night Tour</t>
+          <t xml:space="preserve">Title: Montmartre Walking Tour </t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46018P37</t>
+          <t>PRODUCTCODE: 130856P2</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most popular tourist destinations. This guided tour will show you a side of this vibrant neighborhood that most of the crowds will miss.</t>
+          <t>Summarized description: More than 6000 visitors have already been conquered by this course. You will meet and interact with the real Montmartre and merchants of the hill. This journey mixes discoveries, games, riddles, and music.</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Title: VIP Montmartre Walking Tour with Private Vineyard Wine Tasting</t>
+          <t>Title: A journey of fun, cultural and gourmet challenges in Montmartre</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 394285P4</t>
+          <t>PRODUCTCODE: 51919P2</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was once the home of a Roman temple and then a small village teeming with windmills. It became the birthplace of Impressionism, overrun with cabarets and can-can dancers. The neighbourhood is full of great bars and restaurants, artists’ studios, and even a vineyard.</t>
+          <t>Summarized description: Small-group tour (6 people max) 3-hour experience discovering Montmartre off the beaten trail. Witness everything from the foundation of the Modern Art movement to the intricacies of Père Frédé's pink inn.</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Title: Montmartre Guided Walking Tour: Famous Artists and Cabarets</t>
+          <t>Title: Montmartre Off-the-Beaten-Track Historical Walking Tour in Paris</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>TotalReviews: 17</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5717P52</t>
+          <t>PRODUCTCODE: 51738P35</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the secrets of one of the most atypical neighborhoods in Paris. Follow the footsteps of famous artists who have made him the "village of Street Art"</t>
+          <t>Summarized description: Montmartre is one of the oldest, most picturesque and characteristic quarter in Paris. It is home to famous artists such as Picasso, Van Gogh and Renoir.</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Title: Paris Street Art at Butte-aux-Cailles</t>
+          <t>Title: Paris: Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>TotalReviews: 17</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P195</t>
+          <t>PRODUCTCODE: 5746P32</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the only vineyards left in Paris. See where artists Picasso and Modigliani got their start. Do it all in an hour or linger at stops along the way.</t>
+          <t>Summarized description: Montmartre tour is designed so you see the village of Montmartre at its best without the day-time crowds. At the end of the tour, your guide takes you to a charming café at the top of the hill for an exquisite glass of chilled champagne.</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Title: Montmartre Self-Guided Audio Tour: More Than Meets the Eye</t>
+          <t>Title: Montmartre from Moulin Rouge to Sacré Coeur Night Tour with Glass of Champagne</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 266661P27</t>
+          <t>PRODUCTCODE: 29151P1</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre offers exclusive access to Parisian culinary gems. Our expert guides share captivating stories, intertwining history and culture with each delectable bite.</t>
+          <t>Summarized description: 2.5-hour walking tour in a small group of 10 people (maximum) Learn about the most exciting things Montmartre has to offer.</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Food Tour - Bakeries, Chocolate and Patisseries </t>
+          <t>Title: 2.5-Hour Walking Tour of Magical Montmartre District</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88461P2</t>
+          <t>PRODUCTCODE: 89859P2</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Summarized description: The Montmartre food tour takes you through the backstreets of the French capital. Enjoy an exclusive kitchen tour at a local bakery and meet the bakers behind the bread. Later, we sit down for a private meal at a humble bistro popular for its simple and hearty dishes.</t>
+          <t>Summarized description: Discover Montmartre on foot in a small group. Learn about the history of the neighborhood. Listen to stories and insider tips from your local guide. Discover romantic corners off the beaten path.</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Title: New Montmartre Brunch Food Tour - Discover Paris at its Quietest</t>
+          <t>Title: Paris Montmartre: 2 hour walking tour in English and German (Group tour)</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 260293P2</t>
+          <t>PRODUCTCODE: 103576P31</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Summarized description: Forgotten notebooks were found in a workshop Rue d'Orchampt. They belonged to an artist who lived there last century. They seem to be the key of a secret buried in Montmartre since ages.</t>
+          <t>Summarized description: Montmartre was perhaps the cradle of Impressionism, starting in the 19th century. Many famous artists such as Monet, Dalí, Picasso, Van Gogh, Renoir, Degas and many others lived.</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Title: Montmartre's Secret - Outdoor Escape Game / Historical Treasure Hunt</t>
+          <t>Title: Self-Guided Audio Tour - Montmartre: The heart of art and bohemia</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 348920P2</t>
+          <t>PRODUCTCODE: 323229P1</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is like wandering through a Parisian movie set. Your expert tour guide will bring you to the sights and sounds of legendary bohemians.</t>
+          <t>Summarized description: Montmartre is one of the most beautiful places in the world. It is located on the banks of the River Seine, near the city of Paris. The city is famous for its cafes and restaurants.</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Title: The Montmartre Walking Tour Experience</t>
+          <t>Title: Montmartre to fall in love - Self-Guided Digital tour on Bohemian Hill of Paris</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110975P73</t>
+          <t>PRODUCTCODE: 427087P3</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Summarized description: Full-Day Private Tour includes a break for a traditional French lunch. Visit Montmartre, a symbol of French bohemian life, where Monet, Dali, Picasso, and Van Gogh once lived.</t>
+          <t>Summarized description: The Bohemian village of Montmartre is a popular area well-known by many artists and a lot of landmarks which have influenced the course of the history of Paris. These alleys contain crazy stories and offer an exceptional view of the city.</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Title: Paris Private Full Day Tour - Montmartre, French Lunch &amp; Eiffel Tower</t>
+          <t>Title: Visite guidée de Montmartre avec un guide local en petit groupe</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32866P5</t>
+          <t>PRODUCTCODE: 123350P4</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Summarized description: Learn how French cuisine has evolved to be what it is now. Explore the real Paris where real Parisians shop for food. The tour includes stops at 7 artisan food stores in the Montmartre area.</t>
+          <t>Summarized description: Montmartre is full of stories about artists such as Van Gogh, Picasso, Renoir and others. Discover the beauty and secrets of the bohemian Montmartre with us.</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Title: Unique Montmartre Food Experience</t>
+          <t>Title: The Soul of Montmartre Walking Tour</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150467P2</t>
+          <t>PRODUCTCODE: 374044P2</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Summarized description: This 2-hour private walking tour focuses on Montmartre neighborhood. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes this area so nice.</t>
+          <t>Summarized description: Montmartre was once home to a host of artists including Picasso, Modigliani and Toulouse-Lautrec. This is a perfect cosy small-group tour that will allow you to enjoy the experience at its best.</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Walking Tour</t>
+          <t>Title: Montmartre &amp; Sacré Coeur Small Group Tour</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126585P7</t>
+          <t>PRODUCTCODE: 71076P10</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of France's most popular tourist destinations. Visitors can take a walking tour of the district, visit Renoir's house and enjoy a gourmet break.</t>
+          <t>Summarized description: During the Belle Epoque (1870s-1914) Montmartre became famous for its cafés, dance halls &amp; cabarets. Many struggling artists came here: Renoir, Picasso, Van Gogh, Degas, Toulouse-Lautrec...to name a few. We will see where they lived &amp; worked as well as the cafés &amp; cabaret which inspired them.</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Title: Montmartre La Bohème : 2CV, Walking &amp; Tasting - 3H</t>
+          <t>Title: Montmartre in 1900 : Impressionist Art Walk (Small Group Tour)</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P61</t>
+          <t>PRODUCTCODE: 5045P86</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest parts of Paris. You can explore live with us on an in-depth walking tour with an expert guide.</t>
+          <t>Summarized description: Montmartre Walking Tour is a leisurely walk through the heart of Paris. The highlight of your journey awaits you as you ascend Montmartre Hill and approach the magnificent Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Title: Virtual tour: Paris Live! Explore Montmartre, the Artists' Quarter</t>
+          <t>Title: Montmartre Marvels: A Small Group Guided Stroll in Bohemian Paris</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731MONTCLOS</t>
+          <t>PRODUCTCODE: 210555P5</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>Summarized description: Follow a guide through Montmartre’s cobbled streets and hear of their colorful history. Learn of the actors, painters and writers who once frequented the cafés and cabarets. Admire attractive cityscapes painted by Maurice Utrillo, and see the Moulin Rouge and Moulin de la Galette. Step inside the exclusive Clos MontMartre Vineyard to sample its fine wine.</t>
+          <t>Summarized description: Discover the areas which made the artists like Vincent Van Gogh, Claude Monet, Salvador Dali and Pablo Picasso call it their home. Witness the last remaining Vineyards of Paris and the Square of the Artists.</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Title: Montmartre Tour with VIP Clos Montmartre Vineyard Visit</t>
+          <t>Title: Montmartre Guided Tour with Sacré Cœur Church and City views</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226709P1</t>
+          <t>PRODUCTCODE: 116778P16</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>Summarized description: The itinerary covers Moulin Rouge to Sacre Coeur cathedral. We explore the eccentric lifestyles of current and former Montmartre residents. We discover why local residents are so proud of their peculiar vineyard.</t>
+          <t>Summarized description: Montmartre is famous for its chic art scene, impressive history, and remarkable heritage. Stroll through the mesmerizing Notre Dame de Lorette, and get up close to its handpainted murals. Uncover its unique past as you make your way down the world-famous Rue Des Martyrs.</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Walking Tour </t>
+          <t>Title: Montmartre’s heritage with specialties tasting Private Tour</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130856P2</t>
+          <t>PRODUCTCODE: 118261P9</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Summarized description: More than 6000 visitors have already been conquered by this course. You will meet and interact with the real Montmartre and merchants of the hill. This journey mixes discoveries, games, riddles, and music.</t>
+          <t>Summarized description: Montmartre is undoubtedly the most picturesque district in Paris. With this walk you will discover the history of this neighborhood. We will start from the famous Moulin Rouge and then go up the hill.</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Title: A journey of fun, cultural and gourmet challenges in Montmartre</t>
+          <t>Title: Group tour in Italian of the Montmartre district</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51919P2</t>
+          <t>PRODUCTCODE: 2050P294</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>Summarized description: Small-group tour (6 people max) 3-hour experience discovering Montmartre off the beaten trail. Witness everything from the foundation of the Modern Art movement to the intricacies of Père Frédé's pink inn.</t>
+          <t>Summarized description: The Basilica of the Sacré-Cœur is located up the hill of Montmartre, the "Mount of Martyrs" Enjoy the wide panoramic view of the City of Light and its famous monuments.</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Title: Montmartre Off-the-Beaten-Track Historical Walking Tour in Paris</t>
+          <t>Title: Montmartre Bohemian Audio Guided Tour with Sacre Coeur Basilica</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 298466P37</t>
+          <t>PRODUCTCODE: 119774P4</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montmartre from a different perspective on a self-guided walking tour. Solve riddles and clues that lead to the next location, showing all the city highlights.</t>
+          <t>Summarized description: You will relive the atmosphere of the ''New-Athens'', where the Batignolles Group gathered. You will learn about their art and their private life, and you will have fun with anecdotes.</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Title: Paris (Montmartre) Scavenger Hunt and Sights Self-Guided Tour</t>
+          <t>Title: Montmartre, in the footsteps of painters.</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 225279P12</t>
+          <t>PRODUCTCODE: 24380P1097</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is renowned for its architecture, beautiful photo stops and for being the cultural heart of Paris. Walk through Sacre Coeur, explore La Maison Rose, stroll along with the Rue Saint Vincent, and ultimately finish in front of the Espace Dalí.</t>
+          <t>Summarized description: Highlights &amp; Hidden Gems of Montmartre: Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce.</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Title: Montmartre: Secret Stories of Paris - Self-Guided Audio Tour</t>
+          <t>Title: Highlights &amp; Hidden Gems of Montmartre: Private City Tour</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 264510P1</t>
+          <t>PRODUCTCODE: 126585P6</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a mound with numerous little Streets, you may only see the most famous and touristic side. This tour aims at making you discover Montmartre, including somes secret places tourists never see.</t>
+          <t>Summarized description: This visit was designed by a Montmartrois who lives on the Place du Tertre. In 2 hours you will discover the famous but also hidden places of Montmartre. Commentary and photo stops are provided to fully enjoy the experience.</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Title: Virtual tour of Montmartre : history and hidden places</t>
+          <t>Title: Unusual walking tour of Montmartre and local wine tasting - 2H</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103576P31</t>
+          <t>PRODUCTCODE: 3234MONTMARTRE</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was perhaps the cradle of Impressionism, starting in the 19th century. Many famous artists such as Monet, Dalí, Picasso, Van Gogh, Renoir, Degas and many others lived.</t>
+          <t>Summarized description: Montmartre is Paris’ most charming neighborhood. Enjoy a private walking tour of Montmartre’s must-see historical and cultural sights. Top it off with a truly traditional cabaret at Au Lapin Agile.</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Title: Self-Guided Audio Tour - Montmartre: The heart of art and bohemia</t>
+          <t>Title: Private Tour: Montmartre Walking Tour, Dinner and Au Lapin Agile Cabaret</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 323229P1</t>
+          <t>PRODUCTCODE: 210607P1</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most beautiful places in the world. It is located on the banks of the River Seine, near the city of Paris. The city is famous for its cafes and restaurants.</t>
+          <t>Summarized description: Montmartre is one of the most famous districts of Paris. The district was the filming location for EMILY IN PARIS, HEARTSTOPPER, JOHN WICK 4, AMELIE, MIDNIGHT in PARIS.</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Title: Montmartre to fall in love - Self-Guided Digital tour on Bohemian Hill of Paris</t>
+          <t>Title: Discovering Montmartre with local resident</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3234CINEMA</t>
+          <t>PRODUCTCODE: 328033P1</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming, artsy neighborhood in Paris adored by filmmakers and stars alike. Marvel at iconic Sacré Coeur Basilica and travel back to the 1920s with a journey through Woody Allen's 'Midnight in Paris' Visit the real Moulin Rouge for flashbacks of Nicole Kidman’s starring role.</t>
+          <t>Summarized description: Montmartre is not only my favourite neighbourhood, it's also where I live. So we’ll dive deep into its history and give you all of the insider information. Discover Montmartre, full of secret gardens, tiny streets and windmills.</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Title: Paris Movie Tour of Montmartre</t>
+          <t>Title: Guided 2-Hour Tour Secret Face of Montmartre</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 123350P4</t>
+          <t>PRODUCTCODE: 132255P1</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is full of stories about artists such as Van Gogh, Picasso, Renoir and others. Discover the beauty and secrets of the bohemian Montmartre with us.</t>
+          <t>Summarized description: Our show tours immerse you in the heart of a dramatized visit where surprising characters appear throughout the journey. It's neither a guided tour nor a play, but both at the same time!</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Title: The Soul of Montmartre Walking Tour</t>
+          <t>Title: The Eternal Spirit of Montmartre</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172196P6</t>
+          <t>PRODUCTCODE: 148845P3</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a poor village that has become, thanks to today's renowned artists, a mythical and legendary district. You can decide to stay longer in front of one attraction and not go to see another.</t>
+          <t>Summarized description: Montmartre housed the studios of a lot of masters of painting such as Picasso, Toulouse-Lautrec, Van Gogh and Utrillo.</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Title: Visit of Montmartre with a treasure hunt</t>
+          <t>Title: Montmartre , Basilica of Sacred Heart and Place du Tertre</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 374044P2</t>
+          <t>PRODUCTCODE: 255730P157</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was once home to a host of artists including Picasso, Modigliani and Toulouse-Lautrec. This is a perfect cosy small-group tour that will allow you to enjoy the experience at its best.</t>
+          <t>Summarized description: Montmartre has been home to Van Gogh, Renoir, and Picasso. See the sites and vistas they enjoyed painting from the hill overlooking Paris.</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacré Coeur Small Group Tour</t>
+          <t>Title: Explore Bohemian Montmartre: Private Half-Day Walking Tour</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P86</t>
+          <t>PRODUCTCODE: 9204P12</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre Walking Tour is a leisurely walk through the heart of Paris. The highlight of your journey awaits you as you ascend Montmartre Hill and approach the magnificent Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Travel back to a time of quaint cobblestone streets and country village charm. Trace the footsteps of artistic heroes like Picasso, Van Gogh, Renoir and Toulouse-Lautrec. Venture off the beaten path to explore secret walkways, cafes, and the city’s last remaining vineyard.</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Title: Montmartre Marvels: A Small Group Guided Stroll in Bohemian Paris</t>
+          <t>Title: Paris: Montmartre &amp; Sacré Coeur Private Walking Tour</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P16</t>
+          <t>PRODUCTCODE: 14447P4</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is famous for its chic art scene, impressive history, and remarkable heritage. Stroll through the mesmerizing Notre Dame de Lorette, and get up close to its handpainted murals. Uncover its unique past as you make your way down the world-famous Rue Des Martyrs.</t>
+          <t>Summarized description: Learn about the history, culture, and characters of the district. Visit Sacré-Coeur Basilica for a view over the city. Small-group tour is limited to 15 people.</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Title: Montmartre’s heritage with specialties tasting Private Tour</t>
+          <t>Title: Paris Walking Tour of the Montmartre District</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 119774P4</t>
+          <t>PRODUCTCODE: 32142P51</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>Summarized description: You will relive the atmosphere of the ''New-Athens'', where the Batignolles Group gathered. You will learn about their art and their private life, and you will have fun with anecdotes.</t>
+          <t>Summarized description: Montmartre has been a favourite place for Impressionist such as Renoir, Picasso, Toulouse-Lautrec and many other artists. The tour goes through the district up to the Basilica of the Sacred Heart.</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Title: Montmartre, in the footsteps of painters.</t>
+          <t>Title: Montmartre Small-Group Family Tour</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1097</t>
+          <t>PRODUCTCODE: 398416P1</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>Summarized description: Highlights &amp; Hidden Gems of Montmartre: Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce.</t>
+          <t>Summarized description: Montmartre was the birthplace of both the Jesuit Order and the modern Counterculture. One must see the workshops and cafés where Renoir, Vang Gogh and Picasso championed new art forms.</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Title: Highlights &amp; Hidden Gems of Montmartre: Private City Tour</t>
+          <t>Title: Secrets of Montmartre from the Moulin Rouge to the Sacré Cœur</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 264510P2</t>
+          <t>PRODUCTCODE: 13437P22</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the history of the Butte, its anecdotes, the Montmartre Bohème. Explore Montmarte with a local resident!</t>
+          <t>Summarized description: Two-hour walking tour with a professional local guide. Explore the best of Montmartre in the footsteps of the Impressionists. Enjoy one of the most authentic district of Paris with your private guide.</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Title: Virtual tour of Montmartre: history, legends and secrets</t>
+          <t>Title: Montmartre Exclusive Impressionist Small Group Walking Tour</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126585P6</t>
+          <t>PRODUCTCODE: 192144P4</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>Summarized description: This visit was designed by a Montmartrois who lives on the Place du Tertre. In 2 hours you will discover the famous but also hidden places of Montmartre. Commentary and photo stops are provided to fully enjoy the experience.</t>
+          <t>Summarized description: Explore Montmartre, the most iconic neighborhood in Paris. Walk the cobblestone streets and follow the path of the legendary painters and street artists.</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Title: Unusual walking tour of Montmartre and local wine tasting - 2H</t>
+          <t>Title: Montmartre Private Walking Tour</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210607P1</t>
+          <t>PRODUCTCODE: 385023P18</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the most famous districts of Paris. The district was the filming location for EMILY IN PARIS, HEARTSTOPPER, JOHN WICK 4, AMELIE, MIDNIGHT in PARIS.</t>
+          <t>Summarized description: Explore the beautiful city center of Montmartre at your own pace. This self-guided audio tour will take you to all the well-known spots and undiscovered gems. Go on a journey of discovery with your virtual audio guide.</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Title: Discovering Montmartre with local resident</t>
+          <t>Title: Paris Montmartre: Walking Tour with Audio Guide on App</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328033P1</t>
+          <t>PRODUCTCODE: 123815P1</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is not only my favourite neighbourhood, it's also where I live. So we’ll dive deep into its history and give you all of the insider information. Discover Montmartre, full of secret gardens, tiny streets and windmills.</t>
+          <t>Summarized description: Journey takes place inside the private Montmartre Museum. Led by Thierry Secretan, a French author and journalist. Ends with a glass of champagne in Renoir's Garden.</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Title: Guided 2-Hour Tour Secret Face of Montmartre</t>
+          <t>Title: The true spirit of Montmartre with journalist Thierry Secretan</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132255P1</t>
+          <t>PRODUCTCODE: 133687P69</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20512,7 +20512,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>Summarized description: Our show tours immerse you in the heart of a dramatized visit where surprising characters appear throughout the journey. It's neither a guided tour nor a play, but both at the same time!</t>
+          <t>Summarized description: Learn about Montmartre's history and the secrets with a private guide. You will see attractions such as the Moulin Rouge and hear about bohemian life during the Belle Époque.</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Title: The Eternal Spirit of Montmartre</t>
+          <t>Title: Paris: Montmartre and Sacré Coeur Experience</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 148845P3</t>
+          <t>PRODUCTCODE: 5746P45</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20587,7 +20587,7 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre housed the studios of a lot of masters of painting such as Picasso, Toulouse-Lautrec, Van Gogh and Utrillo.</t>
+          <t>Summarized description: Montmartre is the most iconic district of Paris. This private tour introduces you to the bohemian village of Montmartre. This tour will include the must-sees Sacre Coeur, artists' square, the funicular, the best views of Paris etc.</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Title: Montmartre , Basilica of Sacred Heart and Place du Tertre</t>
+          <t xml:space="preserve">Title: Montmartre Village Private Walking Tour with Sacre Coeur Rooftop </t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P157</t>
+          <t>PRODUCTCODE: 384373P3</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20662,7 +20662,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been home to Van Gogh, Renoir, and Picasso. See the sites and vistas they enjoyed painting from the hill overlooking Paris.</t>
+          <t>Summarized description: Montmartre is home to famous artists such as Van Gogh, Picasso Monet and others. The district was also the setting for much of the film Amélie.</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Title: Explore Bohemian Montmartre: Private Half-Day Walking Tour</t>
+          <t>Title: Montmartre-Sacré Coeur Walking Tour: Semi Private Experience</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 33567P2</t>
+          <t>PRODUCTCODE: 343759P11</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20737,7 +20737,7 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>Summarized description: The photo walking tour takes place in the popular Montmartre area where the famous french movie Amelie Poulain was filmed almost 20 years ago. The photo class starts at a traditional French coffee shop where you'll learn about the basics of photography.</t>
+          <t>Summarized description: Montmartre was home to some of the most famous artists of all time, such as Picasso, Van Gogh, Renoir, Braque, and Matisse. Explore Montmartre's rich history and cultural significance with a local guide.</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Title: Discover Montmartre with a photo walk</t>
+          <t>Title: Montmartre Art, Culture &amp; Rebel Legacy: Semi-Private Walking Tour</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14447P4</t>
+          <t>PRODUCTCODE: 239576P22</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history, culture, and characters of the district. Visit Sacré-Coeur Basilica for a view over the city. Small-group tour is limited to 15 people.</t>
+          <t>Summarized description: Learn about the vibrant past of the renowned and enduring Moulin Rouge. Visit the renowned Sacre-Coeur Basilica to take in the expansive vista.</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Title: Paris Walking Tour of the Montmartre District</t>
+          <t>Title: Paris: Walking tour of Montmartre (Guided Tour)</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 442833P2</t>
+          <t>PRODUCTCODE: 462750P3</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20887,7 +20887,7 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the heart of Montmartre through fascinating tales and insider anecdotes shared by locals. Uncover secret spots, local favorites, and charming corners beyond the guidebooks. No fixed schedules, no rush. It's YOUR exploration.</t>
+          <t>Summarized description: A unique walking tour with a local city guide. Follow me through some iconic streets, off the beaten path. You will be rewarded with a thrilling view of Paris.</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Title: Paris: The charm of Montmartre self-guided Video Audio Tour</t>
+          <t>Title: Guided Walking Tour through the Old Artist Village Montmartre</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32142P51</t>
+          <t>PRODUCTCODE: 3731P133</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20962,7 +20962,7 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre has been a favourite place for Impressionist such as Renoir, Picasso, Toulouse-Lautrec and many other artists. The tour goes through the district up to the Basilica of the Sacred Heart.</t>
+          <t>Summarized description: Montmartre is one of the oldest, most authentic areas of Paris. Your local expert guide will take you through the area’s little-known nooks and crannies.</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Title: Montmartre Small-Group Family Tour</t>
+          <t>Title: Hidden Montmartre Guided Walk of the Artists' Quarter</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 398416P1</t>
+          <t>PRODUCTCODE: 20502P4</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21037,7 +21037,7 @@
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was the birthplace of both the Jesuit Order and the modern Counterculture. One must see the workshops and cafés where Renoir, Vang Gogh and Picasso championed new art forms.</t>
+          <t>Summarized description: Enjoy a walking tour through Artists life in Mythical Montmartre. You’ll discover secrets places, listen to a lot of anecdotes about great Painters, Picasso or Van Gogh. Also relax with a glass of wine offer in a typical bistro of this Mythical neighborhood.</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Title: Secrets of Montmartre from the Moulin Rouge to the Sacré Cœur</t>
+          <t>Title: Montmartre Artist Tour in Paris</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P22</t>
+          <t>PRODUCTCODE: 6877P96</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21112,7 +21112,7 @@
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour walking tour with a professional local guide. Explore the best of Montmartre in the footsteps of the Impressionists. Enjoy one of the most authentic district of Paris with your private guide.</t>
+          <t>Summarized description: Discover the most bohemian neighborhood in Paris and the birthplace of some of the most renowned French painters and artists. Visit the Moulin Rouge, the Place des Abbesses and the Sacre Coeur.</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Title: Montmartre Exclusive Impressionist Small Group Walking Tour</t>
+          <t>Title: Walking tour of Montmartre</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 192144P4</t>
+          <t>PRODUCTCODE: 9200P8</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21187,7 +21187,7 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montmartre, the most iconic neighborhood in Paris. Walk the cobblestone streets and follow the path of the legendary painters and street artists.</t>
+          <t>Summarized description: Montmartre is one of Paris' most beloved neighborhoods. You may remember that the beloved film Amelie takes place in Montmartre. You'll visit the cafe she frequented as well.</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Walking Tour</t>
+          <t>Title: Private Tour of Montmartre and Sacre Coeur</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 385023P18</t>
+          <t>PRODUCTCODE: 332536P586</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21262,7 +21262,7 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the beautiful city center of Montmartre at your own pace. This self-guided audio tour will take you to all the well-known spots and undiscovered gems. Go on a journey of discovery with your virtual audio guide.</t>
+          <t>Summarized description: Discover the best of Parisian culture and bohemian dreams in Montmartre. See the legendary Moulin Rouge and hear stories about Van Gogh, Dali and other famous artists who lived here. Optional: visit the Sacré-Cœur Basilica.</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre: Walking Tour with Audio Guide on App</t>
+          <t>Title: Private Walking Tour of Montmartre and Sacré-Cœur Basilica</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 123815P1</t>
+          <t>PRODUCTCODE: 125783P5</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21337,7 +21337,7 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>Summarized description: Journey takes place inside the private Montmartre Museum. Led by Thierry Secretan, a French author and journalist. Ends with a glass of champagne in Renoir's Garden.</t>
+          <t>Summarized description: Photography tour around Montmartre. Our local photographer will meet you at a prearranged location. During the tour, show you some of the most magical locations.</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Title: The true spirit of Montmartre with journalist Thierry Secretan</t>
+          <t>Title: Montmartre Insta Photography, Food shop street and Walking tour</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P522</t>
+          <t>PRODUCTCODE: 235760P7</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21412,7 +21412,7 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris's most picturesque neighborhoods. Get to know your host and explore one of the city's most beautiful neighborhoods.</t>
+          <t>Summarized description: Montmartre is a charming village in a busy city. Discover this romantic corner of Paris and enjoy stunning views and peaceful atmosphere in its cobblestone streets.</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Title: Seasonal French Lunch and Small-group Tour of Montmartre</t>
+          <t>Title: Paris Premium Tour : Basilique Sacré &amp; Montmartre with a Art Historian</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 158731P4</t>
+          <t>PRODUCTCODE: 157994P3</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21487,7 +21487,7 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Montmartre district through a treasure hunt designed for all occasions. Between a stroll and a mystery, set off as a team to collect the many clues that will help you to unravel the mystery.</t>
+          <t>Summarized description: We'll hear about the painters, acrobats, street performers, absinthe-drinkers, poets, ragpickers, vagabonds and streetwalkers who settled in Montmartre. We'll see where Picasso painted, where Van Gogh and Renoir got drunk, and we'll walk down to the 'Harlem of Paris' where the Lost Generation discovered jazz.</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Title: Private Scavenger Hunt in Montmartre</t>
+          <t>Title: 'Bohemians of Paris' Walk in Montmartre</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 133687P69</t>
+          <t>PRODUCTCODE: 129032P4</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21562,7 +21562,7 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Montmartre's history and the secrets with a private guide. You will see attractions such as the Moulin Rouge and hear about bohemian life during the Belle Époque.</t>
+          <t>Summarized description: Your Guide-Conferencier will make you discover the iconic places of this capital district of the capital. You will pass in the most confidential and unknown streets of this colorful district.</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Title: Paris: Montmartre and Sacré Coeur Experience</t>
+          <t>Title: Montmartre and its secrets</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21607,7 +21607,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746P45</t>
+          <t>PRODUCTCODE: 351948P1</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the most iconic district of Paris. This private tour introduces you to the bohemian village of Montmartre. This tour will include the must-sees Sacre Coeur, artists' square, the funicular, the best views of Paris etc.</t>
+          <t>Summarized description: To browse Montmartre is to discover this district through its history. From Saint-Denis to the recent artistic movements that have made the reputation of this mythical place in Paris, original and earthy.</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr"/>
@@ -21652,7 +21652,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montmartre Village Private Walking Tour with Sacre Coeur Rooftop </t>
+          <t>Title: Montmartre Private Tour</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr"/>
@@ -21667,7 +21667,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -21682,7 +21682,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr"/>
@@ -21697,7 +21697,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P28</t>
+          <t>PRODUCTCODE: 105229P5</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr"/>
@@ -21712,7 +21712,7 @@
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>Summarized description: Spend a day enjoying France’s most famous treasures: art and wine. Start your day in the company of the Mona Lisa and her world famous friends. Then head across the city to Montmartre, to one of the best-kept secrets.</t>
+          <t>Summarized description: Montmartre is a melting pot of Van Gogh, Picasso and Dali. Explore the creativity, community and quirky secrets of one of the most unique areas of Paris.</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr"/>
@@ -21727,7 +21727,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Title: Art and Wine in Paris: Louvre, Wine Cellars and Montmartre Vineyard</t>
+          <t>Title: Private Walking Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr"/>
@@ -21742,7 +21742,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr"/>
@@ -21757,7 +21757,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384373P3</t>
+          <t>PRODUCTCODE: 243313P6</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr"/>
@@ -21787,7 +21787,7 @@
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to famous artists such as Van Gogh, Picasso Monet and others. The district was also the setting for much of the film Amélie.</t>
+          <t>Summarized description: The iconic neighborhood in Paris is the Montmarte. It is also artist, community, and historic site. On this tour you can get to see the best things ,sites that the city offers.</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Title: Montmartre-Sacré Coeur Walking Tour: Semi Private Experience</t>
+          <t>Title: Paris Tour at Montmartre : Remarkable Places and Surprising Gems (Private)</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr"/>
@@ -21817,7 +21817,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr"/>
@@ -21832,7 +21832,7 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr"/>
@@ -21847,7 +21847,7 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 343759P11</t>
+          <t>PRODUCTCODE: 435084P4</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr"/>
@@ -21862,7 +21862,7 @@
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre was home to some of the most famous artists of all time, such as Picasso, Van Gogh, Renoir, Braque, and Matisse. Explore Montmartre's rich history and cultural significance with a local guide.</t>
+          <t>Summarized description: Montmartre is home to the Basilica of the Sacré-Cœur and Place du Tertre. You'll benefit from information and stories that only locals can provide. I will share the stories of famous artists who frequented Montmartre.</t>
         </is>
       </c>
       <c r="B1425" t="inlineStr"/>
@@ -21877,7 +21877,7 @@
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>Title: Montmartre Art, Culture &amp; Rebel Legacy: Semi-Private Walking Tour</t>
+          <t>Title: 3 Hours Private Walking Tour of Montmartre and Paris</t>
         </is>
       </c>
       <c r="B1426" t="inlineStr"/>
@@ -21892,7 +21892,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr"/>
@@ -21907,7 +21907,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr"/>
@@ -21922,7 +21922,7 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P22</t>
+          <t>PRODUCTCODE: 420543P4</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr"/>
@@ -21937,7 +21937,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the vibrant past of the renowned and enduring Moulin Rouge. Visit the renowned Sacre-Coeur Basilica to take in the expansive vista.</t>
+          <t>Summarized description: Step into the enchanting world of Montmartre with our curated tour. Discover hidden gems like La Maison Rose, and embrace the artistic spirit of Place du Tertre.</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr"/>
@@ -21952,7 +21952,7 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>Title: Paris: Walking tour of Montmartre (Guided Tour)</t>
+          <t>Title:  Guided Tour to Montmartre &amp; Sacré-Cœur Chronicles</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr"/>
@@ -21982,7 +21982,7 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr"/>
@@ -21997,7 +21997,7 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3234P48</t>
+          <t>PRODUCTCODE: 14787P6</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr"/>
@@ -22012,7 +22012,7 @@
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>Summarized description: Over three hours your expert food guide will take you through the streets of Montmartre. Groups are limited to 8 people maximum to guarantee an intimate and friendly experience. Samples and tastings are included to help you refine your palette.</t>
+          <t>Summarized description: Stroll around the Montmartre area with your professional photography guide. Capture the memories on 300 photos of you near such places as the Basilica of Sacre-Coeur and Moulin Rouge.</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr"/>
@@ -22027,7 +22027,7 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>Title: Parisian Gastronomy and Culture: Montmartre Food Walking Tour</t>
+          <t>Title: Professional Photo Shoot Tour in Paris' Montmartre</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr"/>
@@ -22042,7 +22042,7 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr"/>
@@ -22057,7 +22057,7 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr"/>
@@ -22072,7 +22072,7 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 462750P3</t>
+          <t>PRODUCTCODE: 150467P10</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr"/>
@@ -22087,7 +22087,7 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>Summarized description: A unique walking tour with a local city guide. Follow me through some iconic streets, off the beaten path. You will be rewarded with a thrilling view of Paris.</t>
+          <t>Summarized description: This is a 2-hour private walking tour intended to focus on Montmartre neighborhood by night. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes the area so nice.</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr"/>
@@ -22102,7 +22102,7 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>Title: Guided Walking Tour through the Old Artist Village Montmartre</t>
+          <t>Title: Montmartre by Night Private Tour</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr"/>
@@ -22117,7 +22117,7 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr"/>
@@ -22147,7 +22147,7 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P133</t>
+          <t>PRODUCTCODE: 33567P5</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr"/>
@@ -22162,7 +22162,7 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest, most authentic areas of Paris. Your local expert guide will take you through the area’s little-known nooks and crannies.</t>
+          <t>Summarized description: Montmartre is one of Paris’ most atmospheric neighbourhoods. The bohemian district offers plenty of photo opportunities. A professional photographer guide will help you improve your photography skills.</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr"/>
@@ -22177,7 +22177,7 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>Title: Hidden Montmartre Guided Walk of the Artists' Quarter</t>
+          <t>Title: Montmartre Poetic Photo Walk by night</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr"/>
@@ -22192,7 +22192,7 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr"/>
@@ -22207,7 +22207,7 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr"/>
@@ -22222,7 +22222,7 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20502P4</t>
+          <t>PRODUCTCODE: 371334P2</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr"/>
@@ -22237,7 +22237,7 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a walking tour through Artists life in Mythical Montmartre. You’ll discover secrets places, listen to a lot of anecdotes about great Painters, Picasso or Van Gogh. Also relax with a glass of wine offer in a typical bistro of this Mythical neighborhood.</t>
+          <t>Summarized description: Explore some of the city of light's most famous landmarks such as the Sacre Coeur and Moulin Rouge. Explore less-known but exciting spots, filled with history and local culture.</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr"/>
@@ -22252,7 +22252,7 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>Title: Montmartre Artist Tour in Paris</t>
+          <t>Title: Montmartre Walking Tour From Moulin Rouge To Scare Coeur</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr"/>
@@ -22267,7 +22267,7 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr"/>
@@ -22282,7 +22282,7 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6877P96</t>
+          <t>PRODUCTCODE: 452894P2</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr"/>
@@ -22312,7 +22312,7 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the most bohemian neighborhood in Paris and the birthplace of some of the most renowned French painters and artists. Visit the Moulin Rouge, the Place des Abbesses and the Sacre Coeur.</t>
+          <t>Summarized description: Montmartre is the artistic district of Paris. The district is filled with love stories and legends. It includes the Saint-Pierre Market, the Maison de Dalida and the Basilica of the Sacred Heart.</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr"/>
@@ -22327,7 +22327,7 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>Title: Walking tour of Montmartre</t>
+          <t>Title: 2 Hour Walk in Montmartre</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr"/>
@@ -22342,7 +22342,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr"/>
@@ -22372,7 +22372,7 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9200P8</t>
+          <t>PRODUCTCODE: 132681P5</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr"/>
@@ -22387,7 +22387,7 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris' most beloved neighborhoods. You may remember that the beloved film Amelie takes place in Montmartre. You'll visit the cafe she frequented as well.</t>
+          <t>Summarized description: Explore the most famous district of Paris with a guide on a private walking tour. Learn about this charming area from your guide and find out why its been so beloved by artists since the 18th century.</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr"/>
@@ -22402,7 +22402,7 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Montmartre and Sacre Coeur</t>
+          <t>Title: Paris Montmartre : Private Guided Walking Tour</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr"/>
@@ -22417,7 +22417,7 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr"/>
@@ -22432,7 +22432,7 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr"/>
@@ -22447,7 +22447,7 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P586</t>
+          <t>PRODUCTCODE: 423194P3</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the best of Parisian culture and bohemian dreams in Montmartre. See the legendary Moulin Rouge and hear stories about Van Gogh, Dali and other famous artists who lived here. Optional: visit the Sacré-Cœur Basilica.</t>
+          <t>Summarized description: Tour of Paris begins at the iconic Moulin Rouge. You will walk on the streets where Van Gogh, Henri de Toulouse-Lautrec, Pissarro and other artists lived &amp; worked. Your tour concludes at the summit of Montmartre where the steps of the Sacre-Coeur host millions of visitors.</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr"/>
@@ -22477,7 +22477,7 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre and Sacré-Cœur Basilica</t>
+          <t>Title: Montmartre Walking Tour: The Best of Paris - Art, Culture &amp; Food</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr"/>
@@ -22492,7 +22492,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr"/>
@@ -22507,7 +22507,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr"/>
@@ -22522,7 +22522,7 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 125783P5</t>
+          <t>PRODUCTCODE: 449245P2</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr"/>
@@ -22537,7 +22537,7 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>Summarized description: Photography tour around Montmartre. Our local photographer will meet you at a prearranged location. During the tour, show you some of the most magical locations.</t>
+          <t>Summarized description: Montmartre is an escape from the typical Paris, with its winding streets, bohemian spirit and scandalous stories. With us on this tour, you'll get to learn and engage with the history of the neighborhood, the famous artists that lived there, and also hidden gems on the way.</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr"/>
@@ -22552,7 +22552,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>Title: Montmartre Insta Photography, Food shop street and Walking tour</t>
+          <t xml:space="preserve">Title: The Ultimate Montmartre Semi-Private Walking Tour &amp; Sacre Coeur </t>
         </is>
       </c>
       <c r="B1471" t="inlineStr"/>
@@ -22582,7 +22582,7 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr"/>
@@ -22597,7 +22597,7 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 235760P7</t>
+          <t>PRODUCTCODE: 266623P2</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr"/>
@@ -22612,7 +22612,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming village in a busy city. Discover this romantic corner of Paris and enjoy stunning views and peaceful atmosphere in its cobblestone streets.</t>
+          <t>Summarized description: Walking though Montmartre is like walking through a film set. Marie walks you to sites like Paris's last surviving windmill and vineyard. Sacre Coeur, with its incredible views over Paris.</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Title: Paris Premium Tour : Basilique Sacré &amp; Montmartre with a Art Historian</t>
+          <t>Title: Virtual Walking Tour of Iconic Parisian Enclave Montmartre</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr"/>
@@ -22657,7 +22657,7 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr"/>
@@ -22672,7 +22672,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157994P3</t>
+          <t>PRODUCTCODE: 368071P1</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr"/>
@@ -22687,7 +22687,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>Summarized description: We'll hear about the painters, acrobats, street performers, absinthe-drinkers, poets, ragpickers, vagabonds and streetwalkers who settled in Montmartre. We'll see where Picasso painted, where Van Gogh and Renoir got drunk, and we'll walk down to the 'Harlem of Paris' where the Lost Generation discovered jazz.</t>
+          <t>Summarized description: This guided tour of Montmartre will allow you to discover the history of this ancient village. The visit will start in front of the Lapin Agile cabaret where we will tell you about Boronali's incredible artistic prank. We will also see the mysterious Château des Fogs, the Moulin de la Galette and the house of singer Dalida.</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr"/>
@@ -22702,7 +22702,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Title: 'Bohemians of Paris' Walk in Montmartre</t>
+          <t>Title: Historical and Cultural Guided Tour of Montmartre</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr"/>
@@ -22732,7 +22732,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr"/>
@@ -22747,7 +22747,7 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255404P2</t>
+          <t>PRODUCTCODE: 226727P56</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr"/>
@@ -22762,7 +22762,7 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the secrets of some of the most emblematic places in Paris. Discover anecdotes and details that are often overlooked in these often-frequented places.</t>
+          <t>Summarized description: Montmartre is considered to be the most magnificent district of Paris. Explore Montmartre District with the private audio tour available on WeGoTrip App.</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>Title: Unusual cultural walk and photoshoot in the historical heart of Paris</t>
+          <t>Title: Montmartre District Sightseeing Audio Tour in Paris on the Mobile App</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr"/>
@@ -22807,7 +22807,7 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr"/>
@@ -22822,7 +22822,7 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P145</t>
+          <t>PRODUCTCODE: 128905P78</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr"/>
@@ -22837,7 +22837,7 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>Summarized description: Small Group Half Day Trip for 2 to 7 people by our comfortable air-conditioned Minivan. Tour includes walking tours in Montmartre, in Latin Quarter and famous Sainte-Chapelle. Hotel Pick up included, Tiered Pricing.</t>
+          <t>Summarized description: This self-guided interactive walking tour will let you discover the charming and picturesque quarter of Montmartre. Visit the house where Vincent van Gogh once lived and worked, visit the cemetery where luminaries including Edgar Degas, Emile Zola and Jacques Offenbach are buried.</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr"/>
@@ -22852,7 +22852,7 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>Title: Paris City tour Montmartre, Latin Quarter, St.Chapelle 2-7 people</t>
+          <t>Title: Paris Montmartre &amp; Sacre Coeur: Self-Guided Walking Tour with Mobile App</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr"/>
@@ -22897,7 +22897,7 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 129032P4</t>
+          <t>PRODUCTCODE: 409362P2</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr"/>
@@ -22912,7 +22912,7 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>Summarized description: Your Guide-Conferencier will make you discover the iconic places of this capital district of the capital. You will pass in the most confidential and unknown streets of this colorful district.</t>
+          <t>Summarized description: Tours start at the Montmartre Cemetery and finish at the Sacré Coeur. We will see the famous mill painted by Auguste Renoir and the famous singer Dalida's home.</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr"/>
@@ -22927,7 +22927,7 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>Title: Montmartre and its secrets</t>
+          <t>Title: Montmartre Sightseeing Guided Walking Tour</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr"/>
@@ -22972,7 +22972,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 351948P1</t>
+          <t>PRODUCTCODE: 248877P9</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr"/>
@@ -22987,7 +22987,7 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>Summarized description: To browse Montmartre is to discover this district through its history. From Saint-Denis to the recent artistic movements that have made the reputation of this mythical place in Paris, original and earthy.</t>
+          <t>Summarized description: Montmartre is a charming village within a bustling city. The cobblestone streets of Montmartre will leave you speechless. Learn more about this beautiful architectural style which is oh so Parisian.</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr"/>
@@ -23002,7 +23002,7 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>Title: Montmartre Private Tour</t>
+          <t xml:space="preserve">Title: Paris Sacré-Coeur Basilica &amp; Montmartre Private Tour (with an Art Historian) </t>
         </is>
       </c>
       <c r="B1501" t="inlineStr"/>
@@ -23032,7 +23032,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr"/>
@@ -23047,7 +23047,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105229P5</t>
+          <t>PRODUCTCODE: 51192P171</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr"/>
@@ -23062,7 +23062,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a melting pot of Van Gogh, Picasso and Dali. Explore the creativity, community and quirky secrets of one of the most unique areas of Paris.</t>
+          <t>Summarized description: Visit Place du Tertre and trace artistic legends such as Monet, Renoir, and Van Gogh. Explore the famous Sacré-Coeur Basilica and Saint Jean de Montmartre Church with an expert guide.</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr"/>
@@ -23077,7 +23077,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>Title: Private Walking Tour of Montmartre</t>
+          <t>Title: Paris: Guided Walking Tour In Montmartre and Sacré-Coeur</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P6</t>
+          <t>PRODUCTCODE: 128905P1</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr"/>
@@ -23137,7 +23137,7 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Summarized description: The iconic neighborhood in Paris is the Montmarte. It is also artist, community, and historic site. On this tour you can get to see the best things ,sites that the city offers.</t>
+          <t>Summarized description: Montmartre is considered to be the most beautiful city in France. It is home to some of the most famous artists and musicians in the world. The city is also famous for its food and drink.</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr"/>
@@ -23152,7 +23152,7 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Title: Paris Tour at Montmartre : Remarkable Places and Surprising Gems (Private)</t>
+          <t>Title: Bohemian Montmartre with Mobile App: The Most Magnificent Quarter of Paris</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr"/>
@@ -23182,7 +23182,7 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr"/>
@@ -23197,7 +23197,7 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 397589P20</t>
+          <t>PRODUCTCODE: 129032P5</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr"/>
@@ -23212,7 +23212,7 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>Summarized description: Outdoor show: Discover the famous writers who stayed or wrote on the Butte Montmartre. The artist will interpret all the characters, with a different incarnation each time. Feel in situ the literary universes, the unusual anecdotes, and the words of the authors.</t>
+          <t>Summarized description: Street Art in the most famous and touristic district of Paris. Whether you are Parisian or passing through, go and discover Street Art.</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr"/>
@@ -23227,7 +23227,7 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>Title: Show and aperitif The Montmartre of writers</t>
+          <t>Title: Street art in Montmartre, between history and modernity</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr"/>
@@ -23257,7 +23257,7 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr"/>
@@ -23272,7 +23272,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 435084P4</t>
+          <t>PRODUCTCODE: 107859P533</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is home to the Basilica of the Sacré-Cœur and Place du Tertre. You'll benefit from information and stories that only locals can provide. I will share the stories of famous artists who frequented Montmartre.</t>
+          <t>Summarized description: Paris is a beautiful sight to behold &amp; photograph! Join me and capture the magical vibes of Montmartre on a private tour with me. The choice is yours, either by day or night. The result will be the same, beautiful photos of one of the most iconic areas in Paris!</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr"/>
@@ -23302,7 +23302,7 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>Title: 3 Hours Private Walking Tour of Montmartre and Paris</t>
+          <t>Title: France Paris Montmartre Day &amp; Night Private Photo Tour</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr"/>
@@ -23332,7 +23332,7 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr"/>
@@ -23347,7 +23347,7 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161194P1</t>
+          <t>PRODUCTCODE: 179966P4</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr"/>
@@ -23362,7 +23362,7 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>Summarized description: I will take you to my favorite neighborhood, Montmartre. You will enjoy the Parisian way of living off the beaten track. I will have planned different sweet breaks in typical French pastry shops (at least 5) during our walk.</t>
+          <t>Summarized description: Discover the Basilica of the Sacred Heart, the Place du Tertre or the Moulin de la Galette with one of the guides-speakers of our agency. Choosing our agency is a guarantee of quality for your future visits.</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr"/>
@@ -23377,7 +23377,7 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>Title: Visit Montmartre with a pastry chef</t>
+          <t>Title: From Moulin Rouge to Sacré Coeur, Montmartre and Bohemian life (private tour)</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr"/>
@@ -23407,7 +23407,7 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr"/>
@@ -23422,7 +23422,7 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420543P4</t>
+          <t>PRODUCTCODE: 235760P21</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr"/>
@@ -23437,7 +23437,7 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the enchanting world of Montmartre with our curated tour. Discover hidden gems like La Maison Rose, and embrace the artistic spirit of Place du Tertre.</t>
+          <t>Summarized description: Discover Montmartre away from the touristy crowds! The walking part of the tour can last between 1h30 and 2h30 minutes, depending on the time you want to spend. Meet a true Parisian, who can give you plenty of information about your stay.</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>Title:  Guided Tour to Montmartre &amp; Sacré-Cœur Chronicles</t>
+          <t>Title: France Experience : Adventure Montmartre Private Walking Tour</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr"/>
@@ -23482,7 +23482,7 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr"/>
@@ -23497,7 +23497,7 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 152849P5</t>
+          <t>PRODUCTCODE: 108889P17</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr"/>
@@ -23512,7 +23512,7 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>Summarized description: The Montmartre Tourist Scavenger Hunt takes you on a self-guided walking tour. See all the sights while having fun and of course, learning some history too!</t>
+          <t>Summarized description: In 1900 Montmartre was the world capital of artists. Your professional guide will explain to you why Picasso, Van Gogh, Renoir, Degas, Toulouse Lautrec used to live their. You will love the charming streets &amp; atmosphere.</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr"/>
@@ -23527,7 +23527,7 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre Tourist Scavenger Hunt</t>
+          <t>Title: Artists in Montmartre &amp; Sacred heart private tour</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr"/>
@@ -23557,7 +23557,7 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr"/>
@@ -23572,7 +23572,7 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14787P6</t>
+          <t>PRODUCTCODE: 101116P3</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr"/>
@@ -23587,7 +23587,7 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>Summarized description: Stroll around the Montmartre area with your professional photography guide. Capture the memories on 300 photos of you near such places as the Basilica of Sacre-Coeur and Moulin Rouge.</t>
+          <t>Summarized description: Montmartre is one of the oldest neighbourhoods in Paris. It is home to many famous artists, including Picasso, Van Gogh and Renoir. Children will be engaged by the stories the group around Alberto can tell them.</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr"/>
@@ -23602,7 +23602,7 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>Title: Professional Photo Shoot Tour in Paris' Montmartre</t>
+          <t>Title: Montmartre &amp; Sacre Coeur Tour for Kids &amp; Families w Alberto &amp; his team in Paris</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr"/>
@@ -23632,7 +23632,7 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr"/>
@@ -23647,7 +23647,7 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150467P10</t>
+          <t>PRODUCTCODE: 20455P326</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr"/>
@@ -23662,7 +23662,7 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>Summarized description: This is a 2-hour private walking tour intended to focus on Montmartre neighborhood by night. Your guide is a native Parisian, speaking fluent English, who is willing to show and explain you what makes the area so nice.</t>
+          <t>Summarized description: Private guided tour of Montmartre will allow you to feel the bohemian atmosphere of the district. You will walk the narrow streets and discover the hidden corners of the area while your local expert guide will tell you about the old cafes.</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr"/>
@@ -23677,7 +23677,7 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>Title: Montmartre by Night Private Tour</t>
+          <t>Title: Montmartre Quarter Private Guided Tour in Paris</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr"/>
@@ -23707,7 +23707,7 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr"/>
@@ -23722,7 +23722,7 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 33567P5</t>
+          <t>PRODUCTCODE: 320547P143</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr"/>
@@ -23737,7 +23737,7 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of Paris’ most atmospheric neighbourhoods. The bohemian district offers plenty of photo opportunities. A professional photographer guide will help you improve your photography skills.</t>
+          <t>Summarized description: Montmartre is one of Paris' most famous districts. The district is a melting pot of art and inspiration for the cinema. The cobbled streets of the 18th arrondissement are a real pleasure to explore.</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr"/>
@@ -23752,7 +23752,7 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>Title: Montmartre Poetic Photo Walk by night</t>
+          <t xml:space="preserve">Title: Private Walking Tour of "Montmartre" area in Paris </t>
         </is>
       </c>
       <c r="B1551" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr"/>
@@ -23797,7 +23797,7 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 371334P2</t>
+          <t>PRODUCTCODE: 73434P108</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr"/>
@@ -23812,7 +23812,7 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the city of light's most famous landmarks such as the Sacre Coeur and Moulin Rouge. Explore less-known but exciting spots, filled with history and local culture.</t>
+          <t>Summarized description: Explore the history and magnificent details of this marvelous neighborhood in Paris. Walk through the footsteps of the famous artists, through the terrace cafes to romping bars and clubs, and saucy can-can dancers.</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr"/>
@@ -23827,7 +23827,7 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour From Moulin Rouge To Scare Coeur</t>
+          <t>Title: Montmartre Neighbourhood Tour in Paris</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr"/>
@@ -23857,7 +23857,7 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr"/>
@@ -23872,7 +23872,7 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 452894P2</t>
+          <t>PRODUCTCODE: 46334P47</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr"/>
@@ -23887,7 +23887,7 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the artistic district of Paris. The district is filled with love stories and legends. It includes the Saint-Pierre Market, the Maison de Dalida and the Basilica of the Sacred Heart.</t>
+          <t>Summarized description: Montmartre is one of the most beautiful parts of Paris. Artists lived, drank, danced and painted there. Explore tiny alleyways, evocative cobbled streets and quiet squares.</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr"/>
@@ -23902,7 +23902,7 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>Title: 2 Hour Walk in Montmartre</t>
+          <t>Title: Hidden Paris: Old Montmartre Tour with VIP Vineyard Visit and Wine Tasting</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132681P5</t>
+          <t>PRODUCTCODE: 110155P7</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr"/>
@@ -23962,7 +23962,7 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the most famous district of Paris with a guide on a private walking tour. Learn about this charming area from your guide and find out why its been so beloved by artists since the 18th century.</t>
+          <t>Summarized description: Learn all about Montmartre and the people who have shaped the district. Van Gogh, Picasso, Renoir, Matisse and many other great painters have lived here. Admire the last windmill in the city.</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr"/>
@@ -23977,7 +23977,7 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre : Private Guided Walking Tour</t>
+          <t>Title: Montmartre - 2hours Chinese guided walking tour</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr"/>
@@ -24007,7 +24007,7 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr"/>
@@ -24022,7 +24022,7 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423194P3</t>
+          <t>PRODUCTCODE: 266661P29</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr"/>
@@ -24037,7 +24037,7 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of Paris begins at the iconic Moulin Rouge. You will walk on the streets where Van Gogh, Henri de Toulouse-Lautrec, Pissarro and other artists lived &amp; worked. Your tour concludes at the summit of Montmartre where the steps of the Sacre-Coeur host millions of visitors.</t>
+          <t>Summarized description: Montmartre has been home to artists like Van Gogh and Henri de Toulouse-Lautrec. Take a two-hour walking tour through the neighborhood to discover its history and culture.</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr"/>
@@ -24052,7 +24052,7 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>Title: Montmartre Walking Tour: The Best of Paris - Art, Culture &amp; Food</t>
+          <t>Title: Montmartre - Private Guided Walking Tour with a Local</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr"/>
@@ -24082,7 +24082,7 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr"/>
@@ -24097,7 +24097,7 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 449245P2</t>
+          <t>PRODUCTCODE: 320547P568</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is an escape from the typical Paris, with its winding streets, bohemian spirit and scandalous stories. With us on this tour, you'll get to learn and engage with the history of the neighborhood, the famous artists that lived there, and also hidden gems on the way.</t>
+          <t>Summarized description: The Montmartre Cheese and Wine Tasting Walking Tour is a popular activity for visitors to Paris. This tour typically takes about 2 hours and includes stops at local cheese shops and wine bars.</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr"/>
@@ -24127,7 +24127,7 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Ultimate Montmartre Semi-Private Walking Tour &amp; Sacre Coeur </t>
+          <t>Title: Montmartre Cheese and Wine tasting Walking Tour</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr"/>
@@ -24157,7 +24157,7 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr"/>
@@ -24172,7 +24172,7 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 127541P11</t>
+          <t>PRODUCTCODE: 5944P16</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr"/>
@@ -24187,7 +24187,7 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the best pastry Montmartre has to offer during this 2 hour walking tour. Make several stops at different local shops to try macarons, chocolate, pastry and many other sweets.</t>
+          <t>Summarized description: Montmartre is nicknamed "the village" by Parisians. With its exquisite squares, pretty churches and idyllic, winding streets, it’s easy to see why artists fell in love with this neighbourhood.</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr"/>
@@ -24202,7 +24202,7 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>Title: Chocolate and pastry tour- Montmartre - 6 tastings with local pastry guide</t>
+          <t>Title: Private tour of Montmartre</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr"/>
@@ -24232,7 +24232,7 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr"/>
@@ -24247,7 +24247,7 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 266623P2</t>
+          <t>PRODUCTCODE: 104883P39</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr"/>
@@ -24262,7 +24262,7 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>Summarized description: Walking though Montmartre is like walking through a film set. Marie walks you to sites like Paris's last surviving windmill and vineyard. Sacre Coeur, with its incredible views over Paris.</t>
+          <t>Summarized description: Montmartre is one of the most charming and authentic neighbourhoods of the city. Discover the bohemian side of Paris and visit the magnificent Sacré Coeur Basilica on our family-oriented private tour.</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>Title: Virtual Walking Tour of Iconic Parisian Enclave Montmartre</t>
+          <t>Title: Paris Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr"/>
@@ -24307,7 +24307,7 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr"/>
@@ -24322,7 +24322,7 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P771</t>
+          <t>PRODUCTCODE: 266661P22</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr"/>
@@ -24337,7 +24337,7 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is the most famous Parisian district. Perched on the top of a small hill in the 18th arrondissement. A melting pot of art and inspiration for the cinema.</t>
+          <t>Summarized description: Montmartre food tour aims to combine wine, local products, meats, and desserts. We will eat and drink our way through the Montmartre. Along the way expect to try local wine, cheese, pastries, meats and chocolate.</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr"/>
@@ -24352,7 +24352,7 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>Title: Private Vintage Car with "Montmartre"area in Paris &amp;CDG Transfers</t>
+          <t>Title: Montmartre Food Tour - Cheese, Chocolate, Wine and more!</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr"/>
@@ -24397,7 +24397,7 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368071P1</t>
+          <t>PRODUCTCODE: 115227P1</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr"/>
@@ -24412,7 +24412,7 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>Summarized description: This guided tour of Montmartre will allow you to discover the history of this ancient village. The visit will start in front of the Lapin Agile cabaret where we will tell you about Boronali's incredible artistic prank. We will also see the mysterious Château des Fogs, the Moulin de la Galette and the house of singer Dalida.</t>
+          <t>Summarized description: Montmartre was chosen for filming “Amelie’ — the film that touched the hearts of millions of people around the world. “I wanted that my movie make people happy” — Jean-Pierre Jeunet, film director of “Le Fabuleux destin d'Amélie Poulain”</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr"/>
@@ -24427,7 +24427,7 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>Title: Historical and Cultural Guided Tour of Montmartre</t>
+          <t>Title: The world of Amelie from Montmartre</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr"/>
@@ -24457,7 +24457,7 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr"/>
@@ -24472,7 +24472,7 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P407</t>
+          <t>PRODUCTCODE: 5746ESMONTMARTREWALK</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr"/>
@@ -24487,7 +24487,7 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is famous for its artistic heritage and a distinctive village atmosphere characterized by steep, winding, cobbled streets. Saint-Germain-des-Prés is known for the literary and artistic celebrities who lived and worked here in the late 19th and early 20th centuries.</t>
+          <t>Summarized description: Montmartre is one of Paris' most charming neighborhoods. Follow a local Spanish-speaking guide to explore the historic district. Visit famous attractions like Moulin Rouge and Basilique du Sacré-Coeur.</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr"/>
@@ -24502,7 +24502,7 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>Title: 8-Hour Paris City Tour with Montmartre, Marais and Dinner Cruise</t>
+          <t>Title: Paris Walking Tour: Montmartre with a Spanish-Speaking Guide</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr"/>
@@ -24532,7 +24532,7 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr"/>
@@ -24547,7 +24547,7 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P4</t>
+          <t>PRODUCTCODE: 252536P1</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr"/>
@@ -24562,7 +24562,7 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the vibrant Montmartre neighbourhood. Enjoy beautiful sights, delicious wine, fresh oysters, and more along the way. Private tour: only you &amp; your localhost!</t>
+          <t>Summarized description: A walk in Montmartre, orchestrated with magic tricks, a learning of 3 professional magic tricks and a magic gift (the Magiepro box)</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr"/>
@@ -24577,7 +24577,7 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Beautiful Evening in Montmartre : Bites &amp; Sights (Food and drinks) </t>
+          <t>Title: Magic in Montmartre</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Workshops and Classes', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr"/>
@@ -24622,7 +24622,7 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P56</t>
+          <t>PRODUCTCODE: 265370P13</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr"/>
@@ -24637,7 +24637,7 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is considered to be the most magnificent district of Paris. Explore Montmartre District with the private audio tour available on WeGoTrip App.</t>
+          <t>Summarized description: Montmartre is one of the most visited areas in the City of Lights. Famous for the great number of artists mainly painters who lived in its steep cobble-stone streets. We offer to show you the real local side of the district taking through the little local streets.</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr"/>
@@ -24652,7 +24652,7 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>Title: Montmartre District Sightseeing Audio Tour in Paris on the Mobile App</t>
+          <t>Title: Small-Group Walking Tour of the Secrets of Montmartre</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr"/>
@@ -24697,7 +24697,7 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P956</t>
+          <t>PRODUCTCODE: 121352P15</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr"/>
@@ -24712,7 +24712,7 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>Summarized description: Cécile's Montmartre home is the heart of Parisian living. Indulge in a sumptuous 4-course meal featuring French delicacies. Explore the vibrant artistic scene of the city.</t>
+          <t>Summarized description: Knowing this picturesque area from the hand of a friend who lives in it and who knows you very well. You will discover and enjoy a walk through the streets and hidden corners of Montmartre.</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr"/>
@@ -24727,7 +24727,7 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>Title: A Tasty 4-course Parisian Dinner in Montmartre</t>
+          <t>Title: A walk in Montmartre</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P726</t>
+          <t>PRODUCTCODE: 8647P684</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr"/>
@@ -24787,7 +24787,7 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is famous for its artistic heritage and a distinctive village atmosphere characterized by steep, winding, cobbled streets. Le Marais is also an amazing area that you are going to discover with this trip.</t>
+          <t>Summarized description: Hilltop Montmartre is one of the most visited tourist spots in the city. You will discover this beautiful area with a local expert and licensed tour guide.</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr"/>
@@ -24802,7 +24802,7 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>Title: Montmartre and Dinner Cruise with CDG pick up in Paris- 6 Hrs</t>
+          <t>Title: Private walking tour of Montmartre neighborhood in Paris</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr"/>
@@ -24832,7 +24832,7 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr"/>
@@ -24847,7 +24847,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P78</t>
+          <t>PRODUCTCODE: 5411P233</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr"/>
@@ -24862,7 +24862,7 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>Summarized description: This self-guided interactive walking tour will let you discover the charming and picturesque quarter of Montmartre. Visit the house where Vincent van Gogh once lived and worked, visit the cemetery where luminaries including Edgar Degas, Emile Zola and Jacques Offenbach are buried.</t>
+          <t>Summarized description: A small-group walking tour of Paris's enigmatic Montmartre neighborhood. Home to many impressionist and modern artists. A tour of the city's most famous landmarks.</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr"/>
@@ -24877,7 +24877,7 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>Title: Paris Montmartre &amp; Sacre Coeur: Self-Guided Walking Tour with Mobile App</t>
+          <t>Title: Expert Led Tour of Paris' Montmartre Neighborhood</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr"/>
@@ -24907,7 +24907,7 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr"/>
@@ -24922,7 +24922,7 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 409362P2</t>
+          <t>PRODUCTCODE: 9205P31</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>Summarized description: Tours start at the Montmartre Cemetery and finish at the Sacré Coeur. We will see the famous mill painted by Auguste Renoir and the famous singer Dalida's home.</t>
+          <t>Summarized description: Montmartre offers a romantic glimpse into an era when raucous cabarets, bohemian soirées, and unbridled creativity were the norm. We’ll transport you back to those days by revealing things like the naughty origins of the Moulin Rouge.</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr"/>
@@ -24952,7 +24952,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>Title: Montmartre Sightseeing Guided Walking Tour</t>
+          <t>Title: 2-hour Walking Tour Through The Charms of Montmartre</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr"/>
@@ -24982,7 +24982,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr"/>
@@ -24997,7 +24997,7 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P9</t>
+          <t>PRODUCTCODE: 46018P28</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr"/>
@@ -25012,7 +25012,7 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is a charming village within a bustling city. The cobblestone streets of Montmartre will leave you speechless. Learn more about this beautiful architectural style which is oh so Parisian.</t>
+          <t>Summarized description: Explore the history of Paris’ quintessential bohemian neighborhood by visiting the bars, cafes, and streets that nurtured many of the 20th century’s finest artists. We’ll take in the views from the Sacre Coeur, see the original Moulin Rouge, pause at Picasso's old studio, and even peek into the only vineyard within the city limits.</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr"/>
@@ -25027,7 +25027,7 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Sacré-Coeur Basilica &amp; Montmartre Private Tour (with an Art Historian) </t>
+          <t>Title: In the footsteps of the Impressionists: Montmartre Tour with Sacre Coeur Views</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr"/>
@@ -25057,7 +25057,7 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr"/>
@@ -25072,7 +25072,7 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51192P171</t>
+          <t>PRODUCTCODE: 170789P1</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr"/>
@@ -25087,7 +25087,7 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Place du Tertre and trace artistic legends such as Monet, Renoir, and Van Gogh. Explore the famous Sacré-Coeur Basilica and Saint Jean de Montmartre Church with an expert guide.</t>
+          <t>Summarized description: Photographer and travel guide offers a photographic workshop in the emblematic places of Paris. "I accompany travelers in the discovery of the creative and visual potential that photography offers," she says.</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>Title: Paris: Guided Walking Tour In Montmartre and Sacré-Coeur</t>
+          <t>Title: Discovery of Montmartre - Street photo and blue hour</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr"/>
@@ -25132,7 +25132,7 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr"/>
@@ -25147,7 +25147,7 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P1</t>
+          <t>PRODUCTCODE: 181888P8</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr"/>
@@ -25162,7 +25162,7 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is considered to be the most beautiful city in France. It is home to some of the most famous artists and musicians in the world. The city is also famous for its food and drink.</t>
+          <t>Summarized description: Montmartre is a bohemian neighborhood of Paris. Visit it’s old cabarets around the Byzantine cathedral “the Sacre Coeur’</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr"/>
@@ -25177,7 +25177,7 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>Title: Bohemian Montmartre with Mobile App: The Most Magnificent Quarter of Paris</t>
+          <t>Title: Eternal Montmartre!</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr"/>
@@ -25207,7 +25207,7 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr"/>
@@ -25222,7 +25222,7 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 129032P5</t>
+          <t>PRODUCTCODE: 255404P1</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr"/>
@@ -25237,7 +25237,7 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>Summarized description: Street Art in the most famous and touristic district of Paris. Whether you are Parisian or passing through, go and discover Street Art.</t>
+          <t>Summarized description: Montmartre is one of the most picturesque neighborhoods in Paris. Discover the stories and anecdotes that have shaped the neighborhood. You will receive your edited pictures within 10 days after the tour.</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr"/>
@@ -25252,7 +25252,7 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>Title: Street art in Montmartre, between history and modernity</t>
+          <t>Title: Romantic walk &amp; photoshoot in Montmartre</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr"/>
@@ -25297,7 +25297,7 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107859P533</t>
+          <t>PRODUCTCODE: 110804P614</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr"/>
@@ -25312,7 +25312,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is a beautiful sight to behold &amp; photograph! Join me and capture the magical vibes of Montmartre on a private tour with me. The choice is yours, either by day or night. The result will be the same, beautiful photos of one of the most iconic areas in Paris!</t>
+          <t>Summarized description: Self-guided and self-paced walking tour. Follow in the footsteps of renowned artists like Pablo Picasso and Vincent Van Gogh through Paris' Montmartre district.</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr"/>
@@ -25327,7 +25327,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>Title: France Paris Montmartre Day &amp; Night Private Photo Tour</t>
+          <t>Title: Private Self-Guided Audio Tour in Paris Montmartre District</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr"/>
@@ -25357,7 +25357,7 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr"/>
@@ -25372,7 +25372,7 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 179966P4</t>
+          <t>PRODUCTCODE: 9257P4</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr"/>
@@ -25387,7 +25387,7 @@
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Basilica of the Sacred Heart, the Place du Tertre or the Moulin de la Galette with one of the guides-speakers of our agency. Choosing our agency is a guarantee of quality for your future visits.</t>
+          <t>Summarized description: You will have a chance to peek into shops, sample goodies, and sometimes just sit and take in the view. All of the afternoon walks are at leisure pace.</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr"/>
@@ -25402,7 +25402,7 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>Title: From Moulin Rouge to Sacré Coeur, Montmartre and Bohemian life (private tour)</t>
+          <t>Title: Afternoon Leisure Walk in Paris: Montmartre</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr"/>
@@ -25447,7 +25447,7 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 235760P21</t>
+          <t>PRODUCTCODE: 101116P8</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr"/>
@@ -25462,7 +25462,7 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montmartre away from the touristy crowds! The walking part of the tour can last between 1h30 and 2h30 minutes, depending on the time you want to spend. Meet a true Parisian, who can give you plenty of information about your stay.</t>
+          <t>Summarized description: Montmartre is one of the most famous places in the world. It is home to some of the world's greatest artists including Picasso, Van Gogh and Edith Piaf. This tour will take you through the streets of Montmartre.</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr"/>
@@ -25477,7 +25477,7 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>Title: France Experience : Adventure Montmartre Private Walking Tour</t>
+          <t>Title: Montmartre &amp; Sacre Coeur Tour with Local Guide Alberto and his team in Paris</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr"/>
@@ -25507,7 +25507,7 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr"/>
@@ -25522,7 +25522,7 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108889P17</t>
+          <t>PRODUCTCODE: 66049P63</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr"/>
@@ -25537,7 +25537,7 @@
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>Summarized description: In 1900 Montmartre was the world capital of artists. Your professional guide will explain to you why Picasso, Van Gogh, Renoir, Degas, Toulouse Lautrec used to live their. You will love the charming streets &amp; atmosphere.</t>
+          <t>Summarized description: We will meet in front of the metro station Abbesses and from there we will walk through the beautiful streets of Montmartre. I have discovered this area by myself and I found a lot of special spots on my long walking hours on the streets of Paris.</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr"/>
@@ -25552,7 +25552,7 @@
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>Title: Artists in Montmartre &amp; Sacred heart private tour</t>
+          <t>Title: Private Paris Photo Experience through Montmartre</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr"/>
@@ -25582,7 +25582,7 @@
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P184</t>
+          <t>PRODUCTCODE: 265370P4</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr"/>
@@ -25612,7 +25612,7 @@
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is considered to be the most magnificent district of Paris. The district concentrates everything that France is loved for: wine, delicious food, art and erotica, freedom of spirit and art.</t>
+          <t>Summarized description: Montmartre is one of the most beautiful neighbourhoods in Paris. It is home to some of the city's most famous artists, including Van Gogh, Picasso and Lautrec.</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr"/>
@@ -25627,7 +25627,7 @@
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>Title: Montmartre District: Interactive Self-Guided Walking Tour in Paris</t>
+          <t xml:space="preserve">Title: Montmartre's Secrets and Tastes in a Private Walking tour </t>
         </is>
       </c>
       <c r="B1676" t="inlineStr"/>
@@ -25657,7 +25657,7 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Food Festivals']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr"/>
@@ -25672,7 +25672,7 @@
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101116P3</t>
+          <t>PRODUCTCODE: 239576P14</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr"/>
@@ -25687,7 +25687,7 @@
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>Summarized description: Montmartre is one of the oldest neighbourhoods in Paris. It is home to many famous artists, including Picasso, Van Gogh and Renoir. Children will be engaged by the stories the group around Alberto can tell them.</t>
+          <t>Summarized description: Montmartre is a district known for its artists and historically bohemian vibe. Start your route at the Moulin Rouge and see where artists like Van Gogh, Henri de Toulouse-Lautrec, and Pissarro lived and worked. Hear stories from your guide about what makes this district stand out from the rest of Paris.</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr"/>
@@ -25702,7 +25702,7 @@
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>Title: Montmartre &amp; Sacre Coeur Tour for Kids &amp; Families w Alberto &amp; his team in Paris</t>
+          <t>Title: Paris - Place de Clichy and Montmartre Walking Tour with Private guide</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr"/>
@@ -25732,7 +25732,7 @@
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr"/>
@@ -25747,7 +25747,7 @@
     <row r="1684">
       <c r="A1684" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P326</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1684" t="inlineStr"/>
@@ -25759,1881 +25759,6 @@
       <c r="H1684" t="inlineStr"/>
       <c r="I1684" t="inlineStr"/>
     </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>Summarized description: Private guided tour of Montmartre will allow you to feel the bohemian atmosphere of the district. You will walk the narrow streets and discover the hidden corners of the area while your local expert guide will tell you about the old cafes.</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr"/>
-      <c r="C1685" t="inlineStr"/>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr"/>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr"/>
-      <c r="I1685" t="inlineStr"/>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>Title: Montmartre Quarter Private Guided Tour in Paris</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr"/>
-      <c r="C1686" t="inlineStr"/>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr"/>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
-      <c r="H1686" t="inlineStr"/>
-      <c r="I1686" t="inlineStr"/>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr"/>
-      <c r="C1687" t="inlineStr"/>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr"/>
-      <c r="H1687" t="inlineStr"/>
-      <c r="I1687" t="inlineStr"/>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr"/>
-      <c r="C1688" t="inlineStr"/>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr"/>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
-      <c r="H1688" t="inlineStr"/>
-      <c r="I1688" t="inlineStr"/>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 320547P143</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr"/>
-      <c r="C1689" t="inlineStr"/>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr"/>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr"/>
-      <c r="I1689" t="inlineStr"/>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of Paris' most famous districts. The district is a melting pot of art and inspiration for the cinema. The cobbled streets of the 18th arrondissement are a real pleasure to explore.</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr"/>
-      <c r="C1690" t="inlineStr"/>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr"/>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr"/>
-      <c r="I1690" t="inlineStr"/>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Private Walking Tour of "Montmartre" area in Paris </t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr"/>
-      <c r="C1691" t="inlineStr"/>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr"/>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr"/>
-      <c r="I1691" t="inlineStr"/>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr"/>
-      <c r="C1692" t="inlineStr"/>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr"/>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr"/>
-      <c r="I1692" t="inlineStr"/>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr"/>
-      <c r="C1693" t="inlineStr"/>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr"/>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr"/>
-      <c r="I1693" t="inlineStr"/>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 107859P501</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr"/>
-      <c r="C1694" t="inlineStr"/>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr"/>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr"/>
-      <c r="I1694" t="inlineStr"/>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>Summarized description: Family day in Montmartre. Stroll through the beautiful district and have a nice picnic while your children work on an artistic project. Tasty French treats included!</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr"/>
-      <c r="C1695" t="inlineStr"/>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr"/>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr"/>
-      <c r="H1695" t="inlineStr"/>
-      <c r="I1695" t="inlineStr"/>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>Title: France Paris Artsy Family Day in Montmartre: Picnic &amp; Crafts</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr"/>
-      <c r="C1696" t="inlineStr"/>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr"/>
-      <c r="H1696" t="inlineStr"/>
-      <c r="I1696" t="inlineStr"/>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr"/>
-      <c r="C1697" t="inlineStr"/>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr"/>
-      <c r="H1697" t="inlineStr"/>
-      <c r="I1697" t="inlineStr"/>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr"/>
-      <c r="C1698" t="inlineStr"/>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr"/>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr"/>
-      <c r="H1698" t="inlineStr"/>
-      <c r="I1698" t="inlineStr"/>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5944P16</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr"/>
-      <c r="C1699" t="inlineStr"/>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr"/>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr"/>
-      <c r="H1699" t="inlineStr"/>
-      <c r="I1699" t="inlineStr"/>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is nicknamed "the village" by Parisians. With its exquisite squares, pretty churches and idyllic, winding streets, it’s easy to see why artists fell in love with this neighbourhood.</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr"/>
-      <c r="C1700" t="inlineStr"/>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr"/>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr"/>
-      <c r="H1700" t="inlineStr"/>
-      <c r="I1700" t="inlineStr"/>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>Title: Private tour of Montmartre</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr"/>
-      <c r="C1701" t="inlineStr"/>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr"/>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr"/>
-      <c r="H1701" t="inlineStr"/>
-      <c r="I1701" t="inlineStr"/>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr"/>
-      <c r="C1702" t="inlineStr"/>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr"/>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr"/>
-      <c r="H1702" t="inlineStr"/>
-      <c r="I1702" t="inlineStr"/>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr"/>
-      <c r="C1703" t="inlineStr"/>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr"/>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
-      <c r="H1703" t="inlineStr"/>
-      <c r="I1703" t="inlineStr"/>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 104883P39</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr"/>
-      <c r="C1704" t="inlineStr"/>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr"/>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr"/>
-      <c r="H1704" t="inlineStr"/>
-      <c r="I1704" t="inlineStr"/>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of the most charming and authentic neighbourhoods of the city. Discover the bohemian side of Paris and visit the magnificent Sacré Coeur Basilica on our family-oriented private tour.</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr"/>
-      <c r="C1705" t="inlineStr"/>
-      <c r="D1705" t="inlineStr"/>
-      <c r="E1705" t="inlineStr"/>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr"/>
-      <c r="H1705" t="inlineStr"/>
-      <c r="I1705" t="inlineStr"/>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>Title: Paris Montmartre and Sacre Coeur Private Tour for Kids and Families</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr"/>
-      <c r="C1706" t="inlineStr"/>
-      <c r="D1706" t="inlineStr"/>
-      <c r="E1706" t="inlineStr"/>
-      <c r="F1706" t="inlineStr"/>
-      <c r="G1706" t="inlineStr"/>
-      <c r="H1706" t="inlineStr"/>
-      <c r="I1706" t="inlineStr"/>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1707" t="inlineStr"/>
-      <c r="C1707" t="inlineStr"/>
-      <c r="D1707" t="inlineStr"/>
-      <c r="E1707" t="inlineStr"/>
-      <c r="F1707" t="inlineStr"/>
-      <c r="G1707" t="inlineStr"/>
-      <c r="H1707" t="inlineStr"/>
-      <c r="I1707" t="inlineStr"/>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1708" t="inlineStr"/>
-      <c r="C1708" t="inlineStr"/>
-      <c r="D1708" t="inlineStr"/>
-      <c r="E1708" t="inlineStr"/>
-      <c r="F1708" t="inlineStr"/>
-      <c r="G1708" t="inlineStr"/>
-      <c r="H1708" t="inlineStr"/>
-      <c r="I1708" t="inlineStr"/>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 222897P53</t>
-        </is>
-      </c>
-      <c r="B1709" t="inlineStr"/>
-      <c r="C1709" t="inlineStr"/>
-      <c r="D1709" t="inlineStr"/>
-      <c r="E1709" t="inlineStr"/>
-      <c r="F1709" t="inlineStr"/>
-      <c r="G1709" t="inlineStr"/>
-      <c r="H1709" t="inlineStr"/>
-      <c r="I1709" t="inlineStr"/>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>Summarized description: There’s more to Montmartre than meets the eye. Our tour of this quirky district delves deep into its dramatic history and very special character. As well as churches, cemeteries and chateaux, we’ll show you carousels, windmills and the capital's oldest vineyard.</t>
-        </is>
-      </c>
-      <c r="B1710" t="inlineStr"/>
-      <c r="C1710" t="inlineStr"/>
-      <c r="D1710" t="inlineStr"/>
-      <c r="E1710" t="inlineStr"/>
-      <c r="F1710" t="inlineStr"/>
-      <c r="G1710" t="inlineStr"/>
-      <c r="H1710" t="inlineStr"/>
-      <c r="I1710" t="inlineStr"/>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>Title: Personal Paris Montmartre Audio Guide with city map and earphone</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr"/>
-      <c r="C1711" t="inlineStr"/>
-      <c r="D1711" t="inlineStr"/>
-      <c r="E1711" t="inlineStr"/>
-      <c r="F1711" t="inlineStr"/>
-      <c r="G1711" t="inlineStr"/>
-      <c r="H1711" t="inlineStr"/>
-      <c r="I1711" t="inlineStr"/>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1712" t="inlineStr"/>
-      <c r="C1712" t="inlineStr"/>
-      <c r="D1712" t="inlineStr"/>
-      <c r="E1712" t="inlineStr"/>
-      <c r="F1712" t="inlineStr"/>
-      <c r="G1712" t="inlineStr"/>
-      <c r="H1712" t="inlineStr"/>
-      <c r="I1712" t="inlineStr"/>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1713" t="inlineStr"/>
-      <c r="C1713" t="inlineStr"/>
-      <c r="D1713" t="inlineStr"/>
-      <c r="E1713" t="inlineStr"/>
-      <c r="F1713" t="inlineStr"/>
-      <c r="G1713" t="inlineStr"/>
-      <c r="H1713" t="inlineStr"/>
-      <c r="I1713" t="inlineStr"/>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5746ESMONTMARTREWALK</t>
-        </is>
-      </c>
-      <c r="B1714" t="inlineStr"/>
-      <c r="C1714" t="inlineStr"/>
-      <c r="D1714" t="inlineStr"/>
-      <c r="E1714" t="inlineStr"/>
-      <c r="F1714" t="inlineStr"/>
-      <c r="G1714" t="inlineStr"/>
-      <c r="H1714" t="inlineStr"/>
-      <c r="I1714" t="inlineStr"/>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of Paris' most charming neighborhoods. Follow a local Spanish-speaking guide to explore the historic district. Visit famous attractions like Moulin Rouge and Basilique du Sacré-Coeur.</t>
-        </is>
-      </c>
-      <c r="B1715" t="inlineStr"/>
-      <c r="C1715" t="inlineStr"/>
-      <c r="D1715" t="inlineStr"/>
-      <c r="E1715" t="inlineStr"/>
-      <c r="F1715" t="inlineStr"/>
-      <c r="G1715" t="inlineStr"/>
-      <c r="H1715" t="inlineStr"/>
-      <c r="I1715" t="inlineStr"/>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="inlineStr">
-        <is>
-          <t>Title: Paris Walking Tour: Montmartre with a Spanish-Speaking Guide</t>
-        </is>
-      </c>
-      <c r="B1716" t="inlineStr"/>
-      <c r="C1716" t="inlineStr"/>
-      <c r="D1716" t="inlineStr"/>
-      <c r="E1716" t="inlineStr"/>
-      <c r="F1716" t="inlineStr"/>
-      <c r="G1716" t="inlineStr"/>
-      <c r="H1716" t="inlineStr"/>
-      <c r="I1716" t="inlineStr"/>
-    </row>
-    <row r="1717">
-      <c r="A1717" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1717" t="inlineStr"/>
-      <c r="C1717" t="inlineStr"/>
-      <c r="D1717" t="inlineStr"/>
-      <c r="E1717" t="inlineStr"/>
-      <c r="F1717" t="inlineStr"/>
-      <c r="G1717" t="inlineStr"/>
-      <c r="H1717" t="inlineStr"/>
-      <c r="I1717" t="inlineStr"/>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1718" t="inlineStr"/>
-      <c r="C1718" t="inlineStr"/>
-      <c r="D1718" t="inlineStr"/>
-      <c r="E1718" t="inlineStr"/>
-      <c r="F1718" t="inlineStr"/>
-      <c r="G1718" t="inlineStr"/>
-      <c r="H1718" t="inlineStr"/>
-      <c r="I1718" t="inlineStr"/>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 252536P1</t>
-        </is>
-      </c>
-      <c r="B1719" t="inlineStr"/>
-      <c r="C1719" t="inlineStr"/>
-      <c r="D1719" t="inlineStr"/>
-      <c r="E1719" t="inlineStr"/>
-      <c r="F1719" t="inlineStr"/>
-      <c r="G1719" t="inlineStr"/>
-      <c r="H1719" t="inlineStr"/>
-      <c r="I1719" t="inlineStr"/>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="inlineStr">
-        <is>
-          <t>Summarized description: A walk in Montmartre, orchestrated with magic tricks, a learning of 3 professional magic tricks and a magic gift (the Magiepro box)</t>
-        </is>
-      </c>
-      <c r="B1720" t="inlineStr"/>
-      <c r="C1720" t="inlineStr"/>
-      <c r="D1720" t="inlineStr"/>
-      <c r="E1720" t="inlineStr"/>
-      <c r="F1720" t="inlineStr"/>
-      <c r="G1720" t="inlineStr"/>
-      <c r="H1720" t="inlineStr"/>
-      <c r="I1720" t="inlineStr"/>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>Title: Magic in Montmartre</t>
-        </is>
-      </c>
-      <c r="B1721" t="inlineStr"/>
-      <c r="C1721" t="inlineStr"/>
-      <c r="D1721" t="inlineStr"/>
-      <c r="E1721" t="inlineStr"/>
-      <c r="F1721" t="inlineStr"/>
-      <c r="G1721" t="inlineStr"/>
-      <c r="H1721" t="inlineStr"/>
-      <c r="I1721" t="inlineStr"/>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1722" t="inlineStr"/>
-      <c r="C1722" t="inlineStr"/>
-      <c r="D1722" t="inlineStr"/>
-      <c r="E1722" t="inlineStr"/>
-      <c r="F1722" t="inlineStr"/>
-      <c r="G1722" t="inlineStr"/>
-      <c r="H1722" t="inlineStr"/>
-      <c r="I1722" t="inlineStr"/>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>Category: ['Entertainment', 'Workshops and Classes']</t>
-        </is>
-      </c>
-      <c r="B1723" t="inlineStr"/>
-      <c r="C1723" t="inlineStr"/>
-      <c r="D1723" t="inlineStr"/>
-      <c r="E1723" t="inlineStr"/>
-      <c r="F1723" t="inlineStr"/>
-      <c r="G1723" t="inlineStr"/>
-      <c r="H1723" t="inlineStr"/>
-      <c r="I1723" t="inlineStr"/>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 265370P13</t>
-        </is>
-      </c>
-      <c r="B1724" t="inlineStr"/>
-      <c r="C1724" t="inlineStr"/>
-      <c r="D1724" t="inlineStr"/>
-      <c r="E1724" t="inlineStr"/>
-      <c r="F1724" t="inlineStr"/>
-      <c r="G1724" t="inlineStr"/>
-      <c r="H1724" t="inlineStr"/>
-      <c r="I1724" t="inlineStr"/>
-    </row>
-    <row r="1725">
-      <c r="A1725" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of the most visited areas in the City of Lights. Famous for the great number of artists mainly painters who lived in its steep cobble-stone streets. We offer to show you the real local side of the district taking through the little local streets.</t>
-        </is>
-      </c>
-      <c r="B1725" t="inlineStr"/>
-      <c r="C1725" t="inlineStr"/>
-      <c r="D1725" t="inlineStr"/>
-      <c r="E1725" t="inlineStr"/>
-      <c r="F1725" t="inlineStr"/>
-      <c r="G1725" t="inlineStr"/>
-      <c r="H1725" t="inlineStr"/>
-      <c r="I1725" t="inlineStr"/>
-    </row>
-    <row r="1726">
-      <c r="A1726" t="inlineStr">
-        <is>
-          <t>Title: Small-Group Walking Tour of the Secrets of Montmartre</t>
-        </is>
-      </c>
-      <c r="B1726" t="inlineStr"/>
-      <c r="C1726" t="inlineStr"/>
-      <c r="D1726" t="inlineStr"/>
-      <c r="E1726" t="inlineStr"/>
-      <c r="F1726" t="inlineStr"/>
-      <c r="G1726" t="inlineStr"/>
-      <c r="H1726" t="inlineStr"/>
-      <c r="I1726" t="inlineStr"/>
-    </row>
-    <row r="1727">
-      <c r="A1727" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1727" t="inlineStr"/>
-      <c r="C1727" t="inlineStr"/>
-      <c r="D1727" t="inlineStr"/>
-      <c r="E1727" t="inlineStr"/>
-      <c r="F1727" t="inlineStr"/>
-      <c r="G1727" t="inlineStr"/>
-      <c r="H1727" t="inlineStr"/>
-      <c r="I1727" t="inlineStr"/>
-    </row>
-    <row r="1728">
-      <c r="A1728" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1728" t="inlineStr"/>
-      <c r="C1728" t="inlineStr"/>
-      <c r="D1728" t="inlineStr"/>
-      <c r="E1728" t="inlineStr"/>
-      <c r="F1728" t="inlineStr"/>
-      <c r="G1728" t="inlineStr"/>
-      <c r="H1728" t="inlineStr"/>
-      <c r="I1728" t="inlineStr"/>
-    </row>
-    <row r="1729">
-      <c r="A1729" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 121352P15</t>
-        </is>
-      </c>
-      <c r="B1729" t="inlineStr"/>
-      <c r="C1729" t="inlineStr"/>
-      <c r="D1729" t="inlineStr"/>
-      <c r="E1729" t="inlineStr"/>
-      <c r="F1729" t="inlineStr"/>
-      <c r="G1729" t="inlineStr"/>
-      <c r="H1729" t="inlineStr"/>
-      <c r="I1729" t="inlineStr"/>
-    </row>
-    <row r="1730">
-      <c r="A1730" t="inlineStr">
-        <is>
-          <t>Summarized description: Knowing this picturesque area from the hand of a friend who lives in it and who knows you very well. You will discover and enjoy a walk through the streets and hidden corners of Montmartre.</t>
-        </is>
-      </c>
-      <c r="B1730" t="inlineStr"/>
-      <c r="C1730" t="inlineStr"/>
-      <c r="D1730" t="inlineStr"/>
-      <c r="E1730" t="inlineStr"/>
-      <c r="F1730" t="inlineStr"/>
-      <c r="G1730" t="inlineStr"/>
-      <c r="H1730" t="inlineStr"/>
-      <c r="I1730" t="inlineStr"/>
-    </row>
-    <row r="1731">
-      <c r="A1731" t="inlineStr">
-        <is>
-          <t>Title: A walk in Montmartre</t>
-        </is>
-      </c>
-      <c r="B1731" t="inlineStr"/>
-      <c r="C1731" t="inlineStr"/>
-      <c r="D1731" t="inlineStr"/>
-      <c r="E1731" t="inlineStr"/>
-      <c r="F1731" t="inlineStr"/>
-      <c r="G1731" t="inlineStr"/>
-      <c r="H1731" t="inlineStr"/>
-      <c r="I1731" t="inlineStr"/>
-    </row>
-    <row r="1732">
-      <c r="A1732" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1732" t="inlineStr"/>
-      <c r="C1732" t="inlineStr"/>
-      <c r="D1732" t="inlineStr"/>
-      <c r="E1732" t="inlineStr"/>
-      <c r="F1732" t="inlineStr"/>
-      <c r="G1732" t="inlineStr"/>
-      <c r="H1732" t="inlineStr"/>
-      <c r="I1732" t="inlineStr"/>
-    </row>
-    <row r="1733">
-      <c r="A1733" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1733" t="inlineStr"/>
-      <c r="C1733" t="inlineStr"/>
-      <c r="D1733" t="inlineStr"/>
-      <c r="E1733" t="inlineStr"/>
-      <c r="F1733" t="inlineStr"/>
-      <c r="G1733" t="inlineStr"/>
-      <c r="H1733" t="inlineStr"/>
-      <c r="I1733" t="inlineStr"/>
-    </row>
-    <row r="1734">
-      <c r="A1734" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 8647P684</t>
-        </is>
-      </c>
-      <c r="B1734" t="inlineStr"/>
-      <c r="C1734" t="inlineStr"/>
-      <c r="D1734" t="inlineStr"/>
-      <c r="E1734" t="inlineStr"/>
-      <c r="F1734" t="inlineStr"/>
-      <c r="G1734" t="inlineStr"/>
-      <c r="H1734" t="inlineStr"/>
-      <c r="I1734" t="inlineStr"/>
-    </row>
-    <row r="1735">
-      <c r="A1735" t="inlineStr">
-        <is>
-          <t>Summarized description: Hilltop Montmartre is one of the most visited tourist spots in the city. You will discover this beautiful area with a local expert and licensed tour guide.</t>
-        </is>
-      </c>
-      <c r="B1735" t="inlineStr"/>
-      <c r="C1735" t="inlineStr"/>
-      <c r="D1735" t="inlineStr"/>
-      <c r="E1735" t="inlineStr"/>
-      <c r="F1735" t="inlineStr"/>
-      <c r="G1735" t="inlineStr"/>
-      <c r="H1735" t="inlineStr"/>
-      <c r="I1735" t="inlineStr"/>
-    </row>
-    <row r="1736">
-      <c r="A1736" t="inlineStr">
-        <is>
-          <t>Title: Private walking tour of Montmartre neighborhood in Paris</t>
-        </is>
-      </c>
-      <c r="B1736" t="inlineStr"/>
-      <c r="C1736" t="inlineStr"/>
-      <c r="D1736" t="inlineStr"/>
-      <c r="E1736" t="inlineStr"/>
-      <c r="F1736" t="inlineStr"/>
-      <c r="G1736" t="inlineStr"/>
-      <c r="H1736" t="inlineStr"/>
-      <c r="I1736" t="inlineStr"/>
-    </row>
-    <row r="1737">
-      <c r="A1737" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1737" t="inlineStr"/>
-      <c r="C1737" t="inlineStr"/>
-      <c r="D1737" t="inlineStr"/>
-      <c r="E1737" t="inlineStr"/>
-      <c r="F1737" t="inlineStr"/>
-      <c r="G1737" t="inlineStr"/>
-      <c r="H1737" t="inlineStr"/>
-      <c r="I1737" t="inlineStr"/>
-    </row>
-    <row r="1738">
-      <c r="A1738" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1738" t="inlineStr"/>
-      <c r="C1738" t="inlineStr"/>
-      <c r="D1738" t="inlineStr"/>
-      <c r="E1738" t="inlineStr"/>
-      <c r="F1738" t="inlineStr"/>
-      <c r="G1738" t="inlineStr"/>
-      <c r="H1738" t="inlineStr"/>
-      <c r="I1738" t="inlineStr"/>
-    </row>
-    <row r="1739">
-      <c r="A1739" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5411P233</t>
-        </is>
-      </c>
-      <c r="B1739" t="inlineStr"/>
-      <c r="C1739" t="inlineStr"/>
-      <c r="D1739" t="inlineStr"/>
-      <c r="E1739" t="inlineStr"/>
-      <c r="F1739" t="inlineStr"/>
-      <c r="G1739" t="inlineStr"/>
-      <c r="H1739" t="inlineStr"/>
-      <c r="I1739" t="inlineStr"/>
-    </row>
-    <row r="1740">
-      <c r="A1740" t="inlineStr">
-        <is>
-          <t>Summarized description: A small-group walking tour of Paris's enigmatic Montmartre neighborhood. Home to many impressionist and modern artists. A tour of the city's most famous landmarks.</t>
-        </is>
-      </c>
-      <c r="B1740" t="inlineStr"/>
-      <c r="C1740" t="inlineStr"/>
-      <c r="D1740" t="inlineStr"/>
-      <c r="E1740" t="inlineStr"/>
-      <c r="F1740" t="inlineStr"/>
-      <c r="G1740" t="inlineStr"/>
-      <c r="H1740" t="inlineStr"/>
-      <c r="I1740" t="inlineStr"/>
-    </row>
-    <row r="1741">
-      <c r="A1741" t="inlineStr">
-        <is>
-          <t>Title: Expert Led Tour of Paris' Montmartre Neighborhood</t>
-        </is>
-      </c>
-      <c r="B1741" t="inlineStr"/>
-      <c r="C1741" t="inlineStr"/>
-      <c r="D1741" t="inlineStr"/>
-      <c r="E1741" t="inlineStr"/>
-      <c r="F1741" t="inlineStr"/>
-      <c r="G1741" t="inlineStr"/>
-      <c r="H1741" t="inlineStr"/>
-      <c r="I1741" t="inlineStr"/>
-    </row>
-    <row r="1742">
-      <c r="A1742" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1742" t="inlineStr"/>
-      <c r="C1742" t="inlineStr"/>
-      <c r="D1742" t="inlineStr"/>
-      <c r="E1742" t="inlineStr"/>
-      <c r="F1742" t="inlineStr"/>
-      <c r="G1742" t="inlineStr"/>
-      <c r="H1742" t="inlineStr"/>
-      <c r="I1742" t="inlineStr"/>
-    </row>
-    <row r="1743">
-      <c r="A1743" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1743" t="inlineStr"/>
-      <c r="C1743" t="inlineStr"/>
-      <c r="D1743" t="inlineStr"/>
-      <c r="E1743" t="inlineStr"/>
-      <c r="F1743" t="inlineStr"/>
-      <c r="G1743" t="inlineStr"/>
-      <c r="H1743" t="inlineStr"/>
-      <c r="I1743" t="inlineStr"/>
-    </row>
-    <row r="1744">
-      <c r="A1744" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6839P45</t>
-        </is>
-      </c>
-      <c r="B1744" t="inlineStr"/>
-      <c r="C1744" t="inlineStr"/>
-      <c r="D1744" t="inlineStr"/>
-      <c r="E1744" t="inlineStr"/>
-      <c r="F1744" t="inlineStr"/>
-      <c r="G1744" t="inlineStr"/>
-      <c r="H1744" t="inlineStr"/>
-      <c r="I1744" t="inlineStr"/>
-    </row>
-    <row r="1745">
-      <c r="A1745" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of the key locations of the film Amélie. Meet your local guide and take a beautiful walk through the film's key locations.</t>
-        </is>
-      </c>
-      <c r="B1745" t="inlineStr"/>
-      <c r="C1745" t="inlineStr"/>
-      <c r="D1745" t="inlineStr"/>
-      <c r="E1745" t="inlineStr"/>
-      <c r="F1745" t="inlineStr"/>
-      <c r="G1745" t="inlineStr"/>
-      <c r="H1745" t="inlineStr"/>
-      <c r="I1745" t="inlineStr"/>
-    </row>
-    <row r="1746">
-      <c r="A1746" t="inlineStr">
-        <is>
-          <t>Title: Montmartre: In the Footsteps of Amélie Tour with a Snack</t>
-        </is>
-      </c>
-      <c r="B1746" t="inlineStr"/>
-      <c r="C1746" t="inlineStr"/>
-      <c r="D1746" t="inlineStr"/>
-      <c r="E1746" t="inlineStr"/>
-      <c r="F1746" t="inlineStr"/>
-      <c r="G1746" t="inlineStr"/>
-      <c r="H1746" t="inlineStr"/>
-      <c r="I1746" t="inlineStr"/>
-    </row>
-    <row r="1747">
-      <c r="A1747" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1747" t="inlineStr"/>
-      <c r="C1747" t="inlineStr"/>
-      <c r="D1747" t="inlineStr"/>
-      <c r="E1747" t="inlineStr"/>
-      <c r="F1747" t="inlineStr"/>
-      <c r="G1747" t="inlineStr"/>
-      <c r="H1747" t="inlineStr"/>
-      <c r="I1747" t="inlineStr"/>
-    </row>
-    <row r="1748">
-      <c r="A1748" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1748" t="inlineStr"/>
-      <c r="C1748" t="inlineStr"/>
-      <c r="D1748" t="inlineStr"/>
-      <c r="E1748" t="inlineStr"/>
-      <c r="F1748" t="inlineStr"/>
-      <c r="G1748" t="inlineStr"/>
-      <c r="H1748" t="inlineStr"/>
-      <c r="I1748" t="inlineStr"/>
-    </row>
-    <row r="1749">
-      <c r="A1749" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 9205P31</t>
-        </is>
-      </c>
-      <c r="B1749" t="inlineStr"/>
-      <c r="C1749" t="inlineStr"/>
-      <c r="D1749" t="inlineStr"/>
-      <c r="E1749" t="inlineStr"/>
-      <c r="F1749" t="inlineStr"/>
-      <c r="G1749" t="inlineStr"/>
-      <c r="H1749" t="inlineStr"/>
-      <c r="I1749" t="inlineStr"/>
-    </row>
-    <row r="1750">
-      <c r="A1750" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre offers a romantic glimpse into an era when raucous cabarets, bohemian soirées, and unbridled creativity were the norm. We’ll transport you back to those days by revealing things like the naughty origins of the Moulin Rouge.</t>
-        </is>
-      </c>
-      <c r="B1750" t="inlineStr"/>
-      <c r="C1750" t="inlineStr"/>
-      <c r="D1750" t="inlineStr"/>
-      <c r="E1750" t="inlineStr"/>
-      <c r="F1750" t="inlineStr"/>
-      <c r="G1750" t="inlineStr"/>
-      <c r="H1750" t="inlineStr"/>
-      <c r="I1750" t="inlineStr"/>
-    </row>
-    <row r="1751">
-      <c r="A1751" t="inlineStr">
-        <is>
-          <t>Title: 2-hour Walking Tour Through The Charms of Montmartre</t>
-        </is>
-      </c>
-      <c r="B1751" t="inlineStr"/>
-      <c r="C1751" t="inlineStr"/>
-      <c r="D1751" t="inlineStr"/>
-      <c r="E1751" t="inlineStr"/>
-      <c r="F1751" t="inlineStr"/>
-      <c r="G1751" t="inlineStr"/>
-      <c r="H1751" t="inlineStr"/>
-      <c r="I1751" t="inlineStr"/>
-    </row>
-    <row r="1752">
-      <c r="A1752" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1752" t="inlineStr"/>
-      <c r="C1752" t="inlineStr"/>
-      <c r="D1752" t="inlineStr"/>
-      <c r="E1752" t="inlineStr"/>
-      <c r="F1752" t="inlineStr"/>
-      <c r="G1752" t="inlineStr"/>
-      <c r="H1752" t="inlineStr"/>
-      <c r="I1752" t="inlineStr"/>
-    </row>
-    <row r="1753">
-      <c r="A1753" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1753" t="inlineStr"/>
-      <c r="C1753" t="inlineStr"/>
-      <c r="D1753" t="inlineStr"/>
-      <c r="E1753" t="inlineStr"/>
-      <c r="F1753" t="inlineStr"/>
-      <c r="G1753" t="inlineStr"/>
-      <c r="H1753" t="inlineStr"/>
-      <c r="I1753" t="inlineStr"/>
-    </row>
-    <row r="1754">
-      <c r="A1754" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 46018P28</t>
-        </is>
-      </c>
-      <c r="B1754" t="inlineStr"/>
-      <c r="C1754" t="inlineStr"/>
-      <c r="D1754" t="inlineStr"/>
-      <c r="E1754" t="inlineStr"/>
-      <c r="F1754" t="inlineStr"/>
-      <c r="G1754" t="inlineStr"/>
-      <c r="H1754" t="inlineStr"/>
-      <c r="I1754" t="inlineStr"/>
-    </row>
-    <row r="1755">
-      <c r="A1755" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the history of Paris’ quintessential bohemian neighborhood by visiting the bars, cafes, and streets that nurtured many of the 20th century’s finest artists. We’ll take in the views from the Sacre Coeur, see the original Moulin Rouge, pause at Picasso's old studio, and even peek into the only vineyard within the city limits.</t>
-        </is>
-      </c>
-      <c r="B1755" t="inlineStr"/>
-      <c r="C1755" t="inlineStr"/>
-      <c r="D1755" t="inlineStr"/>
-      <c r="E1755" t="inlineStr"/>
-      <c r="F1755" t="inlineStr"/>
-      <c r="G1755" t="inlineStr"/>
-      <c r="H1755" t="inlineStr"/>
-      <c r="I1755" t="inlineStr"/>
-    </row>
-    <row r="1756">
-      <c r="A1756" t="inlineStr">
-        <is>
-          <t>Title: In the footsteps of the Impressionists: Montmartre Tour with Sacre Coeur Views</t>
-        </is>
-      </c>
-      <c r="B1756" t="inlineStr"/>
-      <c r="C1756" t="inlineStr"/>
-      <c r="D1756" t="inlineStr"/>
-      <c r="E1756" t="inlineStr"/>
-      <c r="F1756" t="inlineStr"/>
-      <c r="G1756" t="inlineStr"/>
-      <c r="H1756" t="inlineStr"/>
-      <c r="I1756" t="inlineStr"/>
-    </row>
-    <row r="1757">
-      <c r="A1757" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1757" t="inlineStr"/>
-      <c r="C1757" t="inlineStr"/>
-      <c r="D1757" t="inlineStr"/>
-      <c r="E1757" t="inlineStr"/>
-      <c r="F1757" t="inlineStr"/>
-      <c r="G1757" t="inlineStr"/>
-      <c r="H1757" t="inlineStr"/>
-      <c r="I1757" t="inlineStr"/>
-    </row>
-    <row r="1758">
-      <c r="A1758" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1758" t="inlineStr"/>
-      <c r="C1758" t="inlineStr"/>
-      <c r="D1758" t="inlineStr"/>
-      <c r="E1758" t="inlineStr"/>
-      <c r="F1758" t="inlineStr"/>
-      <c r="G1758" t="inlineStr"/>
-      <c r="H1758" t="inlineStr"/>
-      <c r="I1758" t="inlineStr"/>
-    </row>
-    <row r="1759">
-      <c r="A1759" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 170789P1</t>
-        </is>
-      </c>
-      <c r="B1759" t="inlineStr"/>
-      <c r="C1759" t="inlineStr"/>
-      <c r="D1759" t="inlineStr"/>
-      <c r="E1759" t="inlineStr"/>
-      <c r="F1759" t="inlineStr"/>
-      <c r="G1759" t="inlineStr"/>
-      <c r="H1759" t="inlineStr"/>
-      <c r="I1759" t="inlineStr"/>
-    </row>
-    <row r="1760">
-      <c r="A1760" t="inlineStr">
-        <is>
-          <t>Summarized description: Photographer and travel guide offers a photographic workshop in the emblematic places of Paris. "I accompany travelers in the discovery of the creative and visual potential that photography offers," she says.</t>
-        </is>
-      </c>
-      <c r="B1760" t="inlineStr"/>
-      <c r="C1760" t="inlineStr"/>
-      <c r="D1760" t="inlineStr"/>
-      <c r="E1760" t="inlineStr"/>
-      <c r="F1760" t="inlineStr"/>
-      <c r="G1760" t="inlineStr"/>
-      <c r="H1760" t="inlineStr"/>
-      <c r="I1760" t="inlineStr"/>
-    </row>
-    <row r="1761">
-      <c r="A1761" t="inlineStr">
-        <is>
-          <t>Title: Discovery of Montmartre - Street photo and blue hour</t>
-        </is>
-      </c>
-      <c r="B1761" t="inlineStr"/>
-      <c r="C1761" t="inlineStr"/>
-      <c r="D1761" t="inlineStr"/>
-      <c r="E1761" t="inlineStr"/>
-      <c r="F1761" t="inlineStr"/>
-      <c r="G1761" t="inlineStr"/>
-      <c r="H1761" t="inlineStr"/>
-      <c r="I1761" t="inlineStr"/>
-    </row>
-    <row r="1762">
-      <c r="A1762" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1762" t="inlineStr"/>
-      <c r="C1762" t="inlineStr"/>
-      <c r="D1762" t="inlineStr"/>
-      <c r="E1762" t="inlineStr"/>
-      <c r="F1762" t="inlineStr"/>
-      <c r="G1762" t="inlineStr"/>
-      <c r="H1762" t="inlineStr"/>
-      <c r="I1762" t="inlineStr"/>
-    </row>
-    <row r="1763">
-      <c r="A1763" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Workshops and Classes']</t>
-        </is>
-      </c>
-      <c r="B1763" t="inlineStr"/>
-      <c r="C1763" t="inlineStr"/>
-      <c r="D1763" t="inlineStr"/>
-      <c r="E1763" t="inlineStr"/>
-      <c r="F1763" t="inlineStr"/>
-      <c r="G1763" t="inlineStr"/>
-      <c r="H1763" t="inlineStr"/>
-      <c r="I1763" t="inlineStr"/>
-    </row>
-    <row r="1764">
-      <c r="A1764" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 368071P2</t>
-        </is>
-      </c>
-      <c r="B1764" t="inlineStr"/>
-      <c r="C1764" t="inlineStr"/>
-      <c r="D1764" t="inlineStr"/>
-      <c r="E1764" t="inlineStr"/>
-      <c r="F1764" t="inlineStr"/>
-      <c r="G1764" t="inlineStr"/>
-      <c r="H1764" t="inlineStr"/>
-      <c r="I1764" t="inlineStr"/>
-    </row>
-    <row r="1765">
-      <c r="A1765" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is not only the district of love and artists. From the Cabaret des Assassins to the Bateau Lavoir, we will tell you about the political or villainous assassinations.</t>
-        </is>
-      </c>
-      <c r="B1765" t="inlineStr"/>
-      <c r="C1765" t="inlineStr"/>
-      <c r="D1765" t="inlineStr"/>
-      <c r="E1765" t="inlineStr"/>
-      <c r="F1765" t="inlineStr"/>
-      <c r="G1765" t="inlineStr"/>
-      <c r="H1765" t="inlineStr"/>
-      <c r="I1765" t="inlineStr"/>
-    </row>
-    <row r="1766">
-      <c r="A1766" t="inlineStr">
-        <is>
-          <t>Title: 2 Hours of Paris Crime Circuit around Montmartre</t>
-        </is>
-      </c>
-      <c r="B1766" t="inlineStr"/>
-      <c r="C1766" t="inlineStr"/>
-      <c r="D1766" t="inlineStr"/>
-      <c r="E1766" t="inlineStr"/>
-      <c r="F1766" t="inlineStr"/>
-      <c r="G1766" t="inlineStr"/>
-      <c r="H1766" t="inlineStr"/>
-      <c r="I1766" t="inlineStr"/>
-    </row>
-    <row r="1767">
-      <c r="A1767" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1767" t="inlineStr"/>
-      <c r="C1767" t="inlineStr"/>
-      <c r="D1767" t="inlineStr"/>
-      <c r="E1767" t="inlineStr"/>
-      <c r="F1767" t="inlineStr"/>
-      <c r="G1767" t="inlineStr"/>
-      <c r="H1767" t="inlineStr"/>
-      <c r="I1767" t="inlineStr"/>
-    </row>
-    <row r="1768">
-      <c r="A1768" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1768" t="inlineStr"/>
-      <c r="C1768" t="inlineStr"/>
-      <c r="D1768" t="inlineStr"/>
-      <c r="E1768" t="inlineStr"/>
-      <c r="F1768" t="inlineStr"/>
-      <c r="G1768" t="inlineStr"/>
-      <c r="H1768" t="inlineStr"/>
-      <c r="I1768" t="inlineStr"/>
-    </row>
-    <row r="1769">
-      <c r="A1769" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 181888P8</t>
-        </is>
-      </c>
-      <c r="B1769" t="inlineStr"/>
-      <c r="C1769" t="inlineStr"/>
-      <c r="D1769" t="inlineStr"/>
-      <c r="E1769" t="inlineStr"/>
-      <c r="F1769" t="inlineStr"/>
-      <c r="G1769" t="inlineStr"/>
-      <c r="H1769" t="inlineStr"/>
-      <c r="I1769" t="inlineStr"/>
-    </row>
-    <row r="1770">
-      <c r="A1770" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is a bohemian neighborhood of Paris. Visit it’s old cabarets around the Byzantine cathedral “the Sacre Coeur’</t>
-        </is>
-      </c>
-      <c r="B1770" t="inlineStr"/>
-      <c r="C1770" t="inlineStr"/>
-      <c r="D1770" t="inlineStr"/>
-      <c r="E1770" t="inlineStr"/>
-      <c r="F1770" t="inlineStr"/>
-      <c r="G1770" t="inlineStr"/>
-      <c r="H1770" t="inlineStr"/>
-      <c r="I1770" t="inlineStr"/>
-    </row>
-    <row r="1771">
-      <c r="A1771" t="inlineStr">
-        <is>
-          <t>Title: Eternal Montmartre!</t>
-        </is>
-      </c>
-      <c r="B1771" t="inlineStr"/>
-      <c r="C1771" t="inlineStr"/>
-      <c r="D1771" t="inlineStr"/>
-      <c r="E1771" t="inlineStr"/>
-      <c r="F1771" t="inlineStr"/>
-      <c r="G1771" t="inlineStr"/>
-      <c r="H1771" t="inlineStr"/>
-      <c r="I1771" t="inlineStr"/>
-    </row>
-    <row r="1772">
-      <c r="A1772" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1772" t="inlineStr"/>
-      <c r="C1772" t="inlineStr"/>
-      <c r="D1772" t="inlineStr"/>
-      <c r="E1772" t="inlineStr"/>
-      <c r="F1772" t="inlineStr"/>
-      <c r="G1772" t="inlineStr"/>
-      <c r="H1772" t="inlineStr"/>
-      <c r="I1772" t="inlineStr"/>
-    </row>
-    <row r="1773">
-      <c r="A1773" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1773" t="inlineStr"/>
-      <c r="C1773" t="inlineStr"/>
-      <c r="D1773" t="inlineStr"/>
-      <c r="E1773" t="inlineStr"/>
-      <c r="F1773" t="inlineStr"/>
-      <c r="G1773" t="inlineStr"/>
-      <c r="H1773" t="inlineStr"/>
-      <c r="I1773" t="inlineStr"/>
-    </row>
-    <row r="1774">
-      <c r="A1774" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 255404P1</t>
-        </is>
-      </c>
-      <c r="B1774" t="inlineStr"/>
-      <c r="C1774" t="inlineStr"/>
-      <c r="D1774" t="inlineStr"/>
-      <c r="E1774" t="inlineStr"/>
-      <c r="F1774" t="inlineStr"/>
-      <c r="G1774" t="inlineStr"/>
-      <c r="H1774" t="inlineStr"/>
-      <c r="I1774" t="inlineStr"/>
-    </row>
-    <row r="1775">
-      <c r="A1775" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of the most picturesque neighborhoods in Paris. Discover the stories and anecdotes that have shaped the neighborhood. You will receive your edited pictures within 10 days after the tour.</t>
-        </is>
-      </c>
-      <c r="B1775" t="inlineStr"/>
-      <c r="C1775" t="inlineStr"/>
-      <c r="D1775" t="inlineStr"/>
-      <c r="E1775" t="inlineStr"/>
-      <c r="F1775" t="inlineStr"/>
-      <c r="G1775" t="inlineStr"/>
-      <c r="H1775" t="inlineStr"/>
-      <c r="I1775" t="inlineStr"/>
-    </row>
-    <row r="1776">
-      <c r="A1776" t="inlineStr">
-        <is>
-          <t>Title: Romantic walk &amp; photoshoot in Montmartre</t>
-        </is>
-      </c>
-      <c r="B1776" t="inlineStr"/>
-      <c r="C1776" t="inlineStr"/>
-      <c r="D1776" t="inlineStr"/>
-      <c r="E1776" t="inlineStr"/>
-      <c r="F1776" t="inlineStr"/>
-      <c r="G1776" t="inlineStr"/>
-      <c r="H1776" t="inlineStr"/>
-      <c r="I1776" t="inlineStr"/>
-    </row>
-    <row r="1777">
-      <c r="A1777" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1777" t="inlineStr"/>
-      <c r="C1777" t="inlineStr"/>
-      <c r="D1777" t="inlineStr"/>
-      <c r="E1777" t="inlineStr"/>
-      <c r="F1777" t="inlineStr"/>
-      <c r="G1777" t="inlineStr"/>
-      <c r="H1777" t="inlineStr"/>
-      <c r="I1777" t="inlineStr"/>
-    </row>
-    <row r="1778">
-      <c r="A1778" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1778" t="inlineStr"/>
-      <c r="C1778" t="inlineStr"/>
-      <c r="D1778" t="inlineStr"/>
-      <c r="E1778" t="inlineStr"/>
-      <c r="F1778" t="inlineStr"/>
-      <c r="G1778" t="inlineStr"/>
-      <c r="H1778" t="inlineStr"/>
-      <c r="I1778" t="inlineStr"/>
-    </row>
-    <row r="1779">
-      <c r="A1779" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 110804P614</t>
-        </is>
-      </c>
-      <c r="B1779" t="inlineStr"/>
-      <c r="C1779" t="inlineStr"/>
-      <c r="D1779" t="inlineStr"/>
-      <c r="E1779" t="inlineStr"/>
-      <c r="F1779" t="inlineStr"/>
-      <c r="G1779" t="inlineStr"/>
-      <c r="H1779" t="inlineStr"/>
-      <c r="I1779" t="inlineStr"/>
-    </row>
-    <row r="1780">
-      <c r="A1780" t="inlineStr">
-        <is>
-          <t>Summarized description: Self-guided and self-paced walking tour. Follow in the footsteps of renowned artists like Pablo Picasso and Vincent Van Gogh through Paris' Montmartre district.</t>
-        </is>
-      </c>
-      <c r="B1780" t="inlineStr"/>
-      <c r="C1780" t="inlineStr"/>
-      <c r="D1780" t="inlineStr"/>
-      <c r="E1780" t="inlineStr"/>
-      <c r="F1780" t="inlineStr"/>
-      <c r="G1780" t="inlineStr"/>
-      <c r="H1780" t="inlineStr"/>
-      <c r="I1780" t="inlineStr"/>
-    </row>
-    <row r="1781">
-      <c r="A1781" t="inlineStr">
-        <is>
-          <t>Title: Private Self-Guided Audio Tour in Paris Montmartre District</t>
-        </is>
-      </c>
-      <c r="B1781" t="inlineStr"/>
-      <c r="C1781" t="inlineStr"/>
-      <c r="D1781" t="inlineStr"/>
-      <c r="E1781" t="inlineStr"/>
-      <c r="F1781" t="inlineStr"/>
-      <c r="G1781" t="inlineStr"/>
-      <c r="H1781" t="inlineStr"/>
-      <c r="I1781" t="inlineStr"/>
-    </row>
-    <row r="1782">
-      <c r="A1782" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1782" t="inlineStr"/>
-      <c r="C1782" t="inlineStr"/>
-      <c r="D1782" t="inlineStr"/>
-      <c r="E1782" t="inlineStr"/>
-      <c r="F1782" t="inlineStr"/>
-      <c r="G1782" t="inlineStr"/>
-      <c r="H1782" t="inlineStr"/>
-      <c r="I1782" t="inlineStr"/>
-    </row>
-    <row r="1783">
-      <c r="A1783" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1783" t="inlineStr"/>
-      <c r="C1783" t="inlineStr"/>
-      <c r="D1783" t="inlineStr"/>
-      <c r="E1783" t="inlineStr"/>
-      <c r="F1783" t="inlineStr"/>
-      <c r="G1783" t="inlineStr"/>
-      <c r="H1783" t="inlineStr"/>
-      <c r="I1783" t="inlineStr"/>
-    </row>
-    <row r="1784">
-      <c r="A1784" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 9257P4</t>
-        </is>
-      </c>
-      <c r="B1784" t="inlineStr"/>
-      <c r="C1784" t="inlineStr"/>
-      <c r="D1784" t="inlineStr"/>
-      <c r="E1784" t="inlineStr"/>
-      <c r="F1784" t="inlineStr"/>
-      <c r="G1784" t="inlineStr"/>
-      <c r="H1784" t="inlineStr"/>
-      <c r="I1784" t="inlineStr"/>
-    </row>
-    <row r="1785">
-      <c r="A1785" t="inlineStr">
-        <is>
-          <t>Summarized description: You will have a chance to peek into shops, sample goodies, and sometimes just sit and take in the view. All of the afternoon walks are at leisure pace.</t>
-        </is>
-      </c>
-      <c r="B1785" t="inlineStr"/>
-      <c r="C1785" t="inlineStr"/>
-      <c r="D1785" t="inlineStr"/>
-      <c r="E1785" t="inlineStr"/>
-      <c r="F1785" t="inlineStr"/>
-      <c r="G1785" t="inlineStr"/>
-      <c r="H1785" t="inlineStr"/>
-      <c r="I1785" t="inlineStr"/>
-    </row>
-    <row r="1786">
-      <c r="A1786" t="inlineStr">
-        <is>
-          <t>Title: Afternoon Leisure Walk in Paris: Montmartre</t>
-        </is>
-      </c>
-      <c r="B1786" t="inlineStr"/>
-      <c r="C1786" t="inlineStr"/>
-      <c r="D1786" t="inlineStr"/>
-      <c r="E1786" t="inlineStr"/>
-      <c r="F1786" t="inlineStr"/>
-      <c r="G1786" t="inlineStr"/>
-      <c r="H1786" t="inlineStr"/>
-      <c r="I1786" t="inlineStr"/>
-    </row>
-    <row r="1787">
-      <c r="A1787" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1787" t="inlineStr"/>
-      <c r="C1787" t="inlineStr"/>
-      <c r="D1787" t="inlineStr"/>
-      <c r="E1787" t="inlineStr"/>
-      <c r="F1787" t="inlineStr"/>
-      <c r="G1787" t="inlineStr"/>
-      <c r="H1787" t="inlineStr"/>
-      <c r="I1787" t="inlineStr"/>
-    </row>
-    <row r="1788">
-      <c r="A1788" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1788" t="inlineStr"/>
-      <c r="C1788" t="inlineStr"/>
-      <c r="D1788" t="inlineStr"/>
-      <c r="E1788" t="inlineStr"/>
-      <c r="F1788" t="inlineStr"/>
-      <c r="G1788" t="inlineStr"/>
-      <c r="H1788" t="inlineStr"/>
-      <c r="I1788" t="inlineStr"/>
-    </row>
-    <row r="1789">
-      <c r="A1789" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 101116P8</t>
-        </is>
-      </c>
-      <c r="B1789" t="inlineStr"/>
-      <c r="C1789" t="inlineStr"/>
-      <c r="D1789" t="inlineStr"/>
-      <c r="E1789" t="inlineStr"/>
-      <c r="F1789" t="inlineStr"/>
-      <c r="G1789" t="inlineStr"/>
-      <c r="H1789" t="inlineStr"/>
-      <c r="I1789" t="inlineStr"/>
-    </row>
-    <row r="1790">
-      <c r="A1790" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of the most famous places in the world. It is home to some of the world's greatest artists including Picasso, Van Gogh and Edith Piaf. This tour will take you through the streets of Montmartre.</t>
-        </is>
-      </c>
-      <c r="B1790" t="inlineStr"/>
-      <c r="C1790" t="inlineStr"/>
-      <c r="D1790" t="inlineStr"/>
-      <c r="E1790" t="inlineStr"/>
-      <c r="F1790" t="inlineStr"/>
-      <c r="G1790" t="inlineStr"/>
-      <c r="H1790" t="inlineStr"/>
-      <c r="I1790" t="inlineStr"/>
-    </row>
-    <row r="1791">
-      <c r="A1791" t="inlineStr">
-        <is>
-          <t>Title: Montmartre &amp; Sacre Coeur Tour with Local Guide Alberto and his team in Paris</t>
-        </is>
-      </c>
-      <c r="B1791" t="inlineStr"/>
-      <c r="C1791" t="inlineStr"/>
-      <c r="D1791" t="inlineStr"/>
-      <c r="E1791" t="inlineStr"/>
-      <c r="F1791" t="inlineStr"/>
-      <c r="G1791" t="inlineStr"/>
-      <c r="H1791" t="inlineStr"/>
-      <c r="I1791" t="inlineStr"/>
-    </row>
-    <row r="1792">
-      <c r="A1792" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1792" t="inlineStr"/>
-      <c r="C1792" t="inlineStr"/>
-      <c r="D1792" t="inlineStr"/>
-      <c r="E1792" t="inlineStr"/>
-      <c r="F1792" t="inlineStr"/>
-      <c r="G1792" t="inlineStr"/>
-      <c r="H1792" t="inlineStr"/>
-      <c r="I1792" t="inlineStr"/>
-    </row>
-    <row r="1793">
-      <c r="A1793" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1793" t="inlineStr"/>
-      <c r="C1793" t="inlineStr"/>
-      <c r="D1793" t="inlineStr"/>
-      <c r="E1793" t="inlineStr"/>
-      <c r="F1793" t="inlineStr"/>
-      <c r="G1793" t="inlineStr"/>
-      <c r="H1793" t="inlineStr"/>
-      <c r="I1793" t="inlineStr"/>
-    </row>
-    <row r="1794">
-      <c r="A1794" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 66049P63</t>
-        </is>
-      </c>
-      <c r="B1794" t="inlineStr"/>
-      <c r="C1794" t="inlineStr"/>
-      <c r="D1794" t="inlineStr"/>
-      <c r="E1794" t="inlineStr"/>
-      <c r="F1794" t="inlineStr"/>
-      <c r="G1794" t="inlineStr"/>
-      <c r="H1794" t="inlineStr"/>
-      <c r="I1794" t="inlineStr"/>
-    </row>
-    <row r="1795">
-      <c r="A1795" t="inlineStr">
-        <is>
-          <t>Summarized description: We will meet in front of the metro station Abbesses and from there we will walk through the beautiful streets of Montmartre. I have discovered this area by myself and I found a lot of special spots on my long walking hours on the streets of Paris.</t>
-        </is>
-      </c>
-      <c r="B1795" t="inlineStr"/>
-      <c r="C1795" t="inlineStr"/>
-      <c r="D1795" t="inlineStr"/>
-      <c r="E1795" t="inlineStr"/>
-      <c r="F1795" t="inlineStr"/>
-      <c r="G1795" t="inlineStr"/>
-      <c r="H1795" t="inlineStr"/>
-      <c r="I1795" t="inlineStr"/>
-    </row>
-    <row r="1796">
-      <c r="A1796" t="inlineStr">
-        <is>
-          <t>Title: Private Paris Photo Experience through Montmartre</t>
-        </is>
-      </c>
-      <c r="B1796" t="inlineStr"/>
-      <c r="C1796" t="inlineStr"/>
-      <c r="D1796" t="inlineStr"/>
-      <c r="E1796" t="inlineStr"/>
-      <c r="F1796" t="inlineStr"/>
-      <c r="G1796" t="inlineStr"/>
-      <c r="H1796" t="inlineStr"/>
-      <c r="I1796" t="inlineStr"/>
-    </row>
-    <row r="1797">
-      <c r="A1797" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1797" t="inlineStr"/>
-      <c r="C1797" t="inlineStr"/>
-      <c r="D1797" t="inlineStr"/>
-      <c r="E1797" t="inlineStr"/>
-      <c r="F1797" t="inlineStr"/>
-      <c r="G1797" t="inlineStr"/>
-      <c r="H1797" t="inlineStr"/>
-      <c r="I1797" t="inlineStr"/>
-    </row>
-    <row r="1798">
-      <c r="A1798" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1798" t="inlineStr"/>
-      <c r="C1798" t="inlineStr"/>
-      <c r="D1798" t="inlineStr"/>
-      <c r="E1798" t="inlineStr"/>
-      <c r="F1798" t="inlineStr"/>
-      <c r="G1798" t="inlineStr"/>
-      <c r="H1798" t="inlineStr"/>
-      <c r="I1798" t="inlineStr"/>
-    </row>
-    <row r="1799">
-      <c r="A1799" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 265370P4</t>
-        </is>
-      </c>
-      <c r="B1799" t="inlineStr"/>
-      <c r="C1799" t="inlineStr"/>
-      <c r="D1799" t="inlineStr"/>
-      <c r="E1799" t="inlineStr"/>
-      <c r="F1799" t="inlineStr"/>
-      <c r="G1799" t="inlineStr"/>
-      <c r="H1799" t="inlineStr"/>
-      <c r="I1799" t="inlineStr"/>
-    </row>
-    <row r="1800">
-      <c r="A1800" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is one of the most beautiful neighbourhoods in Paris. It is home to some of the city's most famous artists, including Van Gogh, Picasso and Lautrec.</t>
-        </is>
-      </c>
-      <c r="B1800" t="inlineStr"/>
-      <c r="C1800" t="inlineStr"/>
-      <c r="D1800" t="inlineStr"/>
-      <c r="E1800" t="inlineStr"/>
-      <c r="F1800" t="inlineStr"/>
-      <c r="G1800" t="inlineStr"/>
-      <c r="H1800" t="inlineStr"/>
-      <c r="I1800" t="inlineStr"/>
-    </row>
-    <row r="1801">
-      <c r="A1801" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Montmartre's Secrets and Tastes in a Private Walking tour </t>
-        </is>
-      </c>
-      <c r="B1801" t="inlineStr"/>
-      <c r="C1801" t="inlineStr"/>
-      <c r="D1801" t="inlineStr"/>
-      <c r="E1801" t="inlineStr"/>
-      <c r="F1801" t="inlineStr"/>
-      <c r="G1801" t="inlineStr"/>
-      <c r="H1801" t="inlineStr"/>
-      <c r="I1801" t="inlineStr"/>
-    </row>
-    <row r="1802">
-      <c r="A1802" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1802" t="inlineStr"/>
-      <c r="C1802" t="inlineStr"/>
-      <c r="D1802" t="inlineStr"/>
-      <c r="E1802" t="inlineStr"/>
-      <c r="F1802" t="inlineStr"/>
-      <c r="G1802" t="inlineStr"/>
-      <c r="H1802" t="inlineStr"/>
-      <c r="I1802" t="inlineStr"/>
-    </row>
-    <row r="1803">
-      <c r="A1803" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1803" t="inlineStr"/>
-      <c r="C1803" t="inlineStr"/>
-      <c r="D1803" t="inlineStr"/>
-      <c r="E1803" t="inlineStr"/>
-      <c r="F1803" t="inlineStr"/>
-      <c r="G1803" t="inlineStr"/>
-      <c r="H1803" t="inlineStr"/>
-      <c r="I1803" t="inlineStr"/>
-    </row>
-    <row r="1804">
-      <c r="A1804" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239576P14</t>
-        </is>
-      </c>
-      <c r="B1804" t="inlineStr"/>
-      <c r="C1804" t="inlineStr"/>
-      <c r="D1804" t="inlineStr"/>
-      <c r="E1804" t="inlineStr"/>
-      <c r="F1804" t="inlineStr"/>
-      <c r="G1804" t="inlineStr"/>
-      <c r="H1804" t="inlineStr"/>
-      <c r="I1804" t="inlineStr"/>
-    </row>
-    <row r="1805">
-      <c r="A1805" t="inlineStr">
-        <is>
-          <t>Summarized description: Montmartre is a district known for its artists and historically bohemian vibe. Start your route at the Moulin Rouge and see where artists like Van Gogh, Henri de Toulouse-Lautrec, and Pissarro lived and worked. Hear stories from your guide about what makes this district stand out from the rest of Paris.</t>
-        </is>
-      </c>
-      <c r="B1805" t="inlineStr"/>
-      <c r="C1805" t="inlineStr"/>
-      <c r="D1805" t="inlineStr"/>
-      <c r="E1805" t="inlineStr"/>
-      <c r="F1805" t="inlineStr"/>
-      <c r="G1805" t="inlineStr"/>
-      <c r="H1805" t="inlineStr"/>
-      <c r="I1805" t="inlineStr"/>
-    </row>
-    <row r="1806">
-      <c r="A1806" t="inlineStr">
-        <is>
-          <t>Title: Paris - Place de Clichy and Montmartre Walking Tour with Private guide</t>
-        </is>
-      </c>
-      <c r="B1806" t="inlineStr"/>
-      <c r="C1806" t="inlineStr"/>
-      <c r="D1806" t="inlineStr"/>
-      <c r="E1806" t="inlineStr"/>
-      <c r="F1806" t="inlineStr"/>
-      <c r="G1806" t="inlineStr"/>
-      <c r="H1806" t="inlineStr"/>
-      <c r="I1806" t="inlineStr"/>
-    </row>
-    <row r="1807">
-      <c r="A1807" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1807" t="inlineStr"/>
-      <c r="C1807" t="inlineStr"/>
-      <c r="D1807" t="inlineStr"/>
-      <c r="E1807" t="inlineStr"/>
-      <c r="F1807" t="inlineStr"/>
-      <c r="G1807" t="inlineStr"/>
-      <c r="H1807" t="inlineStr"/>
-      <c r="I1807" t="inlineStr"/>
-    </row>
-    <row r="1808">
-      <c r="A1808" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1808" t="inlineStr"/>
-      <c r="C1808" t="inlineStr"/>
-      <c r="D1808" t="inlineStr"/>
-      <c r="E1808" t="inlineStr"/>
-      <c r="F1808" t="inlineStr"/>
-      <c r="G1808" t="inlineStr"/>
-      <c r="H1808" t="inlineStr"/>
-      <c r="I1808" t="inlineStr"/>
-    </row>
-    <row r="1809">
-      <c r="A1809" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1809" t="inlineStr"/>
-      <c r="C1809" t="inlineStr"/>
-      <c r="D1809" t="inlineStr"/>
-      <c r="E1809" t="inlineStr"/>
-      <c r="F1809" t="inlineStr"/>
-      <c r="G1809" t="inlineStr"/>
-      <c r="H1809" t="inlineStr"/>
-      <c r="I1809" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
